--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H888"/>
+  <dimension ref="A1:H890"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024/02/11</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15">
@@ -926,7 +926,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>91094</v>
+        <v>91529</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>3025</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="24">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>22180</v>
+        <v>22302</v>
       </c>
     </row>
     <row r="29">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>6090</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="32">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>10731</v>
+        <v>10881</v>
       </c>
     </row>
     <row r="36">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>15307</v>
+        <v>15409</v>
       </c>
     </row>
     <row r="37">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1287</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="46">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>4262</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="48">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>55189</v>
+        <v>56342</v>
       </c>
     </row>
     <row r="50">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>5129</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="51">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>13648</v>
+        <v>13712</v>
       </c>
     </row>
     <row r="53">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>17785</v>
+        <v>17817</v>
       </c>
     </row>
     <row r="54">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>227721</v>
+        <v>228301</v>
       </c>
     </row>
     <row r="55">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>12465</v>
+        <v>12545</v>
       </c>
     </row>
     <row r="56">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>16764</v>
+        <v>16847</v>
       </c>
     </row>
     <row r="59">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1860</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="62">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>47143</v>
+        <v>47329</v>
       </c>
     </row>
     <row r="63">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>13674</v>
+        <v>13739</v>
       </c>
     </row>
     <row r="64">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>14186</v>
+        <v>15864</v>
       </c>
     </row>
     <row r="66">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>15555</v>
+        <v>15629</v>
       </c>
     </row>
     <row r="72">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>15076</v>
+        <v>15227</v>
       </c>
     </row>
     <row r="74">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>21935</v>
+        <v>22240</v>
       </c>
     </row>
     <row r="76">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>17633</v>
+        <v>17861</v>
       </c>
     </row>
     <row r="77">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>39757</v>
+        <v>39828</v>
       </c>
     </row>
     <row r="80">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>4450</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="81">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>9446</v>
+        <v>9449</v>
       </c>
     </row>
     <row r="82">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>44747</v>
+        <v>44939</v>
       </c>
     </row>
     <row r="88">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>12237</v>
+        <v>12304</v>
       </c>
     </row>
     <row r="89">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>20627</v>
+        <v>20802</v>
       </c>
     </row>
     <row r="92">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>98994</v>
+        <v>99478</v>
       </c>
     </row>
     <row r="95">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>12051</v>
+        <v>12076</v>
       </c>
     </row>
     <row r="96">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1073</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="99">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>9712</v>
+        <v>9762</v>
       </c>
     </row>
     <row r="100">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>14512</v>
+        <v>14612</v>
       </c>
     </row>
     <row r="102">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>18075</v>
+        <v>18191</v>
       </c>
     </row>
     <row r="103">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>54289</v>
+        <v>54576</v>
       </c>
     </row>
     <row r="105">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>12730</v>
+        <v>12871</v>
       </c>
     </row>
     <row r="107">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>3029</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="109">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>6310</v>
+        <v>6313</v>
       </c>
     </row>
     <row r="110">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>13398</v>
+        <v>13448</v>
       </c>
     </row>
     <row r="114">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>12404</v>
+        <v>12559</v>
       </c>
     </row>
     <row r="116">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>4681</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="117">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>2408</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="119">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>57379</v>
+        <v>57537</v>
       </c>
     </row>
     <row r="120">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>19678</v>
+        <v>19721</v>
       </c>
     </row>
     <row r="122">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>7570</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="126">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>3728</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="129">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>3618</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="130">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>3384</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="131">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>9162</v>
+        <v>9176</v>
       </c>
     </row>
     <row r="133">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>10902</v>
+        <v>11014</v>
       </c>
     </row>
     <row r="134">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>4420</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="135">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>16562</v>
+        <v>16589</v>
       </c>
     </row>
     <row r="138">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>24198</v>
+        <v>24301</v>
       </c>
     </row>
     <row r="139">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>25272</v>
+        <v>25303</v>
       </c>
     </row>
     <row r="141">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>6607</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="142">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>28452</v>
+        <v>28480</v>
       </c>
     </row>
     <row r="143">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>8243</v>
+        <v>8465</v>
       </c>
     </row>
     <row r="144">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>553</v>
+        <v>768</v>
       </c>
     </row>
     <row r="146">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>14290</v>
+        <v>14330</v>
       </c>
     </row>
     <row r="147">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>39258</v>
+        <v>39495</v>
       </c>
     </row>
     <row r="150">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>191903</v>
+        <v>193775</v>
       </c>
     </row>
     <row r="153">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>55974</v>
+        <v>56637</v>
       </c>
     </row>
     <row r="154">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>15689</v>
+        <v>15792</v>
       </c>
     </row>
     <row r="156">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>20540</v>
+        <v>20618</v>
       </c>
     </row>
     <row r="157">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>1686</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="160">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>12416</v>
+        <v>12579</v>
       </c>
     </row>
     <row r="161">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>122919</v>
+        <v>123478</v>
       </c>
     </row>
     <row r="162">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>26437</v>
+        <v>26593</v>
       </c>
     </row>
     <row r="164">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>19991</v>
+        <v>20606</v>
       </c>
     </row>
     <row r="165">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>2968</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="166">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>2365</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="167">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>26661</v>
+        <v>26892</v>
       </c>
     </row>
     <row r="168">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>10603</v>
+        <v>10687</v>
       </c>
     </row>
     <row r="169">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>11366</v>
+        <v>11478</v>
       </c>
     </row>
     <row r="170">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>20331</v>
+        <v>20453</v>
       </c>
     </row>
     <row r="171">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>12636</v>
+        <v>12654</v>
       </c>
     </row>
     <row r="172">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>1354</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="174">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>8398</v>
+        <v>8499</v>
       </c>
     </row>
     <row r="175">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>4141</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="176">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>12325</v>
+        <v>12579</v>
       </c>
     </row>
     <row r="180">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>6705</v>
+        <v>6749</v>
       </c>
     </row>
     <row r="182">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2024/02/10</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>29079</v>
+        <v>29321</v>
       </c>
     </row>
     <row r="183">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>1319</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="185">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>105362</v>
+        <v>106620</v>
       </c>
     </row>
     <row r="186">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>37715</v>
+        <v>38161</v>
       </c>
     </row>
     <row r="187">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>5494</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="190">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>70684</v>
+        <v>71488</v>
       </c>
     </row>
     <row r="191">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>24957</v>
+        <v>25322</v>
       </c>
     </row>
     <row r="192">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>10766</v>
+        <v>10942</v>
       </c>
     </row>
     <row r="194">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>867</v>
+        <v>875</v>
       </c>
     </row>
     <row r="195">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>6411</v>
+        <v>6467</v>
       </c>
     </row>
     <row r="196">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>85558</v>
+        <v>85592</v>
       </c>
     </row>
     <row r="197">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="200">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>4243</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="201">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>11875</v>
+        <v>11990</v>
       </c>
     </row>
     <row r="202">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2023/11/23</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>2020</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="206">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>3233</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="207">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>12599</v>
+        <v>12679</v>
       </c>
     </row>
     <row r="208">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>198919</v>
+        <v>200769</v>
       </c>
     </row>
     <row r="209">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>74774</v>
+        <v>75493</v>
       </c>
     </row>
     <row r="210">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2024/03/02</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>52287</v>
+        <v>52320</v>
       </c>
     </row>
     <row r="212">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>2085</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="213">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>24268</v>
+        <v>24502</v>
       </c>
     </row>
     <row r="216">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>2442</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="217">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>41011</v>
+        <v>41519</v>
       </c>
     </row>
     <row r="218">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>5603</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="219">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="221">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>804</v>
+        <v>810</v>
       </c>
     </row>
     <row r="222">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>14434</v>
+        <v>14479</v>
       </c>
     </row>
     <row r="223">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>14706</v>
+        <v>14712</v>
       </c>
     </row>
     <row r="226">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>5082</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="230">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="231">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>10714</v>
+        <v>10772</v>
       </c>
     </row>
     <row r="235">
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>8033</v>
+        <v>8040</v>
       </c>
     </row>
     <row r="236">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>1250</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="237">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>7998</v>
+        <v>8123</v>
       </c>
     </row>
     <row r="238">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>2200</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="240">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>1325</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="242">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>11278</v>
+        <v>11344</v>
       </c>
     </row>
     <row r="246">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>10884</v>
+        <v>10976</v>
       </c>
     </row>
     <row r="253">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>11360</v>
+        <v>11632</v>
       </c>
     </row>
     <row r="254">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/10</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>8838</v>
+        <v>9036</v>
       </c>
     </row>
     <row r="256">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="258">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>12793</v>
+        <v>12897</v>
       </c>
     </row>
     <row r="260">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>12646</v>
+        <v>12784</v>
       </c>
     </row>
     <row r="261">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>11237</v>
+        <v>11351</v>
       </c>
     </row>
     <row r="262">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>26246</v>
+        <v>26582</v>
       </c>
     </row>
     <row r="264">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>14504</v>
+        <v>14622</v>
       </c>
     </row>
     <row r="265">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>17826</v>
+        <v>17997</v>
       </c>
     </row>
     <row r="267">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>3946</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="268">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>5829</v>
+        <v>6007</v>
       </c>
     </row>
     <row r="270">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>1653</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="271">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>9588</v>
+        <v>9598</v>
       </c>
     </row>
     <row r="274">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>19107</v>
+        <v>19276</v>
       </c>
     </row>
     <row r="276">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>8409</v>
+        <v>8499</v>
       </c>
     </row>
     <row r="277">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>14641</v>
+        <v>14829</v>
       </c>
     </row>
     <row r="279">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>10794</v>
+        <v>10980</v>
       </c>
     </row>
     <row r="280">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>34772</v>
+        <v>35026</v>
       </c>
     </row>
     <row r="281">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="n">
-        <v>8975</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="284">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>41757</v>
+        <v>41958</v>
       </c>
     </row>
     <row r="287">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>3996</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="288">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>26767</v>
+        <v>26884</v>
       </c>
     </row>
     <row r="289">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="290">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>16920</v>
+        <v>17139</v>
       </c>
     </row>
     <row r="291">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="295">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>1712</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="296">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>1584</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="298">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>11109</v>
+        <v>11142</v>
       </c>
     </row>
     <row r="299">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>70074</v>
+        <v>70743</v>
       </c>
     </row>
     <row r="300">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="301">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>12920</v>
+        <v>12938</v>
       </c>
     </row>
     <row r="304">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>2058</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="306">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>5008</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="309">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="n">
-        <v>949</v>
+        <v>970</v>
       </c>
     </row>
     <row r="311">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2024/02/10</t>
+          <t>2024/03/10</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="312">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>9120</v>
+        <v>9307</v>
       </c>
     </row>
     <row r="313">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>5478</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="314">
@@ -11024,7 +11024,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>7590</v>
+        <v>7624</v>
       </c>
     </row>
     <row r="315">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>17832</v>
+        <v>17966</v>
       </c>
     </row>
     <row r="316">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>26011</v>
+        <v>26054</v>
       </c>
     </row>
     <row r="319">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>11123</v>
+        <v>11208</v>
       </c>
     </row>
     <row r="320">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>17950</v>
+        <v>17749</v>
       </c>
     </row>
     <row r="321">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="322">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>5736</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="323">
@@ -11330,7 +11330,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2023/09/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="n">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="329">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>45180</v>
+        <v>46041</v>
       </c>
     </row>
     <row r="330">
@@ -11568,7 +11568,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>6363</v>
+        <v>6375</v>
       </c>
     </row>
     <row r="331">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>279823</v>
+        <v>282648</v>
       </c>
     </row>
     <row r="332">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="H332" t="n">
-        <v>12747</v>
+        <v>12945</v>
       </c>
     </row>
     <row r="333">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>4059</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="334">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>33777</v>
+        <v>34109</v>
       </c>
     </row>
     <row r="335">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="n">
-        <v>6343</v>
+        <v>6376</v>
       </c>
     </row>
     <row r="336">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="n">
-        <v>13154</v>
+        <v>13429</v>
       </c>
     </row>
     <row r="338">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="339">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>76568</v>
+        <v>81879</v>
       </c>
     </row>
     <row r="340">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>11216</v>
+        <v>11387</v>
       </c>
     </row>
     <row r="343">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>9374</v>
+        <v>9401</v>
       </c>
     </row>
     <row r="345">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>7510</v>
+        <v>7523</v>
       </c>
     </row>
     <row r="347">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>4625</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="348">
@@ -12214,7 +12214,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="350">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>22287</v>
+        <v>22745</v>
       </c>
     </row>
     <row r="351">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="n">
-        <v>1559</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="352">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>2290</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="353">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>9137</v>
+        <v>9287</v>
       </c>
     </row>
     <row r="354">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>2417</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="355">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>4437</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="356">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2024/02/10</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>1727</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="360">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>1713</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="361">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>6122</v>
+        <v>6173</v>
       </c>
     </row>
     <row r="362">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>1708</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="369">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>9764</v>
+        <v>9785</v>
       </c>
     </row>
     <row r="371">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>15817</v>
+        <v>15975</v>
       </c>
     </row>
     <row r="373">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>14555</v>
+        <v>14681</v>
       </c>
     </row>
     <row r="374">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>26557</v>
+        <v>26783</v>
       </c>
     </row>
     <row r="375">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="376">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>17591</v>
+        <v>17747</v>
       </c>
     </row>
     <row r="377">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>126621</v>
+        <v>127685</v>
       </c>
     </row>
     <row r="378">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>16972</v>
+        <v>17333</v>
       </c>
     </row>
     <row r="380">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>15200</v>
+        <v>15370</v>
       </c>
     </row>
     <row r="381">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2024/02/10</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>11450</v>
+        <v>11565</v>
       </c>
     </row>
     <row r="383">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>23230</v>
+        <v>23293</v>
       </c>
     </row>
     <row r="385">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="n">
-        <v>26263</v>
+        <v>26387</v>
       </c>
     </row>
     <row r="386">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>59164</v>
+        <v>59484</v>
       </c>
     </row>
     <row r="387">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>23509</v>
+        <v>23731</v>
       </c>
     </row>
     <row r="388">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="n">
-        <v>14743</v>
+        <v>14879</v>
       </c>
     </row>
     <row r="389">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="n">
-        <v>1637</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="390">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>15560</v>
+        <v>15744</v>
       </c>
     </row>
     <row r="391">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>33160</v>
+        <v>33437</v>
       </c>
     </row>
     <row r="393">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>38940</v>
+        <v>39069</v>
       </c>
     </row>
     <row r="394">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -13801,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="n">
-        <v>26433</v>
+        <v>26755</v>
       </c>
     </row>
     <row r="396">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>14409</v>
+        <v>14582</v>
       </c>
     </row>
     <row r="397">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>5282</v>
+        <v>5359</v>
       </c>
     </row>
     <row r="398">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>14437</v>
+        <v>14526</v>
       </c>
     </row>
     <row r="399">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>1278</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="401">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>30124</v>
+        <v>30132</v>
       </c>
     </row>
     <row r="403">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>1962</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="404">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>4205</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="405">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2024/02/04</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>9482</v>
+        <v>9593</v>
       </c>
     </row>
     <row r="407">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>5694</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="408">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>15774</v>
+        <v>16008</v>
       </c>
     </row>
     <row r="409">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="410">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>2337</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="411">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="n">
-        <v>7290</v>
+        <v>7337</v>
       </c>
     </row>
     <row r="413">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="n">
-        <v>16154</v>
+        <v>16238</v>
       </c>
     </row>
     <row r="414">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="n">
-        <v>40101</v>
+        <v>40561</v>
       </c>
     </row>
     <row r="416">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>17998</v>
+        <v>18166</v>
       </c>
     </row>
     <row r="417">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>20895</v>
+        <v>20954</v>
       </c>
     </row>
     <row r="418">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>10125</v>
+        <v>10161</v>
       </c>
     </row>
     <row r="420">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="n">
-        <v>10217</v>
+        <v>10274</v>
       </c>
     </row>
     <row r="421">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>1783</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="422">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>3216</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="425">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>6705</v>
+        <v>6789</v>
       </c>
     </row>
     <row r="429">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>1433</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="430">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="n">
-        <v>3431</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="431">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="n">
-        <v>3438</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="433">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>2564</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="434">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>1145</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="435">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>10348</v>
+        <v>10429</v>
       </c>
     </row>
     <row r="436">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>182368</v>
+        <v>184515</v>
       </c>
     </row>
     <row r="437">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>2535</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="439">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>19792</v>
+        <v>20102</v>
       </c>
     </row>
     <row r="441">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>15031</v>
+        <v>15124</v>
       </c>
     </row>
     <row r="442">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>16137</v>
+        <v>16308</v>
       </c>
     </row>
     <row r="443">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="H444" t="n">
-        <v>1532</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="445">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>18015</v>
+        <v>18165</v>
       </c>
     </row>
     <row r="446">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15535,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="n">
-        <v>41193</v>
+        <v>41395</v>
       </c>
     </row>
     <row r="447">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>19108</v>
+        <v>19172</v>
       </c>
     </row>
     <row r="448">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>1385</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="450">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="451">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>20532</v>
+        <v>20922</v>
       </c>
     </row>
     <row r="452">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>4473</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="453">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="n">
-        <v>5989</v>
+        <v>6083</v>
       </c>
     </row>
     <row r="454">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>18789</v>
+        <v>18810</v>
       </c>
     </row>
     <row r="457">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="H457" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="458">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>1097</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="460">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>69997</v>
+        <v>70926</v>
       </c>
     </row>
     <row r="463">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>24729</v>
+        <v>24926</v>
       </c>
     </row>
     <row r="464">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>9426</v>
+        <v>9445</v>
       </c>
     </row>
     <row r="466">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="467">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>2922</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="470">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>2551</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="471">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>7191</v>
+        <v>7201</v>
       </c>
     </row>
     <row r="472">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="n">
-        <v>11190</v>
+        <v>11205</v>
       </c>
     </row>
     <row r="473">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>516</v>
+        <v>643</v>
       </c>
     </row>
     <row r="475">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="476">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>5861</v>
+        <v>5969</v>
       </c>
     </row>
     <row r="477">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>2648</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="481">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>15327</v>
+        <v>15387</v>
       </c>
     </row>
     <row r="482">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>9227</v>
+        <v>9287</v>
       </c>
     </row>
     <row r="483">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>13614</v>
+        <v>13706</v>
       </c>
     </row>
     <row r="484">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>55330</v>
+        <v>56001</v>
       </c>
     </row>
     <row r="485">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>40961</v>
+        <v>41012</v>
       </c>
     </row>
     <row r="486">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>1332</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="488">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>71769</v>
+        <v>72612</v>
       </c>
     </row>
     <row r="489">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="n">
-        <v>33637</v>
+        <v>33742</v>
       </c>
     </row>
     <row r="490">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>7826</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="491">
@@ -17042,7 +17042,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -17065,7 +17065,7 @@
         <v>0</v>
       </c>
       <c r="H491" t="n">
-        <v>2950</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="492">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>126431</v>
+        <v>127628</v>
       </c>
     </row>
     <row r="493">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>7157</v>
+        <v>7198</v>
       </c>
     </row>
     <row r="494">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>3555</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="495">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="496">
@@ -17246,7 +17246,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>35092</v>
+        <v>35287</v>
       </c>
     </row>
     <row r="498">
@@ -17280,7 +17280,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="n">
-        <v>28305</v>
+        <v>28361</v>
       </c>
     </row>
     <row r="499">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>23537</v>
+        <v>23784</v>
       </c>
     </row>
     <row r="500">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>7526</v>
+        <v>7643</v>
       </c>
     </row>
     <row r="501">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>2884</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="502">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>19357</v>
+        <v>19586</v>
       </c>
     </row>
     <row r="503">
@@ -17484,7 +17484,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="n">
-        <v>1577</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="505">
@@ -17518,7 +17518,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>2685</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="506">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>11324</v>
+        <v>11820</v>
       </c>
     </row>
     <row r="507">
@@ -17620,7 +17620,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>18554</v>
+        <v>18689</v>
       </c>
     </row>
     <row r="509">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>4493</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="510">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>12572</v>
+        <v>13472</v>
       </c>
     </row>
     <row r="511">
@@ -17756,7 +17756,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>44135</v>
+        <v>44433</v>
       </c>
     </row>
     <row r="513">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="n">
-        <v>11421</v>
+        <v>11631</v>
       </c>
     </row>
     <row r="518">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>40436</v>
+        <v>40760</v>
       </c>
     </row>
     <row r="519">
@@ -17994,7 +17994,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>6556</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="520">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="521">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>7558</v>
+        <v>7602</v>
       </c>
     </row>
     <row r="522">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="523">
@@ -18130,7 +18130,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>2642</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="524">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>3045</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="525">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>26032</v>
+        <v>26253</v>
       </c>
     </row>
     <row r="529">
@@ -18334,7 +18334,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="n">
-        <v>11957</v>
+        <v>12088</v>
       </c>
     </row>
     <row r="530">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>4240</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="531">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="n">
-        <v>54890</v>
+        <v>55408</v>
       </c>
     </row>
     <row r="532">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>24240</v>
+        <v>24583</v>
       </c>
     </row>
     <row r="533">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>29416</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="534">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>54532</v>
+        <v>54665</v>
       </c>
     </row>
     <row r="535">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>84955</v>
+        <v>85529</v>
       </c>
     </row>
     <row r="539">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>66003</v>
+        <v>66264</v>
       </c>
     </row>
     <row r="540">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>3705</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="541">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>45833</v>
+        <v>46098</v>
       </c>
     </row>
     <row r="542">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>1405</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="545">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="547">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>1271</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="548">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>23799</v>
+        <v>24026</v>
       </c>
     </row>
     <row r="549">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>70668</v>
+        <v>71412</v>
       </c>
     </row>
     <row r="553">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>7816</v>
+        <v>7857</v>
       </c>
     </row>
     <row r="554">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>1983</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="555">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>3120</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="556">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>7983</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="558">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>21251</v>
+        <v>21370</v>
       </c>
     </row>
     <row r="561">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>45340</v>
+        <v>45878</v>
       </c>
     </row>
     <row r="563">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>1848</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="565">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="566">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>14019</v>
+        <v>14031</v>
       </c>
     </row>
     <row r="567">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>91004</v>
+        <v>91354</v>
       </c>
     </row>
     <row r="570">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>8495</v>
+        <v>8519</v>
       </c>
     </row>
     <row r="571">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>38194</v>
+        <v>38209</v>
       </c>
     </row>
     <row r="572">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>34390</v>
+        <v>34983</v>
       </c>
     </row>
     <row r="574">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>17169</v>
+        <v>17317</v>
       </c>
     </row>
     <row r="575">
@@ -19898,7 +19898,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>44846</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="576">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>5690</v>
+        <v>5699</v>
       </c>
     </row>
     <row r="577">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>8502</v>
+        <v>8584</v>
       </c>
     </row>
     <row r="578">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>16401</v>
+        <v>16597</v>
       </c>
     </row>
     <row r="580">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>16084</v>
+        <v>16096</v>
       </c>
     </row>
     <row r="581">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="H581" t="n">
-        <v>15317</v>
+        <v>15395</v>
       </c>
     </row>
     <row r="582">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>33159</v>
+        <v>33451</v>
       </c>
     </row>
     <row r="583">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>3761</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="584">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>12243</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="585">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -20261,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>11061</v>
+        <v>11083</v>
       </c>
     </row>
     <row r="586">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>763</v>
+        <v>769</v>
       </c>
     </row>
     <row r="587">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>853</v>
+        <v>864</v>
       </c>
     </row>
     <row r="588">
@@ -20442,7 +20442,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>27172</v>
+        <v>27282</v>
       </c>
     </row>
     <row r="592">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>6265</v>
+        <v>6318</v>
       </c>
     </row>
     <row r="594">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>58427</v>
+        <v>58892</v>
       </c>
     </row>
     <row r="595">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="599">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="601">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>4201</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="603">
@@ -20884,7 +20884,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>26885</v>
+        <v>26899</v>
       </c>
     </row>
     <row r="605">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="H605" t="n">
-        <v>21550</v>
+        <v>21653</v>
       </c>
     </row>
     <row r="606">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>14503</v>
+        <v>14598</v>
       </c>
     </row>
     <row r="607">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>15947</v>
+        <v>16009</v>
       </c>
     </row>
     <row r="608">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="H608" t="n">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="609">
@@ -21054,7 +21054,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="H609" t="n">
-        <v>2058</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="610">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="H610" t="n">
-        <v>89970</v>
+        <v>90895</v>
       </c>
     </row>
     <row r="611">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>3391</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="614">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>2271</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="615">
@@ -21360,7 +21360,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="H618" t="n">
-        <v>14310</v>
+        <v>14506</v>
       </c>
     </row>
     <row r="619">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>5767</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="621">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="624">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="626">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -21734,7 +21734,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="630">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>23648</v>
+        <v>23845</v>
       </c>
     </row>
     <row r="631">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>54790</v>
+        <v>55228</v>
       </c>
     </row>
     <row r="632">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>65996</v>
+        <v>66677</v>
       </c>
     </row>
     <row r="633">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>10510</v>
+        <v>10613</v>
       </c>
     </row>
     <row r="635">
@@ -21938,7 +21938,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>9944</v>
+        <v>10077</v>
       </c>
     </row>
     <row r="636">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>40659</v>
+        <v>41016</v>
       </c>
     </row>
     <row r="639">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>61983</v>
+        <v>62680</v>
       </c>
     </row>
     <row r="640">
@@ -22142,7 +22142,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="H641" t="n">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="642">
@@ -22176,7 +22176,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -22199,7 +22199,7 @@
         <v>0</v>
       </c>
       <c r="H642" t="n">
-        <v>2755</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="643">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>36358</v>
+        <v>36667</v>
       </c>
     </row>
     <row r="647">
@@ -22346,7 +22346,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -22380,7 +22380,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -22403,7 +22403,7 @@
         <v>0</v>
       </c>
       <c r="H648" t="n">
-        <v>15891</v>
+        <v>16051</v>
       </c>
     </row>
     <row r="649">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>10321</v>
+        <v>10455</v>
       </c>
     </row>
     <row r="650">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>23454</v>
+        <v>23524</v>
       </c>
     </row>
     <row r="651">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="H652" t="n">
-        <v>27948</v>
+        <v>28437</v>
       </c>
     </row>
     <row r="653">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>15194</v>
+        <v>15384</v>
       </c>
     </row>
     <row r="655">
@@ -22618,7 +22618,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="H655" t="n">
-        <v>72607</v>
+        <v>73135</v>
       </c>
     </row>
     <row r="656">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22675,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="H656" t="n">
-        <v>23568</v>
+        <v>23590</v>
       </c>
     </row>
     <row r="657">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -22788,7 +22788,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -22811,7 +22811,7 @@
         <v>0</v>
       </c>
       <c r="H660" t="n">
-        <v>1136</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="661">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -22879,7 +22879,7 @@
         <v>0</v>
       </c>
       <c r="H662" t="n">
-        <v>1026</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="663">
@@ -22890,7 +22890,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="H663" t="n">
-        <v>4183</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="664">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="H664" t="n">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="665">
@@ -23060,7 +23060,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="H668" t="n">
-        <v>2958</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="669">
@@ -23162,7 +23162,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
       <c r="H671" t="n">
-        <v>34234</v>
+        <v>34252</v>
       </c>
     </row>
     <row r="672">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -23253,7 +23253,7 @@
         <v>0</v>
       </c>
       <c r="H673" t="n">
-        <v>8213</v>
+        <v>8460</v>
       </c>
     </row>
     <row r="674">
@@ -23264,7 +23264,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -23287,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="H674" t="n">
-        <v>92048</v>
+        <v>92462</v>
       </c>
     </row>
     <row r="675">
@@ -23298,7 +23298,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="H675" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="676">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -23468,7 +23468,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -23491,7 +23491,7 @@
         <v>0</v>
       </c>
       <c r="H680" t="n">
-        <v>618</v>
+        <v>628</v>
       </c>
     </row>
     <row r="681">
@@ -23502,7 +23502,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -23525,7 +23525,7 @@
         <v>0</v>
       </c>
       <c r="H681" t="n">
-        <v>6981</v>
+        <v>7097</v>
       </c>
     </row>
     <row r="682">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -23706,7 +23706,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -23729,7 +23729,7 @@
         <v>0</v>
       </c>
       <c r="H687" t="n">
-        <v>3380</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="688">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -24046,7 +24046,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -24069,7 +24069,7 @@
         <v>0</v>
       </c>
       <c r="H697" t="n">
-        <v>10124</v>
+        <v>10272</v>
       </c>
     </row>
     <row r="698">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -24103,7 +24103,7 @@
         <v>0</v>
       </c>
       <c r="H698" t="n">
-        <v>1106</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="699">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="H700" t="n">
-        <v>1337</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="701">
@@ -24250,7 +24250,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -24273,7 +24273,7 @@
         <v>0</v>
       </c>
       <c r="H703" t="n">
-        <v>20174</v>
+        <v>21008</v>
       </c>
     </row>
     <row r="704">
@@ -24318,7 +24318,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2023/11/21</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="H708" t="n">
-        <v>427</v>
+        <v>675</v>
       </c>
     </row>
     <row r="709">
@@ -24590,7 +24590,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="H713" t="n">
-        <v>653</v>
+        <v>678</v>
       </c>
     </row>
     <row r="714">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -24647,7 +24647,7 @@
         <v>0</v>
       </c>
       <c r="H714" t="n">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="715">
@@ -24692,7 +24692,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="H716" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="717">
@@ -24998,7 +24998,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>2024/02/03</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -25021,7 +25021,7 @@
         <v>0</v>
       </c>
       <c r="H725" t="n">
-        <v>740</v>
+        <v>760</v>
       </c>
     </row>
     <row r="726">
@@ -25066,7 +25066,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="H727" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="728">
@@ -25134,7 +25134,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="H729" t="n">
-        <v>255</v>
+        <v>283</v>
       </c>
     </row>
     <row r="730">
@@ -25236,7 +25236,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="H732" t="n">
-        <v>6246</v>
+        <v>6252</v>
       </c>
     </row>
     <row r="733">
@@ -25270,7 +25270,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -25293,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="H733" t="n">
-        <v>1906</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="734">
@@ -25440,7 +25440,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -25463,7 +25463,7 @@
         <v>0</v>
       </c>
       <c r="H738" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="739">
@@ -25474,7 +25474,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -25497,7 +25497,7 @@
         <v>0</v>
       </c>
       <c r="H739" t="n">
-        <v>1281</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="740">
@@ -25644,7 +25644,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -25667,7 +25667,7 @@
         <v>0</v>
       </c>
       <c r="H744" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="745">
@@ -25848,7 +25848,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -26324,7 +26324,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -26347,7 +26347,7 @@
         <v>0</v>
       </c>
       <c r="H764" t="n">
-        <v>1222</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="765">
@@ -26358,7 +26358,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -26426,7 +26426,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -26494,7 +26494,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -26517,7 +26517,7 @@
         <v>0</v>
       </c>
       <c r="H769" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="770">
@@ -26528,7 +26528,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -26551,7 +26551,7 @@
         <v>0</v>
       </c>
       <c r="H770" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="771">
@@ -26562,7 +26562,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -26585,7 +26585,7 @@
         <v>0</v>
       </c>
       <c r="H771" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="772">
@@ -26630,7 +26630,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -26653,7 +26653,7 @@
         <v>0</v>
       </c>
       <c r="H773" t="n">
-        <v>3171</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="774">
@@ -26698,7 +26698,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="H775" t="n">
-        <v>991</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="776">
@@ -26732,7 +26732,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -26755,7 +26755,7 @@
         <v>0</v>
       </c>
       <c r="H776" t="n">
-        <v>1332</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="777">
@@ -26834,7 +26834,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -26857,7 +26857,7 @@
         <v>0</v>
       </c>
       <c r="H779" t="n">
-        <v>7757</v>
+        <v>7759</v>
       </c>
     </row>
     <row r="780">
@@ -26936,7 +26936,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -26959,7 +26959,7 @@
         <v>0</v>
       </c>
       <c r="H782" t="n">
-        <v>1276</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="783">
@@ -26970,7 +26970,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="H783" t="n">
-        <v>6979</v>
+        <v>7137</v>
       </c>
     </row>
     <row r="784">
@@ -27106,7 +27106,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -27129,7 +27129,7 @@
         <v>0</v>
       </c>
       <c r="H787" t="n">
-        <v>9878</v>
+        <v>10412</v>
       </c>
     </row>
     <row r="788">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -27197,7 +27197,7 @@
         <v>0</v>
       </c>
       <c r="H789" t="n">
-        <v>1143</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="790">
@@ -27242,7 +27242,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -27265,7 +27265,7 @@
         <v>0</v>
       </c>
       <c r="H791" t="n">
-        <v>1206</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="792">
@@ -27412,7 +27412,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="H796" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="797">
@@ -27446,7 +27446,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="H797" t="n">
-        <v>487</v>
+        <v>580</v>
       </c>
     </row>
     <row r="798">
@@ -27514,7 +27514,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="H799" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="800">
@@ -27718,7 +27718,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -27741,7 +27741,7 @@
         <v>0</v>
       </c>
       <c r="H805" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="806">
@@ -27888,7 +27888,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -27911,7 +27911,7 @@
         <v>0</v>
       </c>
       <c r="H810" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="811">
@@ -27922,7 +27922,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -27945,7 +27945,7 @@
         <v>0</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812">
@@ -27956,7 +27956,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="H812" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="813">
@@ -28024,7 +28024,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -28047,7 +28047,7 @@
         <v>0</v>
       </c>
       <c r="H814" t="n">
-        <v>173</v>
+        <v>330</v>
       </c>
     </row>
     <row r="815">
@@ -28126,7 +28126,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="H817" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="818">
@@ -28194,7 +28194,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="H819" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="820">
@@ -28228,7 +28228,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="H820" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="821">
@@ -28330,7 +28330,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -28353,7 +28353,7 @@
         <v>0</v>
       </c>
       <c r="H823" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="824">
@@ -28432,7 +28432,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -28455,7 +28455,7 @@
         <v>0</v>
       </c>
       <c r="H826" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="827">
@@ -28568,7 +28568,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -28636,7 +28636,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -28840,7 +28840,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="H838" t="n">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="839">
@@ -28976,7 +28976,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -28999,7 +28999,7 @@
         <v>0</v>
       </c>
       <c r="H842" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="843">
@@ -29010,7 +29010,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -29033,7 +29033,7 @@
         <v>0</v>
       </c>
       <c r="H843" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="844">
@@ -29146,7 +29146,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -29169,7 +29169,7 @@
         <v>0</v>
       </c>
       <c r="H847" t="n">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="848">
@@ -29180,7 +29180,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -29248,7 +29248,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -29271,7 +29271,7 @@
         <v>0</v>
       </c>
       <c r="H850" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="851">
@@ -29350,7 +29350,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -29373,7 +29373,7 @@
         <v>0</v>
       </c>
       <c r="H853" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="854">
@@ -29384,7 +29384,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -29407,7 +29407,7 @@
         <v>0</v>
       </c>
       <c r="H854" t="n">
-        <v>91</v>
+        <v>135</v>
       </c>
     </row>
     <row r="855">
@@ -29452,7 +29452,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="H856" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="857">
@@ -29486,7 +29486,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -29509,7 +29509,7 @@
         <v>0</v>
       </c>
       <c r="H857" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="858">
@@ -29520,7 +29520,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -29543,7 +29543,7 @@
         <v>0</v>
       </c>
       <c r="H858" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="859">
@@ -29588,7 +29588,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -29611,7 +29611,7 @@
         <v>0</v>
       </c>
       <c r="H860" t="n">
-        <v>220</v>
+        <v>262</v>
       </c>
     </row>
     <row r="861">
@@ -29622,7 +29622,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="H861" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="862">
@@ -29656,7 +29656,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -29679,7 +29679,7 @@
         <v>0</v>
       </c>
       <c r="H862" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="863">
@@ -29724,7 +29724,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -29747,7 +29747,7 @@
         <v>0</v>
       </c>
       <c r="H864" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="865">
@@ -29758,7 +29758,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -29792,7 +29792,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="H866" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="867">
@@ -29826,7 +29826,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -29849,7 +29849,7 @@
         <v>0</v>
       </c>
       <c r="H867" t="n">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="868">
@@ -29860,7 +29860,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -29928,7 +29928,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -29951,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="H870" t="n">
-        <v>799</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="871">
@@ -29996,7 +29996,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="H872" t="n">
-        <v>264</v>
+        <v>472</v>
       </c>
     </row>
     <row r="873">
@@ -30030,7 +30030,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -30053,7 +30053,7 @@
         <v>0</v>
       </c>
       <c r="H873" t="n">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="874">
@@ -30064,7 +30064,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -30087,7 +30087,7 @@
         <v>0</v>
       </c>
       <c r="H874" t="n">
-        <v>294</v>
+        <v>367</v>
       </c>
     </row>
     <row r="875">
@@ -30098,7 +30098,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -30121,7 +30121,7 @@
         <v>0</v>
       </c>
       <c r="H875" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="876">
@@ -30132,7 +30132,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>2024/02/25</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="877">
@@ -30234,17 +30234,17 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/08</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>Corporación Cultural Social y Deportiva Municipal de Quilicura</t>
+          <t>Corporación Municipal de desarrollo Comunal y Productivo de Licantén</t>
         </is>
       </c>
       <c r="D879" t="inlineStr">
         <is>
-          <t>CM110</t>
+          <t>CM156</t>
         </is>
       </c>
       <c r="E879" t="n">
@@ -30257,7 +30257,7 @@
         <v>0</v>
       </c>
       <c r="H879" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="880">
@@ -30268,17 +30268,17 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Corporación Municipal de desarrollo Comunal y Productivo de Licantén</t>
+          <t>Delegación Presidencial Provincial de Tocopilla</t>
         </is>
       </c>
       <c r="D880" t="inlineStr">
         <is>
-          <t>CM156</t>
+          <t>AB028</t>
         </is>
       </c>
       <c r="E880" t="n">
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="H880" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="881">
@@ -30302,17 +30302,17 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Tocopilla</t>
+          <t>Delegación Presidencial Provincial de Talagante</t>
         </is>
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>AB028</t>
+          <t>AB072</t>
         </is>
       </c>
       <c r="E881" t="n">
@@ -30325,7 +30325,7 @@
         <v>0</v>
       </c>
       <c r="H881" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="882">
@@ -30336,17 +30336,17 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Talagante</t>
+          <t>Asociación Cultural Municipal de Cerrillos</t>
         </is>
       </c>
       <c r="D882" t="inlineStr">
         <is>
-          <t>AB072</t>
+          <t>MA068</t>
         </is>
       </c>
       <c r="E882" t="n">
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="H882" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="883">
@@ -30370,17 +30370,17 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>Asociación Cultural Municipal de Cerrillos</t>
+          <t>CLUB DE LA REINA SOCIAL DEPORTIVO Y RECREACIONAL</t>
         </is>
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t>MA068</t>
+          <t>CM281</t>
         </is>
       </c>
       <c r="E883" t="n">
@@ -30393,7 +30393,7 @@
         <v>0</v>
       </c>
       <c r="H883" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="884">
@@ -30404,17 +30404,17 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>CLUB DE LA REINA SOCIAL DEPORTIVO Y RECREACIONAL</t>
+          <t>Delegación Presidencial Regional de Aysén del General Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t>CM281</t>
+          <t>AB010</t>
         </is>
       </c>
       <c r="E884" t="n">
@@ -30427,7 +30427,7 @@
         <v>0</v>
       </c>
       <c r="H884" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="885">
@@ -30438,17 +30438,17 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Aysén del General Carlos Ibáñez del Campo</t>
+          <t>Corporación Cultural Social y Deportiva Municipal de Quilicura</t>
         </is>
       </c>
       <c r="D885" t="inlineStr">
         <is>
-          <t>AB010</t>
+          <t>CM110</t>
         </is>
       </c>
       <c r="E885" t="n">
@@ -30461,7 +30461,7 @@
         <v>0</v>
       </c>
       <c r="H885" t="n">
-        <v>15</v>
+        <v>192</v>
       </c>
     </row>
     <row r="886">
@@ -30540,7 +30540,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/10</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -30564,6 +30564,74 @@
       </c>
       <c r="H888" t="n">
         <v>117</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>2024/03/13</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>Servicio Local de Educación Pública Santa Rosa</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>AJ037</t>
+        </is>
+      </c>
+      <c r="E889" t="n">
+        <v>0</v>
+      </c>
+      <c r="F889" t="n">
+        <v>0</v>
+      </c>
+      <c r="G889" t="n">
+        <v>0</v>
+      </c>
+      <c r="H889" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>2024/03/14</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>Asociación de Gobernadores y Gobernadoras Regionales de Chile  AGORECHI</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>FU025</t>
+        </is>
+      </c>
+      <c r="E890" t="n">
+        <v>0</v>
+      </c>
+      <c r="F890" t="n">
+        <v>0</v>
+      </c>
+      <c r="G890" t="n">
+        <v>0</v>
+      </c>
+      <c r="H890" t="n">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H890"/>
+  <dimension ref="A1:H892"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +518,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -824,7 +824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>17533</v>
+        <v>17648</v>
       </c>
     </row>
     <row r="26">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>14488</v>
+        <v>14499</v>
       </c>
     </row>
     <row r="38">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>4561</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="40">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5813</v>
+        <v>5873</v>
       </c>
     </row>
     <row r="42">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>16751</v>
+        <v>16759</v>
       </c>
     </row>
     <row r="49">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>56342</v>
+        <v>56432</v>
       </c>
     </row>
     <row r="50">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>12545</v>
+        <v>12651</v>
       </c>
     </row>
     <row r="56">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/02/18</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>2718</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="58">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>19501</v>
+        <v>19772</v>
       </c>
     </row>
     <row r="61">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>15864</v>
+        <v>16182</v>
       </c>
     </row>
     <row r="66">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>6465</v>
+        <v>6525</v>
       </c>
     </row>
     <row r="78">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>9449</v>
+        <v>9476</v>
       </c>
     </row>
     <row r="82">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>7214</v>
+        <v>7376</v>
       </c>
     </row>
     <row r="84">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>17880</v>
+        <v>18031</v>
       </c>
     </row>
     <row r="87">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/02/17</t>
+          <t>2024/03/16</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2605</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="91">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>36115</v>
+        <v>36542</v>
       </c>
     </row>
     <row r="104">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>5579</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="112">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>33172</v>
+        <v>33231</v>
       </c>
     </row>
     <row r="124">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>40075</v>
+        <v>40093</v>
       </c>
     </row>
     <row r="128">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/16</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>4184</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="132">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>24280</v>
+        <v>24379</v>
       </c>
     </row>
     <row r="140">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>32263</v>
+        <v>32840</v>
       </c>
     </row>
     <row r="149">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>39495</v>
+        <v>39855</v>
       </c>
     </row>
     <row r="150">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>5043</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="151">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>12156</v>
+        <v>12348</v>
       </c>
     </row>
     <row r="158">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/03/03</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>87148</v>
+        <v>87986</v>
       </c>
     </row>
     <row r="163">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>12654</v>
+        <v>12644</v>
       </c>
     </row>
     <row r="172">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>8499</v>
+        <v>8639</v>
       </c>
     </row>
     <row r="175">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>1190</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="188">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>85592</v>
+        <v>86375</v>
       </c>
     </row>
     <row r="197">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="203">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="204">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>2075</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="206">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="211">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>52320</v>
+        <v>53282</v>
       </c>
     </row>
     <row r="212">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>11636</v>
+        <v>11868</v>
       </c>
     </row>
     <row r="215">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>53235</v>
+        <v>53292</v>
       </c>
     </row>
     <row r="220">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2023/11/27</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>7940</v>
+        <v>8059</v>
       </c>
     </row>
     <row r="225">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>16402</v>
+        <v>16472</v>
       </c>
     </row>
     <row r="227">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>4131</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="228">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>20963</v>
+        <v>21207</v>
       </c>
     </row>
     <row r="229">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>8160</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="232">
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>8040</v>
+        <v>8107</v>
       </c>
     </row>
     <row r="236">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="239">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="244">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>5791</v>
+        <v>5832</v>
       </c>
     </row>
     <row r="247">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>6882</v>
+        <v>6924</v>
       </c>
     </row>
     <row r="248">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>1536</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="249">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>6350</v>
+        <v>6461</v>
       </c>
     </row>
     <row r="250">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>51020</v>
+        <v>51193</v>
       </c>
     </row>
     <row r="252">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>11632</v>
+        <v>11633</v>
       </c>
     </row>
     <row r="254">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>440</v>
+        <v>471</v>
       </c>
     </row>
     <row r="255">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>10618</v>
+        <v>10846</v>
       </c>
     </row>
     <row r="257">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2023/03/28</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>4330</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="273">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>918</v>
+        <v>935</v>
       </c>
     </row>
     <row r="282">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>41958</v>
+        <v>42060</v>
       </c>
     </row>
     <row r="287">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>1768</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="295">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="n">
-        <v>77468</v>
+        <v>77764</v>
       </c>
     </row>
     <row r="305">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>9307</v>
+        <v>9308</v>
       </c>
     </row>
     <row r="313">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>17966</v>
+        <v>18088</v>
       </c>
     </row>
     <row r="316">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -11330,7 +11330,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>24725</v>
+        <v>24769</v>
       </c>
     </row>
     <row r="324">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>20014</v>
+        <v>20262</v>
       </c>
     </row>
     <row r="325">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>16800</v>
+        <v>16972</v>
       </c>
     </row>
     <row r="326">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>9417</v>
+        <v>9531</v>
       </c>
     </row>
     <row r="341">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>7629</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="349">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>3537</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="358">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>1717</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="361">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2024/02/18</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>16731</v>
+        <v>16825</v>
       </c>
     </row>
     <row r="366">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>19489</v>
+        <v>19641</v>
       </c>
     </row>
     <row r="370">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>1487</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="372">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/23</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>4322</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="392">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>14582</v>
+        <v>14595</v>
       </c>
     </row>
     <row r="397">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>48238</v>
+        <v>48288</v>
       </c>
     </row>
     <row r="400">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>30132</v>
+        <v>30390</v>
       </c>
     </row>
     <row r="403">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>30078</v>
+        <v>30125</v>
       </c>
     </row>
     <row r="415">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>7420</v>
+        <v>7481</v>
       </c>
     </row>
     <row r="424">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>13645</v>
+        <v>13661</v>
       </c>
     </row>
     <row r="426">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>30536</v>
+        <v>30816</v>
       </c>
     </row>
     <row r="427">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>7505</v>
+        <v>7553</v>
       </c>
     </row>
     <row r="428">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>18506</v>
+        <v>18720</v>
       </c>
     </row>
     <row r="432">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>21737</v>
+        <v>22077</v>
       </c>
     </row>
     <row r="440">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>19172</v>
+        <v>19362</v>
       </c>
     </row>
     <row r="448">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>5482</v>
+        <v>5647</v>
       </c>
     </row>
     <row r="461">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>9445</v>
+        <v>9527</v>
       </c>
     </row>
     <row r="466">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="n">
-        <v>22520</v>
+        <v>22949</v>
       </c>
     </row>
     <row r="474">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>57605</v>
+        <v>58178</v>
       </c>
     </row>
     <row r="478">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>38608</v>
+        <v>38616</v>
       </c>
     </row>
     <row r="479">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>19451</v>
+        <v>19592</v>
       </c>
     </row>
     <row r="487">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>13472</v>
+        <v>13894</v>
       </c>
     </row>
     <row r="511">
@@ -17722,7 +17722,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>7386</v>
+        <v>7514</v>
       </c>
     </row>
     <row r="512">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/02/17</t>
+          <t>2024/03/17</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>4355</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="515">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>31731</v>
+        <v>31836</v>
       </c>
     </row>
     <row r="516">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>15242</v>
+        <v>15284</v>
       </c>
     </row>
     <row r="517">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/23</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="n">
-        <v>11631</v>
+        <v>11648</v>
       </c>
     </row>
     <row r="518">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>4374</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="531">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>12962</v>
+        <v>12992</v>
       </c>
     </row>
     <row r="537">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>1579</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="538">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>85529</v>
+        <v>86515</v>
       </c>
     </row>
     <row r="539">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>5558</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="543">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>24026</v>
+        <v>24335</v>
       </c>
     </row>
     <row r="549">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>34723</v>
+        <v>35572</v>
       </c>
     </row>
     <row r="552">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>12025</v>
+        <v>12212</v>
       </c>
     </row>
     <row r="557">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>12415</v>
+        <v>12491</v>
       </c>
     </row>
     <row r="559">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>6323</v>
+        <v>6403</v>
       </c>
     </row>
     <row r="562">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>4357</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="564">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>12750</v>
+        <v>12856</v>
       </c>
     </row>
     <row r="569">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>17372</v>
+        <v>17565</v>
       </c>
     </row>
     <row r="573">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -20261,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>11083</v>
+        <v>11149</v>
       </c>
     </row>
     <row r="586">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/16</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>17422</v>
+        <v>17578</v>
       </c>
     </row>
     <row r="589">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>871</v>
+        <v>875</v>
       </c>
     </row>
     <row r="590">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>38960</v>
+        <v>39576</v>
       </c>
     </row>
     <row r="593">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>6318</v>
+        <v>6321</v>
       </c>
     </row>
     <row r="594">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>25367</v>
+        <v>25613</v>
       </c>
     </row>
     <row r="597">
@@ -20884,7 +20884,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>26899</v>
+        <v>27467</v>
       </c>
     </row>
     <row r="605">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>14598</v>
+        <v>14616</v>
       </c>
     </row>
     <row r="607">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>16009</v>
+        <v>16146</v>
       </c>
     </row>
     <row r="608">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21145,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="H611" t="n">
-        <v>18632</v>
+        <v>18688</v>
       </c>
     </row>
     <row r="612">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>976</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="617">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>5770</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="621">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>10048</v>
+        <v>10119</v>
       </c>
     </row>
     <row r="622">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>8378</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="623">
@@ -21564,7 +21564,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>6891</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="625">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/17</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>5004</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="634">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>24267</v>
+        <v>24390</v>
       </c>
     </row>
     <row r="637">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>7680</v>
+        <v>7859</v>
       </c>
     </row>
     <row r="638">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>26205</v>
+        <v>26333</v>
       </c>
     </row>
     <row r="646">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="H651" t="n">
-        <v>116366</v>
+        <v>116839</v>
       </c>
     </row>
     <row r="652">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="H652" t="n">
-        <v>28437</v>
+        <v>27721</v>
       </c>
     </row>
     <row r="653">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>15384</v>
+        <v>15385</v>
       </c>
     </row>
     <row r="655">
@@ -22720,7 +22720,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -22992,7 +22992,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -23015,7 +23015,7 @@
         <v>0</v>
       </c>
       <c r="H666" t="n">
-        <v>1871</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="667">
@@ -23026,7 +23026,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -23094,7 +23094,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/16</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -23117,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="H669" t="n">
-        <v>7014</v>
+        <v>7044</v>
       </c>
     </row>
     <row r="670">
@@ -23162,7 +23162,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
       <c r="H671" t="n">
-        <v>34252</v>
+        <v>34567</v>
       </c>
     </row>
     <row r="672">
@@ -23196,7 +23196,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -23219,7 +23219,7 @@
         <v>0</v>
       </c>
       <c r="H672" t="n">
-        <v>1765</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="673">
@@ -23604,7 +23604,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="H684" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="685">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="H692" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
     </row>
     <row r="693">
@@ -24012,7 +24012,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="H696" t="n">
-        <v>1183</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="697">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="H706" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="707">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -24681,7 +24681,7 @@
         <v>0</v>
       </c>
       <c r="H715" t="n">
-        <v>2642</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="716">
@@ -24896,7 +24896,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="H722" t="n">
-        <v>883</v>
+        <v>920</v>
       </c>
     </row>
     <row r="723">
@@ -25032,7 +25032,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="H726" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="727">
@@ -25610,7 +25610,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="H743" t="n">
-        <v>3352</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="744">
@@ -25848,7 +25848,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="H750" t="n">
-        <v>1072</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="751">
@@ -26018,7 +26018,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="H755" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="756">
@@ -26290,7 +26290,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -26313,7 +26313,7 @@
         <v>0</v>
       </c>
       <c r="H763" t="n">
-        <v>1362</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="764">
@@ -26392,7 +26392,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -26415,7 +26415,7 @@
         <v>0</v>
       </c>
       <c r="H766" t="n">
-        <v>2288</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="767">
@@ -26426,7 +26426,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -26449,7 +26449,7 @@
         <v>0</v>
       </c>
       <c r="H767" t="n">
-        <v>519</v>
+        <v>605</v>
       </c>
     </row>
     <row r="768">
@@ -26460,7 +26460,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -26483,7 +26483,7 @@
         <v>0</v>
       </c>
       <c r="H768" t="n">
-        <v>809</v>
+        <v>854</v>
       </c>
     </row>
     <row r="769">
@@ -26868,7 +26868,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -26891,7 +26891,7 @@
         <v>0</v>
       </c>
       <c r="H780" t="n">
-        <v>6206</v>
+        <v>6724</v>
       </c>
     </row>
     <row r="781">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -27197,7 +27197,7 @@
         <v>0</v>
       </c>
       <c r="H789" t="n">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="790">
@@ -27344,7 +27344,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -27367,7 +27367,7 @@
         <v>0</v>
       </c>
       <c r="H794" t="n">
-        <v>34</v>
+        <v>118</v>
       </c>
     </row>
     <row r="795">
@@ -28024,7 +28024,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -28047,7 +28047,7 @@
         <v>0</v>
       </c>
       <c r="H814" t="n">
-        <v>330</v>
+        <v>357</v>
       </c>
     </row>
     <row r="815">
@@ -28058,7 +28058,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -28081,7 +28081,7 @@
         <v>0</v>
       </c>
       <c r="H815" t="n">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="816">
@@ -28092,7 +28092,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -28115,7 +28115,7 @@
         <v>0</v>
       </c>
       <c r="H816" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="817">
@@ -28160,7 +28160,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -28183,7 +28183,7 @@
         <v>0</v>
       </c>
       <c r="H818" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="819">
@@ -28194,7 +28194,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="H819" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="820">
@@ -28228,7 +28228,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="H820" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="821">
@@ -28262,7 +28262,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -28285,7 +28285,7 @@
         <v>0</v>
       </c>
       <c r="H821" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="822">
@@ -28296,7 +28296,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -28319,7 +28319,7 @@
         <v>0</v>
       </c>
       <c r="H822" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="823">
@@ -28330,7 +28330,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -28353,7 +28353,7 @@
         <v>0</v>
       </c>
       <c r="H823" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="824">
@@ -28364,7 +28364,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="H824" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="825">
@@ -28398,7 +28398,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H825" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="826">
@@ -28466,7 +28466,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -28489,7 +28489,7 @@
         <v>0</v>
       </c>
       <c r="H827" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="828">
@@ -28500,7 +28500,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -28523,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="H828" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="829">
@@ -28534,7 +28534,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -28557,7 +28557,7 @@
         <v>0</v>
       </c>
       <c r="H829" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="830">
@@ -28568,7 +28568,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -28591,7 +28591,7 @@
         <v>0</v>
       </c>
       <c r="H830" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="831">
@@ -28602,7 +28602,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -28625,7 +28625,7 @@
         <v>0</v>
       </c>
       <c r="H831" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="832">
@@ -28636,7 +28636,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -28659,7 +28659,7 @@
         <v>0</v>
       </c>
       <c r="H832" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="833">
@@ -28670,7 +28670,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -28693,7 +28693,7 @@
         <v>0</v>
       </c>
       <c r="H833" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="834">
@@ -28704,7 +28704,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -28727,7 +28727,7 @@
         <v>0</v>
       </c>
       <c r="H834" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="835">
@@ -28738,7 +28738,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>2024/03/02</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="H835" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="836">
@@ -28772,7 +28772,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -28829,7 +28829,7 @@
         <v>0</v>
       </c>
       <c r="H837" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="838">
@@ -28840,7 +28840,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="H838" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="839">
@@ -28874,7 +28874,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -28897,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="H839" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="840">
@@ -28908,7 +28908,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="H840" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="841">
@@ -28942,7 +28942,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="H841" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="842">
@@ -28976,7 +28976,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -28999,7 +28999,7 @@
         <v>0</v>
       </c>
       <c r="H842" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="843">
@@ -29044,7 +29044,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -29067,7 +29067,7 @@
         <v>0</v>
       </c>
       <c r="H844" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="845">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="H845" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="846">
@@ -29112,7 +29112,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="H846" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="847">
@@ -29146,7 +29146,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -29169,7 +29169,7 @@
         <v>0</v>
       </c>
       <c r="H847" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="848">
@@ -29180,7 +29180,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -29203,7 +29203,7 @@
         <v>0</v>
       </c>
       <c r="H848" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="849">
@@ -29214,7 +29214,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -29237,7 +29237,7 @@
         <v>0</v>
       </c>
       <c r="H849" t="n">
-        <v>77</v>
+        <v>125</v>
       </c>
     </row>
     <row r="850">
@@ -29282,7 +29282,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -29305,7 +29305,7 @@
         <v>0</v>
       </c>
       <c r="H851" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="852">
@@ -29316,7 +29316,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -29339,7 +29339,7 @@
         <v>0</v>
       </c>
       <c r="H852" t="n">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="853">
@@ -29350,7 +29350,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -29373,7 +29373,7 @@
         <v>0</v>
       </c>
       <c r="H853" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="854">
@@ -29384,7 +29384,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -29407,7 +29407,7 @@
         <v>0</v>
       </c>
       <c r="H854" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="855">
@@ -29418,7 +29418,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -29441,7 +29441,7 @@
         <v>0</v>
       </c>
       <c r="H855" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="856">
@@ -29452,7 +29452,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="H856" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="857">
@@ -29520,7 +29520,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -29543,7 +29543,7 @@
         <v>0</v>
       </c>
       <c r="H858" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="859">
@@ -29554,7 +29554,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="H859" t="n">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="860">
@@ -29593,7 +29593,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>Fundación para la Promoción y Desarrollo de la Mujer  (PROdeMU)</t>
+          <t>Fundación para la Promoción y Desarrollo de la Mujer  (PRODEMU)</t>
         </is>
       </c>
       <c r="D860" t="inlineStr">
@@ -29622,7 +29622,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="H861" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="862">
@@ -29690,7 +29690,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -29713,7 +29713,7 @@
         <v>0</v>
       </c>
       <c r="H863" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="864">
@@ -29758,7 +29758,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -29781,7 +29781,7 @@
         <v>0</v>
       </c>
       <c r="H865" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="866">
@@ -29792,7 +29792,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="H866" t="n">
-        <v>84</v>
+        <v>190</v>
       </c>
     </row>
     <row r="867">
@@ -29826,7 +29826,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -29849,7 +29849,7 @@
         <v>0</v>
       </c>
       <c r="H867" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="868">
@@ -29894,7 +29894,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -29917,7 +29917,7 @@
         <v>0</v>
       </c>
       <c r="H869" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="870">
@@ -29962,7 +29962,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -29985,7 +29985,7 @@
         <v>0</v>
       </c>
       <c r="H871" t="n">
-        <v>520</v>
+        <v>691</v>
       </c>
     </row>
     <row r="872">
@@ -30030,7 +30030,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -30098,7 +30098,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -30121,7 +30121,7 @@
         <v>0</v>
       </c>
       <c r="H875" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="876">
@@ -30268,7 +30268,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="H880" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="881">
@@ -30302,7 +30302,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -30325,7 +30325,7 @@
         <v>0</v>
       </c>
       <c r="H881" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="882">
@@ -30404,7 +30404,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -30427,7 +30427,7 @@
         <v>0</v>
       </c>
       <c r="H884" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="885">
@@ -30438,17 +30438,17 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>Corporación Cultural Social y Deportiva Municipal de Quilicura</t>
+          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
         </is>
       </c>
       <c r="D885" t="inlineStr">
         <is>
-          <t>CM110</t>
+          <t>FU021</t>
         </is>
       </c>
       <c r="E885" t="n">
@@ -30461,7 +30461,7 @@
         <v>0</v>
       </c>
       <c r="H885" t="n">
-        <v>192</v>
+        <v>84</v>
       </c>
     </row>
     <row r="886">
@@ -30472,17 +30472,17 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>CFT de la Región de Atacama</t>
+          <t>Corporación Cultural Social y Deportiva Municipal de Quilicura</t>
         </is>
       </c>
       <c r="D886" t="inlineStr">
         <is>
-          <t>CF011</t>
+          <t>CM110</t>
         </is>
       </c>
       <c r="E886" t="n">
@@ -30495,7 +30495,7 @@
         <v>0</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
+        <v>192</v>
       </c>
     </row>
     <row r="887">
@@ -30506,17 +30506,17 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/07</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Antofagasta</t>
+          <t>CFT de la Región de Atacama</t>
         </is>
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t>CM067</t>
+          <t>CF011</t>
         </is>
       </c>
       <c r="E887" t="n">
@@ -30529,7 +30529,7 @@
         <v>0</v>
       </c>
       <c r="H887" t="n">
-        <v>443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888">
@@ -30540,17 +30540,17 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2024/03/10</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Municipalidad de Algarrobo</t>
+          <t>Corporación Cultural de Antofagasta</t>
         </is>
       </c>
       <c r="D888" t="inlineStr">
         <is>
-          <t>MU001</t>
+          <t>CM067</t>
         </is>
       </c>
       <c r="E888" t="n">
@@ -30563,7 +30563,7 @@
         <v>0</v>
       </c>
       <c r="H888" t="n">
-        <v>117</v>
+        <v>443</v>
       </c>
     </row>
     <row r="889">
@@ -30574,17 +30574,17 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/10</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública Santa Rosa</t>
+          <t>Municipalidad de Algarrobo</t>
         </is>
       </c>
       <c r="D889" t="inlineStr">
         <is>
-          <t>AJ037</t>
+          <t>MU001</t>
         </is>
       </c>
       <c r="E889" t="n">
@@ -30597,7 +30597,7 @@
         <v>0</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="890">
@@ -30608,30 +30608,98 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
+          <t>2024/03/13</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>Servicio Local de Educación Pública Santa Rosa</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>AJ037</t>
+        </is>
+      </c>
+      <c r="E890" t="n">
+        <v>0</v>
+      </c>
+      <c r="F890" t="n">
+        <v>0</v>
+      </c>
+      <c r="G890" t="n">
+        <v>0</v>
+      </c>
+      <c r="H890" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
           <t>2024/03/14</t>
         </is>
       </c>
-      <c r="C890" t="inlineStr">
+      <c r="C891" t="inlineStr">
         <is>
           <t>Asociación de Gobernadores y Gobernadoras Regionales de Chile  AGORECHI</t>
         </is>
       </c>
-      <c r="D890" t="inlineStr">
+      <c r="D891" t="inlineStr">
         <is>
           <t>FU025</t>
         </is>
       </c>
-      <c r="E890" t="n">
-        <v>0</v>
-      </c>
-      <c r="F890" t="n">
-        <v>0</v>
-      </c>
-      <c r="G890" t="n">
-        <v>0</v>
-      </c>
-      <c r="H890" t="n">
+      <c r="E891" t="n">
+        <v>0</v>
+      </c>
+      <c r="F891" t="n">
+        <v>0</v>
+      </c>
+      <c r="G891" t="n">
+        <v>0</v>
+      </c>
+      <c r="H891" t="n">
         <v>54</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>Delegación Presidencial Provincial de San Felipe</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>AB037</t>
+        </is>
+      </c>
+      <c r="E892" t="n">
+        <v>0</v>
+      </c>
+      <c r="F892" t="n">
+        <v>0</v>
+      </c>
+      <c r="G892" t="n">
+        <v>0</v>
+      </c>
+      <c r="H892" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>9502</v>
+        <v>9586</v>
       </c>
     </row>
     <row r="68">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>22240</v>
+        <v>22352</v>
       </c>
     </row>
     <row r="76">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>11886</v>
+        <v>11973</v>
       </c>
     </row>
     <row r="79">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>9476</v>
+        <v>9668</v>
       </c>
     </row>
     <row r="82">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>7376</v>
+        <v>7454</v>
       </c>
     </row>
     <row r="84">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>1374</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="94">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>11596</v>
+        <v>11754</v>
       </c>
     </row>
     <row r="106">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>9566</v>
+        <v>9595</v>
       </c>
     </row>
     <row r="108">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/29</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>20618</v>
+        <v>20773</v>
       </c>
     </row>
     <row r="157">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>12644</v>
+        <v>12757</v>
       </c>
     </row>
     <row r="172">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>9100</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="189">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>875</v>
+        <v>884</v>
       </c>
     </row>
     <row r="195">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>8059</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="225">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>21207</v>
+        <v>21246</v>
       </c>
     </row>
     <row r="229">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>4516</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="273">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>359</v>
+        <v>400</v>
       </c>
     </row>
     <row r="286">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2024/01/31</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="n">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="308">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/30</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>5703</v>
+        <v>5728</v>
       </c>
     </row>
     <row r="317">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>37851</v>
+        <v>38295</v>
       </c>
     </row>
     <row r="337">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>7666</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="349">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>8483</v>
+        <v>8495</v>
       </c>
     </row>
     <row r="368">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>19641</v>
+        <v>19662</v>
       </c>
     </row>
     <row r="370">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>6335</v>
+        <v>6399</v>
       </c>
     </row>
     <row r="379">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>8848</v>
+        <v>8939</v>
       </c>
     </row>
     <row r="402">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>18166</v>
+        <v>18212</v>
       </c>
     </row>
     <row r="417">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>20102</v>
+        <v>20119</v>
       </c>
     </row>
     <row r="441">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>16308</v>
+        <v>16377</v>
       </c>
     </row>
     <row r="443">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>24325</v>
+        <v>24546</v>
       </c>
     </row>
     <row r="449">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17620,7 +17620,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>18689</v>
+        <v>18704</v>
       </c>
     </row>
     <row r="509">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>4516</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="510">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>21294</v>
+        <v>22668</v>
       </c>
     </row>
     <row r="528">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>12992</v>
+        <v>13113</v>
       </c>
     </row>
     <row r="537">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>1635</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="538">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>12491</v>
+        <v>12496</v>
       </c>
     </row>
     <row r="559">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>8519</v>
+        <v>8591</v>
       </c>
     </row>
     <row r="571">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>25613</v>
+        <v>25615</v>
       </c>
     </row>
     <row r="597">
@@ -20646,7 +20646,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="598">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="616">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>8896</v>
+        <v>9222</v>
       </c>
     </row>
     <row r="620">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>11139</v>
+        <v>11265</v>
       </c>
     </row>
     <row r="629">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>23845</v>
+        <v>23806</v>
       </c>
     </row>
     <row r="631">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>26333</v>
+        <v>26339</v>
       </c>
     </row>
     <row r="646">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>10455</v>
+        <v>10520</v>
       </c>
     </row>
     <row r="650">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="H652" t="n">
-        <v>27721</v>
+        <v>28127</v>
       </c>
     </row>
     <row r="653">
@@ -23026,7 +23026,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -24250,7 +24250,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -24273,7 +24273,7 @@
         <v>0</v>
       </c>
       <c r="H703" t="n">
-        <v>21008</v>
+        <v>21004</v>
       </c>
     </row>
     <row r="704">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/30</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="H708" t="n">
-        <v>675</v>
+        <v>709</v>
       </c>
     </row>
     <row r="709">
@@ -24726,7 +24726,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -24749,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="H717" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="718">
@@ -25712,7 +25712,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -25735,7 +25735,7 @@
         <v>0</v>
       </c>
       <c r="H746" t="n">
-        <v>207</v>
+        <v>296</v>
       </c>
     </row>
     <row r="747">
@@ -26256,7 +26256,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/30</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -26279,7 +26279,7 @@
         <v>0</v>
       </c>
       <c r="H762" t="n">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
     <row r="763">
@@ -26392,7 +26392,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -26868,7 +26868,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -27072,7 +27072,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -27095,7 +27095,7 @@
         <v>0</v>
       </c>
       <c r="H786" t="n">
-        <v>4345</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="787">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -27231,7 +27231,7 @@
         <v>0</v>
       </c>
       <c r="H790" t="n">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="791">
@@ -27242,7 +27242,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -27265,7 +27265,7 @@
         <v>0</v>
       </c>
       <c r="H791" t="n">
-        <v>1286</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="792">
@@ -27276,7 +27276,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -27299,7 +27299,7 @@
         <v>0</v>
       </c>
       <c r="H792" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="793">
@@ -27650,7 +27650,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="H803" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="804">
@@ -29044,7 +29044,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -29067,7 +29067,7 @@
         <v>0</v>
       </c>
       <c r="H844" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="845">
@@ -29962,7 +29962,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -29985,7 +29985,7 @@
         <v>0</v>
       </c>
       <c r="H871" t="n">
-        <v>691</v>
+        <v>789</v>
       </c>
     </row>
     <row r="872">
@@ -30166,7 +30166,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="H877" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="878">

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H892"/>
+  <dimension ref="A1:H893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,7 +416,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>6144</v>
+        <v>6158</v>
       </c>
     </row>
     <row r="32">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>29973</v>
+        <v>30273</v>
       </c>
     </row>
     <row r="35">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1290</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="46">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2496</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="47">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>8969</v>
+        <v>9024</v>
       </c>
     </row>
     <row r="93">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>99478</v>
+        <v>99555</v>
       </c>
     </row>
     <row r="95">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>13604</v>
+        <v>13798</v>
       </c>
     </row>
     <row r="97">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>18191</v>
+        <v>18382</v>
       </c>
     </row>
     <row r="103">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>11754</v>
+        <v>11763</v>
       </c>
     </row>
     <row r="106">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="145">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>768</v>
+        <v>982</v>
       </c>
     </row>
     <row r="146">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2024/03/03</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>1287</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="179">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>53292</v>
+        <v>53603</v>
       </c>
     </row>
     <row r="220">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/31</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>14479</v>
+        <v>14541</v>
       </c>
     </row>
     <row r="223">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/03/31</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>2092</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="306">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -11149,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="n">
-        <v>2817</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="318">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>17749</v>
+        <v>18174</v>
       </c>
     </row>
     <row r="321">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="346">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>7690</v>
+        <v>7930</v>
       </c>
     </row>
     <row r="349">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="376">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="382">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="423">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>30816</v>
+        <v>30873</v>
       </c>
     </row>
     <row r="427">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>7553</v>
+        <v>7598</v>
       </c>
     </row>
     <row r="428">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="n">
-        <v>3449</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="433">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>16377</v>
+        <v>16568</v>
       </c>
     </row>
     <row r="443">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>103627</v>
+        <v>105343</v>
       </c>
     </row>
     <row r="456">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>70926</v>
+        <v>70928</v>
       </c>
     </row>
     <row r="463">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>8639</v>
+        <v>8714</v>
       </c>
     </row>
     <row r="497">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>23784</v>
+        <v>23989</v>
       </c>
     </row>
     <row r="500">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -17620,7 +17620,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>13894</v>
+        <v>13911</v>
       </c>
     </row>
     <row r="511">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>3143</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="525">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>6511</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="526">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>4390</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="531">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>12212</v>
+        <v>12416</v>
       </c>
     </row>
     <row r="557">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>5699</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="577">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>58552</v>
+        <v>58751</v>
       </c>
     </row>
     <row r="579">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>864</v>
+        <v>875</v>
       </c>
     </row>
     <row r="588">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>25615</v>
+        <v>25616</v>
       </c>
     </row>
     <row r="597">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>12859</v>
+        <v>12917</v>
       </c>
     </row>
     <row r="604">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21326,7 +21326,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>5824</v>
+        <v>5851</v>
       </c>
     </row>
     <row r="621">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>10119</v>
+        <v>10120</v>
       </c>
     </row>
     <row r="622">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="624">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>671</v>
+        <v>682</v>
       </c>
     </row>
     <row r="628">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="H651" t="n">
-        <v>116839</v>
+        <v>117885</v>
       </c>
     </row>
     <row r="652">
@@ -22992,7 +22992,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -23015,7 +23015,7 @@
         <v>0</v>
       </c>
       <c r="H666" t="n">
-        <v>1881</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="667">
@@ -23332,7 +23332,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -23355,7 +23355,7 @@
         <v>0</v>
       </c>
       <c r="H676" t="n">
-        <v>7353</v>
+        <v>7505</v>
       </c>
     </row>
     <row r="677">
@@ -23570,7 +23570,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -23740,7 +23740,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -23763,7 +23763,7 @@
         <v>0</v>
       </c>
       <c r="H688" t="n">
-        <v>616</v>
+        <v>650</v>
       </c>
     </row>
     <row r="689">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="H692" t="n">
-        <v>496</v>
+        <v>536</v>
       </c>
     </row>
     <row r="693">
@@ -23910,7 +23910,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -23933,7 +23933,7 @@
         <v>0</v>
       </c>
       <c r="H693" t="n">
-        <v>1098</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="694">
@@ -24012,7 +24012,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="H696" t="n">
-        <v>1282</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="697">
@@ -24182,7 +24182,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -24205,7 +24205,7 @@
         <v>0</v>
       </c>
       <c r="H701" t="n">
-        <v>1206</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="702">
@@ -24522,7 +24522,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -24545,7 +24545,7 @@
         <v>0</v>
       </c>
       <c r="H711" t="n">
-        <v>1390</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="712">
@@ -24726,7 +24726,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -24749,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="H717" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="718">
@@ -25270,7 +25270,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -25293,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="H733" t="n">
-        <v>1997</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="734">
@@ -25712,7 +25712,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -25735,7 +25735,7 @@
         <v>0</v>
       </c>
       <c r="H746" t="n">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="747">
@@ -25814,7 +25814,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="H749" t="n">
-        <v>943</v>
+        <v>952</v>
       </c>
     </row>
     <row r="750">
@@ -25950,7 +25950,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -25973,7 +25973,7 @@
         <v>0</v>
       </c>
       <c r="H753" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="754">
@@ -26222,7 +26222,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -26245,7 +26245,7 @@
         <v>0</v>
       </c>
       <c r="H761" t="n">
-        <v>358</v>
+        <v>373</v>
       </c>
     </row>
     <row r="762">
@@ -26800,7 +26800,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -26823,7 +26823,7 @@
         <v>0</v>
       </c>
       <c r="H778" t="n">
-        <v>374</v>
+        <v>444</v>
       </c>
     </row>
     <row r="779">
@@ -27310,7 +27310,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -27333,7 +27333,7 @@
         <v>0</v>
       </c>
       <c r="H793" t="n">
-        <v>492</v>
+        <v>513</v>
       </c>
     </row>
     <row r="794">
@@ -27480,7 +27480,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2024/02/17</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="H798" t="n">
-        <v>4107</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="799">
@@ -27582,7 +27582,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="H801" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="802">
@@ -27650,7 +27650,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -28058,7 +28058,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -28081,7 +28081,7 @@
         <v>0</v>
       </c>
       <c r="H815" t="n">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="816">
@@ -28228,7 +28228,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="H820" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="821">
@@ -28296,7 +28296,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -28466,7 +28466,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -28670,7 +28670,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -28693,7 +28693,7 @@
         <v>0</v>
       </c>
       <c r="H833" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="834">
@@ -28772,7 +28772,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -28795,7 +28795,7 @@
         <v>0</v>
       </c>
       <c r="H836" t="n">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="837">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -28829,7 +28829,7 @@
         <v>0</v>
       </c>
       <c r="H837" t="n">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="838">
@@ -28874,7 +28874,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -28897,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="H839" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="840">
@@ -29282,7 +29282,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -29305,7 +29305,7 @@
         <v>0</v>
       </c>
       <c r="H851" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="852">
@@ -29520,7 +29520,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -29543,7 +29543,7 @@
         <v>0</v>
       </c>
       <c r="H858" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="859">
@@ -29724,7 +29724,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -29758,7 +29758,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -29894,7 +29894,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -29917,7 +29917,7 @@
         <v>0</v>
       </c>
       <c r="H869" t="n">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="870">
@@ -30166,7 +30166,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -30268,7 +30268,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="H880" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="881">
@@ -30472,7 +30472,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -30495,7 +30495,7 @@
         <v>0</v>
       </c>
       <c r="H886" t="n">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="887">
@@ -30574,7 +30574,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>2024/03/10</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -30597,7 +30597,7 @@
         <v>0</v>
       </c>
       <c r="H889" t="n">
-        <v>117</v>
+        <v>204</v>
       </c>
     </row>
     <row r="890">
@@ -30700,6 +30700,40 @@
       </c>
       <c r="H892" t="n">
         <v>26</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>Corporación de Deportes de Parral</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>CM127</t>
+        </is>
+      </c>
+      <c r="E893" t="n">
+        <v>0</v>
+      </c>
+      <c r="F893" t="n">
+        <v>0</v>
+      </c>
+      <c r="G893" t="n">
+        <v>0</v>
+      </c>
+      <c r="H893" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H893"/>
+  <dimension ref="A1:H895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2020/02/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -926,7 +926,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>91529</v>
+        <v>92015</v>
       </c>
     </row>
     <row r="21">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>10881</v>
+        <v>11042</v>
       </c>
     </row>
     <row r="36">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hospital Mauricio Heyermann de Angol</t>
+          <t>Hospital Dr. Mauricio Heyermann Torres de Angol</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>15409</v>
+        <v>15516</v>
       </c>
     </row>
     <row r="37">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>14499</v>
+        <v>14677</v>
       </c>
     </row>
     <row r="38">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>4607</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="40">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2500</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="47">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>4300</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="48">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>5181</v>
+        <v>5232</v>
       </c>
     </row>
     <row r="51">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>13712</v>
+        <v>13779</v>
       </c>
     </row>
     <row r="53">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>17817</v>
+        <v>17848</v>
       </c>
     </row>
     <row r="54">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>228301</v>
+        <v>228724</v>
       </c>
     </row>
     <row r="55">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>12651</v>
+        <v>12780</v>
       </c>
     </row>
     <row r="56">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>16847</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="59">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1881</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="62">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>47329</v>
+        <v>47493</v>
       </c>
     </row>
     <row r="63">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>13739</v>
+        <v>13792</v>
       </c>
     </row>
     <row r="64">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>3980</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="65">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>15629</v>
+        <v>15707</v>
       </c>
     </row>
     <row r="72">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>15227</v>
+        <v>15384</v>
       </c>
     </row>
     <row r="74">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>22352</v>
+        <v>22748</v>
       </c>
     </row>
     <row r="76">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>17861</v>
+        <v>18006</v>
       </c>
     </row>
     <row r="77">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>39828</v>
+        <v>39895</v>
       </c>
     </row>
     <row r="80">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/13</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>4457</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="81">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>9668</v>
+        <v>9785</v>
       </c>
     </row>
     <row r="82">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/04/13</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>11674</v>
+        <v>12303</v>
       </c>
     </row>
     <row r="85">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>5567</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="86">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>44939</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="88">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>12528</v>
+        <v>12833</v>
       </c>
     </row>
     <row r="90">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/03/16</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2613</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="91">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>12076</v>
+        <v>12101</v>
       </c>
     </row>
     <row r="96">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>13798</v>
+        <v>14128</v>
       </c>
     </row>
     <row r="97">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1084</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="99">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>9762</v>
+        <v>9819</v>
       </c>
     </row>
     <row r="100">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>14612</v>
+        <v>14698</v>
       </c>
     </row>
     <row r="102">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>36542</v>
+        <v>36870</v>
       </c>
     </row>
     <row r="104">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>54576</v>
+        <v>54857</v>
       </c>
     </row>
     <row r="105">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>12871</v>
+        <v>12997</v>
       </c>
     </row>
     <row r="107">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>3051</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="109">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>6313</v>
+        <v>6407</v>
       </c>
     </row>
     <row r="110">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>2544</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="113">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>12559</v>
+        <v>12709</v>
       </c>
     </row>
     <row r="116">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>1311</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="118">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>2418</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="119">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>57537</v>
+        <v>57702</v>
       </c>
     </row>
     <row r="120">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>7586</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="126">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>3756</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="129">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>3620</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="130">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>3435</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="131">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>9176</v>
+        <v>9281</v>
       </c>
     </row>
     <row r="133">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>4448</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="135">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>29988</v>
+        <v>30234</v>
       </c>
     </row>
     <row r="136">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>16589</v>
+        <v>16637</v>
       </c>
     </row>
     <row r="138">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>24301</v>
+        <v>24434</v>
       </c>
     </row>
     <row r="139">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>24379</v>
+        <v>24501</v>
       </c>
     </row>
     <row r="140">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>6687</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="142">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>28480</v>
+        <v>28636</v>
       </c>
     </row>
     <row r="143">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>8465</v>
+        <v>8692</v>
       </c>
     </row>
     <row r="144">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>14330</v>
+        <v>14360</v>
       </c>
     </row>
     <row r="147">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>32840</v>
+        <v>32845</v>
       </c>
     </row>
     <row r="149">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/13</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>39855</v>
+        <v>40442</v>
       </c>
     </row>
     <row r="150">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>193775</v>
+        <v>195685</v>
       </c>
     </row>
     <row r="153">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>56637</v>
+        <v>57823</v>
       </c>
     </row>
     <row r="154">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>15792</v>
+        <v>15895</v>
       </c>
     </row>
     <row r="156">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/03/29</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>20773</v>
+        <v>21025</v>
       </c>
     </row>
     <row r="157">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>1707</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="160">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>12579</v>
+        <v>12738</v>
       </c>
     </row>
     <row r="161">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>123478</v>
+        <v>124036</v>
       </c>
     </row>
     <row r="162">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/13</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>20606</v>
+        <v>20859</v>
       </c>
     </row>
     <row r="165">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>2992</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="166">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>2399</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="167">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>11478</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="170">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>20453</v>
+        <v>20586</v>
       </c>
     </row>
     <row r="171">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>12757</v>
+        <v>12881</v>
       </c>
     </row>
     <row r="172">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>1361</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="174">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>8639</v>
+        <v>8748</v>
       </c>
     </row>
     <row r="175">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>4193</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="176">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>12579</v>
+        <v>12617</v>
       </c>
     </row>
     <row r="180">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>1267</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="181">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>6749</v>
+        <v>6793</v>
       </c>
     </row>
     <row r="182">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>1334</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="185">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>106620</v>
+        <v>107738</v>
       </c>
     </row>
     <row r="186">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>38161</v>
+        <v>38647</v>
       </c>
     </row>
     <row r="187">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>5499</v>
+        <v>5501</v>
       </c>
     </row>
     <row r="190">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>71488</v>
+        <v>72278</v>
       </c>
     </row>
     <row r="191">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>25322</v>
+        <v>25675</v>
       </c>
     </row>
     <row r="192">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>4691</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="193">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>10942</v>
+        <v>11090</v>
       </c>
     </row>
     <row r="194">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>6467</v>
+        <v>6504</v>
       </c>
     </row>
     <row r="196">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>86375</v>
+        <v>87169</v>
       </c>
     </row>
     <row r="197">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="200">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>4276</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="201">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>11990</v>
+        <v>12116</v>
       </c>
     </row>
     <row r="202">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="203">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>3255</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="207">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>12679</v>
+        <v>12762</v>
       </c>
     </row>
     <row r="208">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>200769</v>
+        <v>202592</v>
       </c>
     </row>
     <row r="209">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>75493</v>
+        <v>76200</v>
       </c>
     </row>
     <row r="210">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>53282</v>
+        <v>53312</v>
       </c>
     </row>
     <row r="212">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>2103</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="213">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="214">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>24502</v>
+        <v>24616</v>
       </c>
     </row>
     <row r="216">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>2471</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="217">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>5624</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="219">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>53603</v>
+        <v>54352</v>
       </c>
     </row>
     <row r="220">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="221">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="222">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>8342</v>
+        <v>8378</v>
       </c>
     </row>
     <row r="225">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>14712</v>
+        <v>14917</v>
       </c>
     </row>
     <row r="226">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>16472</v>
+        <v>16519</v>
       </c>
     </row>
     <row r="227">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>4139</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="228">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="231">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>8270</v>
+        <v>8375</v>
       </c>
     </row>
     <row r="232">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>872</v>
+        <v>889</v>
       </c>
     </row>
     <row r="233">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="234">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>10772</v>
+        <v>10846</v>
       </c>
     </row>
     <row r="235">
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>8107</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="236">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>1285</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="237">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>8123</v>
+        <v>8240</v>
       </c>
     </row>
     <row r="238">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>2231</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="240">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>1338</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="242">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="243">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="244">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>10201</v>
+        <v>10483</v>
       </c>
     </row>
     <row r="245">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>11344</v>
+        <v>11415</v>
       </c>
     </row>
     <row r="246">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>6924</v>
+        <v>6969</v>
       </c>
     </row>
     <row r="248">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>1545</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="249">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>51193</v>
+        <v>51496</v>
       </c>
     </row>
     <row r="252">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>11633</v>
+        <v>11897</v>
       </c>
     </row>
     <row r="254">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2024/03/10</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>9036</v>
+        <v>9286</v>
       </c>
     </row>
     <row r="256">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>10846</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="257">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="258">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>12897</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="260">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>12784</v>
+        <v>12923</v>
       </c>
     </row>
     <row r="261">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>11351</v>
+        <v>11496</v>
       </c>
     </row>
     <row r="262">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>6646</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="263">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>26582</v>
+        <v>26983</v>
       </c>
     </row>
     <row r="264">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>14622</v>
+        <v>14747</v>
       </c>
     </row>
     <row r="265">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="266">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>17997</v>
+        <v>18170</v>
       </c>
     </row>
     <row r="267">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>4000</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="268">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>1675</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="271">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>9598</v>
+        <v>9612</v>
       </c>
     </row>
     <row r="274">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="275">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>19276</v>
+        <v>19458</v>
       </c>
     </row>
     <row r="276">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>14829</v>
+        <v>14967</v>
       </c>
     </row>
     <row r="279">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>35026</v>
+        <v>35375</v>
       </c>
     </row>
     <row r="281">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>935</v>
+        <v>954</v>
       </c>
     </row>
     <row r="282">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="n">
-        <v>9100</v>
+        <v>9198</v>
       </c>
     </row>
     <row r="284">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>42060</v>
+        <v>42405</v>
       </c>
     </row>
     <row r="287">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>4002</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="288">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>26884</v>
+        <v>26974</v>
       </c>
     </row>
     <row r="289">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="290">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/13</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>17139</v>
+        <v>17375</v>
       </c>
     </row>
     <row r="291">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>1427</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="293">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>1737</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="296">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>1646</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="298">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>11142</v>
+        <v>11176</v>
       </c>
     </row>
     <row r="299">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>70743</v>
+        <v>71478</v>
       </c>
     </row>
     <row r="300">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="301">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>2710</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="303">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>12938</v>
+        <v>12953</v>
       </c>
     </row>
     <row r="304">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>5019</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="309">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/03/09</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="310">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="n">
-        <v>970</v>
+        <v>994</v>
       </c>
     </row>
     <row r="311">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2024/03/10</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="312">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>5565</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="314">
@@ -11024,7 +11024,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>7624</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="315">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>11208</v>
+        <v>11336</v>
       </c>
     </row>
     <row r="320">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>18174</v>
+        <v>18409</v>
       </c>
     </row>
     <row r="321">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="322">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>20262</v>
+        <v>20521</v>
       </c>
     </row>
     <row r="325">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="n">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="329">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>46041</v>
+        <v>46908</v>
       </c>
     </row>
     <row r="330">
@@ -11568,7 +11568,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>6375</v>
+        <v>6387</v>
       </c>
     </row>
     <row r="331">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>282648</v>
+        <v>285525</v>
       </c>
     </row>
     <row r="332">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="H332" t="n">
-        <v>12945</v>
+        <v>13146</v>
       </c>
     </row>
     <row r="333">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>4105</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="334">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>34109</v>
+        <v>34342</v>
       </c>
     </row>
     <row r="335">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="n">
-        <v>6376</v>
+        <v>6409</v>
       </c>
     </row>
     <row r="336">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>81879</v>
+        <v>109688</v>
       </c>
     </row>
     <row r="340">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>9531</v>
+        <v>9679</v>
       </c>
     </row>
     <row r="341">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="H341" t="n">
-        <v>5339</v>
+        <v>5401</v>
       </c>
     </row>
     <row r="342">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>11387</v>
+        <v>11546</v>
       </c>
     </row>
     <row r="343">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>9401</v>
+        <v>9432</v>
       </c>
     </row>
     <row r="345">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>7523</v>
+        <v>7536</v>
       </c>
     </row>
     <row r="347">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>4644</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="348">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>7930</v>
+        <v>7981</v>
       </c>
     </row>
     <row r="349">
@@ -12214,7 +12214,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="350">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>22745</v>
+        <v>23182</v>
       </c>
     </row>
     <row r="351">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="n">
-        <v>1569</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="352">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>2300</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="353">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>9287</v>
+        <v>9291</v>
       </c>
     </row>
     <row r="354">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>2432</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="355">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>4477</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="356">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>1787</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="360">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>1728</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="361">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>6173</v>
+        <v>6224</v>
       </c>
     </row>
     <row r="362">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>404</v>
+        <v>438</v>
       </c>
     </row>
     <row r="363">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>1713</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="369">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>19662</v>
+        <v>19700</v>
       </c>
     </row>
     <row r="370">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>9785</v>
+        <v>9797</v>
       </c>
     </row>
     <row r="371">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>15975</v>
+        <v>16138</v>
       </c>
     </row>
     <row r="373">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>14681</v>
+        <v>14807</v>
       </c>
     </row>
     <row r="374">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>17747</v>
+        <v>17911</v>
       </c>
     </row>
     <row r="377">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>127685</v>
+        <v>128772</v>
       </c>
     </row>
     <row r="378">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>17333</v>
+        <v>17514</v>
       </c>
     </row>
     <row r="380">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>15370</v>
+        <v>15549</v>
       </c>
     </row>
     <row r="381">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>11565</v>
+        <v>11663</v>
       </c>
     </row>
     <row r="383">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="384">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="n">
-        <v>26387</v>
+        <v>26514</v>
       </c>
     </row>
     <row r="386">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>59484</v>
+        <v>59807</v>
       </c>
     </row>
     <row r="387">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>23731</v>
+        <v>23972</v>
       </c>
     </row>
     <row r="388">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="n">
-        <v>14879</v>
+        <v>14993</v>
       </c>
     </row>
     <row r="389">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="n">
-        <v>1658</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="390">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>15744</v>
+        <v>15935</v>
       </c>
     </row>
     <row r="391">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>39069</v>
+        <v>39184</v>
       </c>
     </row>
     <row r="394">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>9586</v>
+        <v>9665</v>
       </c>
     </row>
     <row r="395">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>14595</v>
+        <v>14784</v>
       </c>
     </row>
     <row r="397">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>5359</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="398">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>14526</v>
+        <v>14616</v>
       </c>
     </row>
     <row r="399">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>1282</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="401">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>1967</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="404">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>4232</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="405">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>9593</v>
+        <v>9743</v>
       </c>
     </row>
     <row r="407">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>5761</v>
+        <v>5838</v>
       </c>
     </row>
     <row r="408">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
     </row>
     <row r="410">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>2347</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="411">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -14379,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="n">
-        <v>7337</v>
+        <v>7394</v>
       </c>
     </row>
     <row r="413">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/13</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>30125</v>
+        <v>30172</v>
       </c>
     </row>
     <row r="415">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="n">
-        <v>40561</v>
+        <v>41044</v>
       </c>
     </row>
     <row r="416">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>20954</v>
+        <v>21138</v>
       </c>
     </row>
     <row r="418">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>17066</v>
+        <v>17233</v>
       </c>
     </row>
     <row r="419">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>10161</v>
+        <v>10170</v>
       </c>
     </row>
     <row r="420">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>1807</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="422">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>7481</v>
+        <v>7536</v>
       </c>
     </row>
     <row r="424">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>3228</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="425">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>13661</v>
+        <v>13677</v>
       </c>
     </row>
     <row r="426">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>30873</v>
+        <v>31226</v>
       </c>
     </row>
     <row r="427">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>6789</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="429">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>1462</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="430">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="n">
-        <v>3485</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="431">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>2636</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="434">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>1157</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="435">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>10429</v>
+        <v>10502</v>
       </c>
     </row>
     <row r="436">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>2586</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="439">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>22077</v>
+        <v>22441</v>
       </c>
     </row>
     <row r="440">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>20119</v>
+        <v>20570</v>
       </c>
     </row>
     <row r="441">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>15124</v>
+        <v>15218</v>
       </c>
     </row>
     <row r="442">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>21524</v>
+        <v>21532</v>
       </c>
     </row>
     <row r="444">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="H444" t="n">
-        <v>1536</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="445">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>18165</v>
+        <v>18264</v>
       </c>
     </row>
     <row r="446">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>1389</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="450">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>20922</v>
+        <v>21203</v>
       </c>
     </row>
     <row r="452">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>4484</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="453">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="n">
-        <v>6083</v>
+        <v>6182</v>
       </c>
     </row>
     <row r="454">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="H457" t="n">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="458">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="H459" t="n">
-        <v>1130</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="460">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>70928</v>
+        <v>71632</v>
       </c>
     </row>
     <row r="463">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>24926</v>
+        <v>25065</v>
       </c>
     </row>
     <row r="464">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>9527</v>
+        <v>9630</v>
       </c>
     </row>
     <row r="466">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="467">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>8951</v>
+        <v>9053</v>
       </c>
     </row>
     <row r="469">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>2951</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="470">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>2574</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="471">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>7201</v>
+        <v>7226</v>
       </c>
     </row>
     <row r="472">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="n">
-        <v>11205</v>
+        <v>11224</v>
       </c>
     </row>
     <row r="473">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>643</v>
+        <v>784</v>
       </c>
     </row>
     <row r="475">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="476">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>5969</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="477">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>58178</v>
+        <v>58762</v>
       </c>
     </row>
     <row r="478">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>2677</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="481">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>15387</v>
+        <v>15446</v>
       </c>
     </row>
     <row r="482">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>9287</v>
+        <v>9353</v>
       </c>
     </row>
     <row r="483">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>56001</v>
+        <v>56644</v>
       </c>
     </row>
     <row r="485">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>41012</v>
+        <v>41308</v>
       </c>
     </row>
     <row r="486">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>19592</v>
+        <v>19682</v>
       </c>
     </row>
     <row r="487">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>1340</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="488">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="n">
-        <v>33742</v>
+        <v>33817</v>
       </c>
     </row>
     <row r="490">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>7908</v>
+        <v>8268</v>
       </c>
     </row>
     <row r="491">
@@ -17042,7 +17042,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -17065,7 +17065,7 @@
         <v>0</v>
       </c>
       <c r="H491" t="n">
-        <v>3067</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="492">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>127628</v>
+        <v>128914</v>
       </c>
     </row>
     <row r="493">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>7198</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="494">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>3593</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="495">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>8714</v>
+        <v>8805</v>
       </c>
     </row>
     <row r="497">
@@ -17280,7 +17280,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="n">
-        <v>28361</v>
+        <v>28419</v>
       </c>
     </row>
     <row r="499">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>23989</v>
+        <v>24167</v>
       </c>
     </row>
     <row r="500">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>7643</v>
+        <v>7698</v>
       </c>
     </row>
     <row r="501">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>2889</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="502">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>19586</v>
+        <v>19782</v>
       </c>
     </row>
     <row r="503">
@@ -17450,7 +17450,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>49809</v>
+        <v>50325</v>
       </c>
     </row>
     <row r="504">
@@ -17484,7 +17484,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="n">
-        <v>1585</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="505">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="508">
@@ -17722,7 +17722,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="H511" t="n">
-        <v>7514</v>
+        <v>7598</v>
       </c>
     </row>
     <row r="512">
@@ -17756,7 +17756,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -17779,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>44433</v>
+        <v>44715</v>
       </c>
     </row>
     <row r="513">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>31836</v>
+        <v>31869</v>
       </c>
     </row>
     <row r="516">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/03/23</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="n">
-        <v>11648</v>
+        <v>11650</v>
       </c>
     </row>
     <row r="518">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>40760</v>
+        <v>40922</v>
       </c>
     </row>
     <row r="519">
@@ -17994,7 +17994,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>6571</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="520">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>7602</v>
+        <v>7641</v>
       </c>
     </row>
     <row r="522">
@@ -18130,7 +18130,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>2683</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="524">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>3225</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="525">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>6717</v>
+        <v>6797</v>
       </c>
     </row>
     <row r="526">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -18255,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="527">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/13</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>26253</v>
+        <v>26442</v>
       </c>
     </row>
     <row r="529">
@@ -18334,7 +18334,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="n">
-        <v>12088</v>
+        <v>12220</v>
       </c>
     </row>
     <row r="530">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>4432</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="531">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="n">
-        <v>55408</v>
+        <v>55959</v>
       </c>
     </row>
     <row r="532">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>24583</v>
+        <v>25062</v>
       </c>
     </row>
     <row r="533">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>29700</v>
+        <v>29957</v>
       </c>
     </row>
     <row r="534">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>54665</v>
+        <v>54811</v>
       </c>
     </row>
     <row r="535">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>13113</v>
+        <v>13261</v>
       </c>
     </row>
     <row r="537">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>66264</v>
+        <v>66476</v>
       </c>
     </row>
     <row r="540">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>3722</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="541">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>46098</v>
+        <v>46350</v>
       </c>
     </row>
     <row r="542">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>1411</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="545">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="546">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="547">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>1278</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="548">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>24335</v>
+        <v>24649</v>
       </c>
     </row>
     <row r="549">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -19037,7 +19037,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="550">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>71412</v>
+        <v>72389</v>
       </c>
     </row>
     <row r="553">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>7857</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="554">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>1990</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="555">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="n">
-        <v>8130</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="558">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>12496</v>
+        <v>12730</v>
       </c>
     </row>
     <row r="559">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>21370</v>
+        <v>21507</v>
       </c>
     </row>
     <row r="561">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>45878</v>
+        <v>46418</v>
       </c>
     </row>
     <row r="563">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="n">
-        <v>4407</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="564">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>1869</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="565">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="566">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>91354</v>
+        <v>91786</v>
       </c>
     </row>
     <row r="570">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>8591</v>
+        <v>8616</v>
       </c>
     </row>
     <row r="571">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>34983</v>
+        <v>35511</v>
       </c>
     </row>
     <row r="574">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>17317</v>
+        <v>17495</v>
       </c>
     </row>
     <row r="575">
@@ -19898,7 +19898,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>45095</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="576">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>5725</v>
+        <v>5776</v>
       </c>
     </row>
     <row r="577">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>58751</v>
+        <v>59216</v>
       </c>
     </row>
     <row r="579">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>16597</v>
+        <v>16812</v>
       </c>
     </row>
     <row r="580">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="H581" t="n">
-        <v>15395</v>
+        <v>15476</v>
       </c>
     </row>
     <row r="582">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>33451</v>
+        <v>33747</v>
       </c>
     </row>
     <row r="583">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -20261,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>11149</v>
+        <v>11257</v>
       </c>
     </row>
     <row r="586">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>769</v>
+        <v>775</v>
       </c>
     </row>
     <row r="587">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/03/16</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>17578</v>
+        <v>17723</v>
       </c>
     </row>
     <row r="589">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="590">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>17609</v>
+        <v>17652</v>
       </c>
     </row>
     <row r="591">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>6321</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="594">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>58892</v>
+        <v>59352</v>
       </c>
     </row>
     <row r="595">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>25616</v>
+        <v>25841</v>
       </c>
     </row>
     <row r="597">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="599">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="601">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>16263</v>
+        <v>16359</v>
       </c>
     </row>
     <row r="602">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>4252</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="603">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>12917</v>
+        <v>13057</v>
       </c>
     </row>
     <row r="604">
@@ -20884,7 +20884,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>27467</v>
+        <v>28124</v>
       </c>
     </row>
     <row r="605">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="H605" t="n">
-        <v>21653</v>
+        <v>21761</v>
       </c>
     </row>
     <row r="606">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>14616</v>
+        <v>14763</v>
       </c>
     </row>
     <row r="607">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>16146</v>
+        <v>16349</v>
       </c>
     </row>
     <row r="608">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="H608" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="609">
@@ -21054,7 +21054,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="H609" t="n">
-        <v>2075</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="610">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="H610" t="n">
-        <v>90895</v>
+        <v>91901</v>
       </c>
     </row>
     <row r="611">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>7205</v>
+        <v>7372</v>
       </c>
     </row>
     <row r="613">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>2281</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="615">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>1000</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="617">
@@ -21360,7 +21360,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="H618" t="n">
-        <v>14506</v>
+        <v>14723</v>
       </c>
     </row>
     <row r="619">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>9222</v>
+        <v>9347</v>
       </c>
     </row>
     <row r="620">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>10120</v>
+        <v>10136</v>
       </c>
     </row>
     <row r="622">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21564,7 +21564,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>6940</v>
+        <v>6989</v>
       </c>
     </row>
     <row r="625">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="626">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="627">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>23806</v>
+        <v>23899</v>
       </c>
     </row>
     <row r="631">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>66677</v>
+        <v>67363</v>
       </c>
     </row>
     <row r="633">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/03/17</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>5109</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="634">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>10613</v>
+        <v>10731</v>
       </c>
     </row>
     <row r="635">
@@ -21938,7 +21938,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>10077</v>
+        <v>10183</v>
       </c>
     </row>
     <row r="636">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>7859</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="638">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>41016</v>
+        <v>41412</v>
       </c>
     </row>
     <row r="639">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>62680</v>
+        <v>63402</v>
       </c>
     </row>
     <row r="640">
@@ -22142,7 +22142,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="H641" t="n">
-        <v>559</v>
+        <v>567</v>
       </c>
     </row>
     <row r="642">
@@ -22176,7 +22176,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -22199,7 +22199,7 @@
         <v>0</v>
       </c>
       <c r="H642" t="n">
-        <v>2775</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="643">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>26339</v>
+        <v>26392</v>
       </c>
     </row>
     <row r="646">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>36667</v>
+        <v>36952</v>
       </c>
     </row>
     <row r="647">
@@ -22346,7 +22346,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -22380,7 +22380,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -22403,7 +22403,7 @@
         <v>0</v>
       </c>
       <c r="H648" t="n">
-        <v>16051</v>
+        <v>16211</v>
       </c>
     </row>
     <row r="649">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>10520</v>
+        <v>10570</v>
       </c>
     </row>
     <row r="650">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>23524</v>
+        <v>23608</v>
       </c>
     </row>
     <row r="651">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="H651" t="n">
-        <v>117885</v>
+        <v>118040</v>
       </c>
     </row>
     <row r="652">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="H652" t="n">
-        <v>28127</v>
+        <v>28145</v>
       </c>
     </row>
     <row r="653">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="H653" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="654">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>15385</v>
+        <v>15563</v>
       </c>
     </row>
     <row r="655">
@@ -22618,7 +22618,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="H655" t="n">
-        <v>73135</v>
+        <v>73557</v>
       </c>
     </row>
     <row r="656">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22675,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="H656" t="n">
-        <v>23590</v>
+        <v>23611</v>
       </c>
     </row>
     <row r="657">
@@ -22686,7 +22686,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -22709,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="H657" t="n">
-        <v>15789</v>
+        <v>15955</v>
       </c>
     </row>
     <row r="658">
@@ -22720,7 +22720,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -22788,7 +22788,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -22811,7 +22811,7 @@
         <v>0</v>
       </c>
       <c r="H660" t="n">
-        <v>1140</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="661">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -22879,7 +22879,7 @@
         <v>0</v>
       </c>
       <c r="H662" t="n">
-        <v>1030</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="663">
@@ -22890,7 +22890,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="H663" t="n">
-        <v>4238</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="664">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="H664" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="665">
@@ -22958,7 +22958,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="H665" t="n">
-        <v>1426</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="666">
@@ -22992,7 +22992,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -23015,7 +23015,7 @@
         <v>0</v>
       </c>
       <c r="H666" t="n">
-        <v>1918</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="667">
@@ -23026,7 +23026,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -23049,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="H667" t="n">
-        <v>2254</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="668">
@@ -23060,7 +23060,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="H668" t="n">
-        <v>3009</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="669">
@@ -23094,7 +23094,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2024/03/16</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -23117,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="H669" t="n">
-        <v>7044</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="670">
@@ -23162,7 +23162,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
       <c r="H671" t="n">
-        <v>34567</v>
+        <v>34595</v>
       </c>
     </row>
     <row r="672">
@@ -23196,7 +23196,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -23219,7 +23219,7 @@
         <v>0</v>
       </c>
       <c r="H672" t="n">
-        <v>1815</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="673">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -23253,7 +23253,7 @@
         <v>0</v>
       </c>
       <c r="H673" t="n">
-        <v>8460</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="674">
@@ -23264,7 +23264,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -23287,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="H674" t="n">
-        <v>92462</v>
+        <v>94246</v>
       </c>
     </row>
     <row r="675">
@@ -23298,7 +23298,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="H675" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="676">
@@ -23468,7 +23468,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -23491,7 +23491,7 @@
         <v>0</v>
       </c>
       <c r="H680" t="n">
-        <v>628</v>
+        <v>638</v>
       </c>
     </row>
     <row r="681">
@@ -23502,7 +23502,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -23525,7 +23525,7 @@
         <v>0</v>
       </c>
       <c r="H681" t="n">
-        <v>7097</v>
+        <v>7199</v>
       </c>
     </row>
     <row r="682">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="H686" t="n">
-        <v>4336</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="687">
@@ -23774,7 +23774,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2022/06/10</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="H689" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="690">
@@ -23842,7 +23842,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -23978,7 +23978,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -24001,7 +24001,7 @@
         <v>0</v>
       </c>
       <c r="H695" t="n">
-        <v>1265</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="696">
@@ -24046,7 +24046,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -24069,7 +24069,7 @@
         <v>0</v>
       </c>
       <c r="H697" t="n">
-        <v>10272</v>
+        <v>10447</v>
       </c>
     </row>
     <row r="698">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -24103,7 +24103,7 @@
         <v>0</v>
       </c>
       <c r="H698" t="n">
-        <v>1111</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="699">
@@ -24182,7 +24182,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -24205,7 +24205,7 @@
         <v>0</v>
       </c>
       <c r="H701" t="n">
-        <v>1350</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="702">
@@ -24250,7 +24250,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -24273,7 +24273,7 @@
         <v>0</v>
       </c>
       <c r="H703" t="n">
-        <v>21004</v>
+        <v>21763</v>
       </c>
     </row>
     <row r="704">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2024/03/30</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -24590,7 +24590,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="H713" t="n">
-        <v>678</v>
+        <v>716</v>
       </c>
     </row>
     <row r="714">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -24647,7 +24647,7 @@
         <v>0</v>
       </c>
       <c r="H714" t="n">
-        <v>677</v>
+        <v>707</v>
       </c>
     </row>
     <row r="715">
@@ -24692,7 +24692,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="H716" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="717">
@@ -24760,7 +24760,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -24783,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="H718" t="n">
-        <v>746</v>
+        <v>778</v>
       </c>
     </row>
     <row r="719">
@@ -24998,7 +24998,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -25021,7 +25021,7 @@
         <v>0</v>
       </c>
       <c r="H725" t="n">
-        <v>760</v>
+        <v>801</v>
       </c>
     </row>
     <row r="726">
@@ -25066,7 +25066,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -25202,7 +25202,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -25225,7 +25225,7 @@
         <v>0</v>
       </c>
       <c r="H731" t="n">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="732">
@@ -25440,7 +25440,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -25463,7 +25463,7 @@
         <v>0</v>
       </c>
       <c r="H738" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="739">
@@ -25474,7 +25474,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -25497,7 +25497,7 @@
         <v>0</v>
       </c>
       <c r="H739" t="n">
-        <v>1335</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="740">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -25531,7 +25531,7 @@
         <v>0</v>
       </c>
       <c r="H740" t="n">
-        <v>334</v>
+        <v>352</v>
       </c>
     </row>
     <row r="741">
@@ -25644,7 +25644,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -25667,7 +25667,7 @@
         <v>0</v>
       </c>
       <c r="H744" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="745">
@@ -25746,7 +25746,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="H747" t="n">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="748">
@@ -25814,7 +25814,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -25882,7 +25882,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -25905,7 +25905,7 @@
         <v>0</v>
       </c>
       <c r="H751" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="752">
@@ -26052,7 +26052,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -26075,7 +26075,7 @@
         <v>0</v>
       </c>
       <c r="H756" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="757">
@@ -26154,7 +26154,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -26177,7 +26177,7 @@
         <v>0</v>
       </c>
       <c r="H759" t="n">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="760">
@@ -26188,7 +26188,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -26211,7 +26211,7 @@
         <v>0</v>
       </c>
       <c r="H760" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="761">
@@ -26324,7 +26324,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -26347,7 +26347,7 @@
         <v>0</v>
       </c>
       <c r="H764" t="n">
-        <v>1238</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="765">
@@ -26358,7 +26358,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -26392,7 +26392,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -26415,7 +26415,7 @@
         <v>0</v>
       </c>
       <c r="H766" t="n">
-        <v>2303</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="767">
@@ -26426,7 +26426,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -26449,7 +26449,7 @@
         <v>0</v>
       </c>
       <c r="H767" t="n">
-        <v>605</v>
+        <v>625</v>
       </c>
     </row>
     <row r="768">
@@ -26494,7 +26494,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -26517,7 +26517,7 @@
         <v>0</v>
       </c>
       <c r="H769" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="770">
@@ -26528,7 +26528,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -26551,7 +26551,7 @@
         <v>0</v>
       </c>
       <c r="H770" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="771">
@@ -26562,7 +26562,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -26585,7 +26585,7 @@
         <v>0</v>
       </c>
       <c r="H771" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="772">
@@ -26630,7 +26630,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -26653,7 +26653,7 @@
         <v>0</v>
       </c>
       <c r="H773" t="n">
-        <v>3390</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="774">
@@ -26834,7 +26834,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -26857,7 +26857,7 @@
         <v>0</v>
       </c>
       <c r="H779" t="n">
-        <v>7759</v>
+        <v>7761</v>
       </c>
     </row>
     <row r="780">
@@ -26936,7 +26936,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -26959,7 +26959,7 @@
         <v>0</v>
       </c>
       <c r="H782" t="n">
-        <v>1307</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="783">
@@ -26970,7 +26970,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="H783" t="n">
-        <v>7137</v>
+        <v>7195</v>
       </c>
     </row>
     <row r="784">
@@ -27004,7 +27004,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H784" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="785">
@@ -27106,7 +27106,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -27129,7 +27129,7 @@
         <v>0</v>
       </c>
       <c r="H787" t="n">
-        <v>10412</v>
+        <v>10761</v>
       </c>
     </row>
     <row r="788">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -27197,7 +27197,7 @@
         <v>0</v>
       </c>
       <c r="H789" t="n">
-        <v>1184</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="790">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -27231,7 +27231,7 @@
         <v>0</v>
       </c>
       <c r="H790" t="n">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="791">
@@ -27276,7 +27276,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -27299,7 +27299,7 @@
         <v>0</v>
       </c>
       <c r="H792" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="793">
@@ -27412,7 +27412,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="H796" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="797">
@@ -27446,7 +27446,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="H797" t="n">
-        <v>580</v>
+        <v>671</v>
       </c>
     </row>
     <row r="798">
@@ -27480,7 +27480,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="H798" t="n">
-        <v>4360</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="799">
@@ -27514,7 +27514,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="H799" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="800">
@@ -27582,7 +27582,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="H801" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="802">
@@ -27616,7 +27616,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -27639,7 +27639,7 @@
         <v>0</v>
       </c>
       <c r="H802" t="n">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="803">
@@ -27718,7 +27718,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -27741,7 +27741,7 @@
         <v>0</v>
       </c>
       <c r="H805" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="806">
@@ -27820,7 +27820,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -27843,7 +27843,7 @@
         <v>0</v>
       </c>
       <c r="H808" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="809">
@@ -27888,7 +27888,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -27911,7 +27911,7 @@
         <v>0</v>
       </c>
       <c r="H810" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="811">
@@ -27922,7 +27922,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -27945,7 +27945,7 @@
         <v>0</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="812">
@@ -27956,7 +27956,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="H812" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="813">
@@ -28194,7 +28194,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="H819" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="820">
@@ -28262,7 +28262,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -28285,7 +28285,7 @@
         <v>0</v>
       </c>
       <c r="H821" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="822">
@@ -28330,7 +28330,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -28636,7 +28636,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -28659,7 +28659,7 @@
         <v>0</v>
       </c>
       <c r="H832" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="833">
@@ -28840,7 +28840,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="H838" t="n">
-        <v>123</v>
+        <v>146</v>
       </c>
     </row>
     <row r="839">
@@ -28874,7 +28874,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -28976,7 +28976,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -28999,7 +28999,7 @@
         <v>0</v>
       </c>
       <c r="H842" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="843">
@@ -29044,7 +29044,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -29067,7 +29067,7 @@
         <v>0</v>
       </c>
       <c r="H844" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="845">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -29112,7 +29112,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="H846" t="n">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="847">
@@ -29146,7 +29146,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -29169,7 +29169,7 @@
         <v>0</v>
       </c>
       <c r="H847" t="n">
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
     <row r="848">
@@ -29180,7 +29180,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -29248,7 +29248,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -29271,7 +29271,7 @@
         <v>0</v>
       </c>
       <c r="H850" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="851">
@@ -29316,7 +29316,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -29339,7 +29339,7 @@
         <v>0</v>
       </c>
       <c r="H852" t="n">
-        <v>121</v>
+        <v>144</v>
       </c>
     </row>
     <row r="853">
@@ -29350,7 +29350,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -29373,7 +29373,7 @@
         <v>0</v>
       </c>
       <c r="H853" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="854">
@@ -29384,7 +29384,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -29407,7 +29407,7 @@
         <v>0</v>
       </c>
       <c r="H854" t="n">
-        <v>142</v>
+        <v>164</v>
       </c>
     </row>
     <row r="855">
@@ -29418,7 +29418,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -29441,7 +29441,7 @@
         <v>0</v>
       </c>
       <c r="H855" t="n">
-        <v>137</v>
+        <v>169</v>
       </c>
     </row>
     <row r="856">
@@ -29452,7 +29452,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="H856" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="857">
@@ -29486,7 +29486,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -29509,7 +29509,7 @@
         <v>0</v>
       </c>
       <c r="H857" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="858">
@@ -29554,7 +29554,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="H859" t="n">
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="860">
@@ -29622,7 +29622,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="H861" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="862">
@@ -29656,7 +29656,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -29690,7 +29690,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -29713,7 +29713,7 @@
         <v>0</v>
       </c>
       <c r="H863" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="864">
@@ -29758,7 +29758,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -29826,7 +29826,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -29849,7 +29849,7 @@
         <v>0</v>
       </c>
       <c r="H867" t="n">
-        <v>120</v>
+        <v>142</v>
       </c>
     </row>
     <row r="868">
@@ -29928,7 +29928,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -29951,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="H870" t="n">
-        <v>1174</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="871">
@@ -29962,7 +29962,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -29985,7 +29985,7 @@
         <v>0</v>
       </c>
       <c r="H871" t="n">
-        <v>789</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="872">
@@ -29996,7 +29996,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="H872" t="n">
-        <v>472</v>
+        <v>740</v>
       </c>
     </row>
     <row r="873">
@@ -30030,7 +30030,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -30053,7 +30053,7 @@
         <v>0</v>
       </c>
       <c r="H873" t="n">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="874">
@@ -30064,7 +30064,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -30087,7 +30087,7 @@
         <v>0</v>
       </c>
       <c r="H874" t="n">
-        <v>367</v>
+        <v>472</v>
       </c>
     </row>
     <row r="875">
@@ -30132,7 +30132,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="877">
@@ -30166,7 +30166,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="H877" t="n">
-        <v>32</v>
+        <v>207</v>
       </c>
     </row>
     <row r="878">
@@ -30268,17 +30268,17 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Tocopilla</t>
+          <t>Municipalidad de Algarrobo</t>
         </is>
       </c>
       <c r="D880" t="inlineStr">
         <is>
-          <t>AB028</t>
+          <t>MU001</t>
         </is>
       </c>
       <c r="E880" t="n">
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="H880" t="n">
-        <v>44</v>
+        <v>252</v>
       </c>
     </row>
     <row r="881">
@@ -30302,17 +30302,17 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Talagante</t>
+          <t>Delegación Presidencial Provincial de Tocopilla</t>
         </is>
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>AB072</t>
+          <t>AB028</t>
         </is>
       </c>
       <c r="E881" t="n">
@@ -30325,7 +30325,7 @@
         <v>0</v>
       </c>
       <c r="H881" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="882">
@@ -30336,17 +30336,17 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Asociación Cultural Municipal de Cerrillos</t>
+          <t>Delegación Presidencial Provincial de Talagante</t>
         </is>
       </c>
       <c r="D882" t="inlineStr">
         <is>
-          <t>MA068</t>
+          <t>AB072</t>
         </is>
       </c>
       <c r="E882" t="n">
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="H882" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="883">
@@ -30370,17 +30370,17 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>CLUB DE LA REINA SOCIAL DEPORTIVO Y RECREACIONAL</t>
+          <t>Asociación Cultural Municipal de Cerrillos</t>
         </is>
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t>CM281</t>
+          <t>MA068</t>
         </is>
       </c>
       <c r="E883" t="n">
@@ -30393,7 +30393,7 @@
         <v>0</v>
       </c>
       <c r="H883" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="884">
@@ -30404,17 +30404,17 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Aysén del General Carlos Ibáñez del Campo</t>
+          <t>CLUB DE LA REINA SOCIAL DEPORTIVO Y RECREACIONAL</t>
         </is>
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t>AB010</t>
+          <t>CM281</t>
         </is>
       </c>
       <c r="E884" t="n">
@@ -30427,7 +30427,7 @@
         <v>0</v>
       </c>
       <c r="H884" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="885">
@@ -30443,12 +30443,12 @@
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
+          <t>Delegación Presidencial Regional de Aysén del General Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="D885" t="inlineStr">
         <is>
-          <t>FU021</t>
+          <t>AB010</t>
         </is>
       </c>
       <c r="E885" t="n">
@@ -30461,7 +30461,7 @@
         <v>0</v>
       </c>
       <c r="H885" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="886">
@@ -30472,17 +30472,17 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>Corporación Cultural Social y Deportiva Municipal de Quilicura</t>
+          <t>Corporación Regional de Investigación y Desarrollo Centro de Investigación en Ecosistemas de la Patagonia</t>
         </is>
       </c>
       <c r="D886" t="inlineStr">
         <is>
-          <t>CM110</t>
+          <t>FU021</t>
         </is>
       </c>
       <c r="E886" t="n">
@@ -30495,7 +30495,7 @@
         <v>0</v>
       </c>
       <c r="H886" t="n">
-        <v>199</v>
+        <v>84</v>
       </c>
     </row>
     <row r="887">
@@ -30506,17 +30506,17 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>CFT de la Región de Atacama</t>
+          <t>Corporación Cultural Social y Deportiva Municipal de Quilicura</t>
         </is>
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t>CF011</t>
+          <t>CM110</t>
         </is>
       </c>
       <c r="E887" t="n">
@@ -30529,7 +30529,7 @@
         <v>0</v>
       </c>
       <c r="H887" t="n">
-        <v>1</v>
+        <v>199</v>
       </c>
     </row>
     <row r="888">
@@ -30540,17 +30540,17 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/07</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Antofagasta</t>
+          <t>CFT de la Región de Atacama</t>
         </is>
       </c>
       <c r="D888" t="inlineStr">
         <is>
-          <t>CM067</t>
+          <t>CF011</t>
         </is>
       </c>
       <c r="E888" t="n">
@@ -30563,7 +30563,7 @@
         <v>0</v>
       </c>
       <c r="H888" t="n">
-        <v>443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889">
@@ -30574,17 +30574,17 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Municipalidad de Algarrobo</t>
+          <t>Corporación Cultural de Antofagasta</t>
         </is>
       </c>
       <c r="D889" t="inlineStr">
         <is>
-          <t>MU001</t>
+          <t>CM067</t>
         </is>
       </c>
       <c r="E889" t="n">
@@ -30597,7 +30597,7 @@
         <v>0</v>
       </c>
       <c r="H889" t="n">
-        <v>204</v>
+        <v>443</v>
       </c>
     </row>
     <row r="890">
@@ -30608,7 +30608,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -30631,7 +30631,7 @@
         <v>0</v>
       </c>
       <c r="H890" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891">
@@ -30642,7 +30642,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -30665,7 +30665,7 @@
         <v>0</v>
       </c>
       <c r="H891" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="892">
@@ -30676,7 +30676,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -30734,6 +30734,74 @@
       </c>
       <c r="H893" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>2024/04/09</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>Universidad de Magallanes</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>UN016</t>
+        </is>
+      </c>
+      <c r="E894" t="n">
+        <v>0</v>
+      </c>
+      <c r="F894" t="n">
+        <v>0</v>
+      </c>
+      <c r="G894" t="n">
+        <v>0</v>
+      </c>
+      <c r="H894" t="n">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>2024/04/09</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>Universidad de Atacama</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>UN004</t>
+        </is>
+      </c>
+      <c r="E895" t="n">
+        <v>0</v>
+      </c>
+      <c r="F895" t="n">
+        <v>0</v>
+      </c>
+      <c r="G895" t="n">
+        <v>0</v>
+      </c>
+      <c r="H895" t="n">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>9586</v>
+        <v>9684</v>
       </c>
     </row>
     <row r="68">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>33231</v>
+        <v>33261</v>
       </c>
     </row>
     <row r="124">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>11492</v>
+        <v>11536</v>
       </c>
     </row>
     <row r="272">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>21273</v>
+        <v>21516</v>
       </c>
     </row>
     <row r="278">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="n">
-        <v>77764</v>
+        <v>78090</v>
       </c>
     </row>
     <row r="305">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>26054</v>
+        <v>26098</v>
       </c>
     </row>
     <row r="319">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>16825</v>
+        <v>16955</v>
       </c>
     </row>
     <row r="366">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="n">
-        <v>16238</v>
+        <v>16347</v>
       </c>
     </row>
     <row r="414">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="n">
-        <v>10274</v>
+        <v>10365</v>
       </c>
     </row>
     <row r="421">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>184515</v>
+        <v>186698</v>
       </c>
     </row>
     <row r="437">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>14031</v>
+        <v>14038</v>
       </c>
     </row>
     <row r="567">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>39576</v>
+        <v>39865</v>
       </c>
     </row>
     <row r="593">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="616">
@@ -29588,7 +29588,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -29611,7 +29611,7 @@
         <v>0</v>
       </c>
       <c r="H860" t="n">
-        <v>262</v>
+        <v>317</v>
       </c>
     </row>
     <row r="861">
@@ -29860,7 +29860,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -29883,7 +29883,7 @@
         <v>0</v>
       </c>
       <c r="H868" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="869">
@@ -30540,7 +30540,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H895"/>
+  <dimension ref="A1:H899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,7 +756,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -824,7 +824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>92015</v>
+        <v>92413</v>
       </c>
     </row>
     <row r="21">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>17648</v>
+        <v>17735</v>
       </c>
     </row>
     <row r="26">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>22302</v>
+        <v>22403</v>
       </c>
     </row>
     <row r="29">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5873</v>
+        <v>5989</v>
       </c>
     </row>
     <row r="42">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2020/11/29</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>16759</v>
+        <v>16766</v>
       </c>
     </row>
     <row r="49">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>2873</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="58">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>16182</v>
+        <v>16352</v>
       </c>
     </row>
     <row r="66">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>6525</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="78">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>18031</v>
+        <v>18048</v>
       </c>
     </row>
     <row r="87">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>12304</v>
+        <v>12370</v>
       </c>
     </row>
     <row r="89">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/20</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2619</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="91">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>20802</v>
+        <v>20991</v>
       </c>
     </row>
     <row r="92">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>1395</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="94">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>99555</v>
+        <v>100162</v>
       </c>
     </row>
     <row r="95">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>23002</v>
+        <v>26897</v>
       </c>
     </row>
     <row r="98">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>36870</v>
+        <v>36988</v>
       </c>
     </row>
     <row r="104">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>9595</v>
+        <v>9633</v>
       </c>
     </row>
     <row r="108">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>5675</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="112">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>13448</v>
+        <v>13499</v>
       </c>
     </row>
     <row r="114">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>19721</v>
+        <v>19746</v>
       </c>
     </row>
     <row r="122">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>40093</v>
+        <v>40114</v>
       </c>
     </row>
     <row r="128">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024/03/16</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>4200</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="132">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>11014</v>
+        <v>11124</v>
       </c>
     </row>
     <row r="134">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="146">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>5109</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="151">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>21025</v>
+        <v>21168</v>
       </c>
     </row>
     <row r="157">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>12348</v>
+        <v>12539</v>
       </c>
     </row>
     <row r="158">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>26593</v>
+        <v>26827</v>
       </c>
     </row>
     <row r="164">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>26892</v>
+        <v>27250</v>
       </c>
     </row>
     <row r="168">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>10687</v>
+        <v>10761</v>
       </c>
     </row>
     <row r="169">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>12617</v>
+        <v>12817</v>
       </c>
     </row>
     <row r="180">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>1196</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="188">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>87169</v>
+        <v>87225</v>
       </c>
     </row>
     <row r="197">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="204">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>53312</v>
+        <v>54085</v>
       </c>
     </row>
     <row r="212">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>11868</v>
+        <v>12154</v>
       </c>
     </row>
     <row r="215">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>24616</v>
+        <v>24867</v>
       </c>
     </row>
     <row r="216">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>41519</v>
+        <v>42036</v>
       </c>
     </row>
     <row r="218">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/03/09</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="224">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>21246</v>
+        <v>21488</v>
       </c>
     </row>
     <row r="229">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="239">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>5832</v>
+        <v>5873</v>
       </c>
     </row>
     <row r="247">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>6461</v>
+        <v>6572</v>
       </c>
     </row>
     <row r="250">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>10976</v>
+        <v>11067</v>
       </c>
     </row>
     <row r="253">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>24115</v>
+        <v>24336</v>
       </c>
     </row>
     <row r="259">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>4005</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="268">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>6007</v>
+        <v>6101</v>
       </c>
     </row>
     <row r="270">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>10980</v>
+        <v>11125</v>
       </c>
     </row>
     <row r="280">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>26974</v>
+        <v>27081</v>
       </c>
     </row>
     <row r="289">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2024/03/31</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>1774</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="295">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>23098</v>
+        <v>23339</v>
       </c>
     </row>
     <row r="307">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>9308</v>
+        <v>9433</v>
       </c>
     </row>
     <row r="313">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>5765</v>
+        <v>5795</v>
       </c>
     </row>
     <row r="323">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>16972</v>
+        <v>17154</v>
       </c>
     </row>
     <row r="326">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>4146</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="334">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="n">
-        <v>13429</v>
+        <v>13618</v>
       </c>
     </row>
     <row r="338">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>9679</v>
+        <v>9803</v>
       </c>
     </row>
     <row r="341">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="H341" t="n">
-        <v>5401</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="342">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>7981</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="349">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="357">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>1980</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="365">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>19700</v>
+        <v>19872</v>
       </c>
     </row>
     <row r="370">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>9797</v>
+        <v>9918</v>
       </c>
     </row>
     <row r="371">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>26783</v>
+        <v>27012</v>
       </c>
     </row>
     <row r="375">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>23293</v>
+        <v>23328</v>
       </c>
     </row>
     <row r="385">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="n">
-        <v>14993</v>
+        <v>15020</v>
       </c>
     </row>
     <row r="389">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/03/23</t>
+          <t>2024/04/20</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>4386</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="392">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>33437</v>
+        <v>33712</v>
       </c>
     </row>
     <row r="393">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>8939</v>
+        <v>8973</v>
       </c>
     </row>
     <row r="402">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>30390</v>
+        <v>30613</v>
       </c>
     </row>
     <row r="403">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>16008</v>
+        <v>16269</v>
       </c>
     </row>
     <row r="409">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="n">
-        <v>10365</v>
+        <v>10426</v>
       </c>
     </row>
     <row r="421">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>18720</v>
+        <v>18674</v>
       </c>
     </row>
     <row r="432">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>16301</v>
+        <v>16579</v>
       </c>
     </row>
     <row r="438">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>16568</v>
+        <v>16716</v>
       </c>
     </row>
     <row r="443">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>19362</v>
+        <v>19567</v>
       </c>
     </row>
     <row r="448">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>24546</v>
+        <v>24925</v>
       </c>
     </row>
     <row r="449">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>18810</v>
+        <v>19012</v>
       </c>
     </row>
     <row r="457">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>1413</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="465">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="n">
-        <v>22949</v>
+        <v>23165</v>
       </c>
     </row>
     <row r="474">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>38616</v>
+        <v>40204</v>
       </c>
     </row>
     <row r="479">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>13706</v>
+        <v>13860</v>
       </c>
     </row>
     <row r="484">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="496">
@@ -17246,7 +17246,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>35287</v>
+        <v>35476</v>
       </c>
     </row>
     <row r="498">
@@ -17450,7 +17450,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>50325</v>
+        <v>50921</v>
       </c>
     </row>
     <row r="504">
@@ -17518,7 +17518,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>2693</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="506">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -17575,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>11820</v>
+        <v>12088</v>
       </c>
     </row>
     <row r="507">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>4535</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="510">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>8732</v>
+        <v>8741</v>
       </c>
     </row>
     <row r="514">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>31869</v>
+        <v>32148</v>
       </c>
     </row>
     <row r="516">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>40922</v>
+        <v>41058</v>
       </c>
     </row>
     <row r="519">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="n">
-        <v>1010</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="521">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>7641</v>
+        <v>7652</v>
       </c>
     </row>
     <row r="522">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="523">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="n">
-        <v>86515</v>
+        <v>87578</v>
       </c>
     </row>
     <row r="539">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>66476</v>
+        <v>66517</v>
       </c>
     </row>
     <row r="540">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>101274</v>
+        <v>101522</v>
       </c>
     </row>
     <row r="544">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>35572</v>
+        <v>35990</v>
       </c>
     </row>
     <row r="552">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>6403</v>
+        <v>6474</v>
       </c>
     </row>
     <row r="562">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>12856</v>
+        <v>12955</v>
       </c>
     </row>
     <row r="569">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>38209</v>
+        <v>38224</v>
       </c>
     </row>
     <row r="572">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>35511</v>
+        <v>35521</v>
       </c>
     </row>
     <row r="574">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>59216</v>
+        <v>60283</v>
       </c>
     </row>
     <row r="579">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>16096</v>
+        <v>16381</v>
       </c>
     </row>
     <row r="581">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>3773</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="584">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>12300</v>
+        <v>12347</v>
       </c>
     </row>
     <row r="585">
@@ -20442,7 +20442,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>27282</v>
+        <v>27389</v>
       </c>
     </row>
     <row r="592">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>39865</v>
+        <v>39932</v>
       </c>
     </row>
     <row r="593">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>16359</v>
+        <v>16496</v>
       </c>
     </row>
     <row r="602">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>13057</v>
+        <v>13062</v>
       </c>
     </row>
     <row r="604">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>9347</v>
+        <v>9404</v>
       </c>
     </row>
     <row r="620">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>10136</v>
+        <v>10224</v>
       </c>
     </row>
     <row r="622">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>8532</v>
+        <v>8671</v>
       </c>
     </row>
     <row r="623">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>11265</v>
+        <v>11565</v>
       </c>
     </row>
     <row r="629">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>7908</v>
+        <v>8081</v>
       </c>
     </row>
     <row r="638">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -22131,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="H640" t="n">
-        <v>36659</v>
+        <v>37797</v>
       </c>
     </row>
     <row r="641">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -22267,7 +22267,7 @@
         <v>0</v>
       </c>
       <c r="H644" t="n">
-        <v>13917</v>
+        <v>14011</v>
       </c>
     </row>
     <row r="645">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>26392</v>
+        <v>26505</v>
       </c>
     </row>
     <row r="646">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>10570</v>
+        <v>10618</v>
       </c>
     </row>
     <row r="650">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="H651" t="n">
-        <v>118040</v>
+        <v>119621</v>
       </c>
     </row>
     <row r="652">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="H652" t="n">
-        <v>28145</v>
+        <v>28616</v>
       </c>
     </row>
     <row r="653">
@@ -22686,7 +22686,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -22709,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="H657" t="n">
-        <v>15955</v>
+        <v>15968</v>
       </c>
     </row>
     <row r="658">
@@ -23162,7 +23162,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -23253,7 +23253,7 @@
         <v>0</v>
       </c>
       <c r="H673" t="n">
-        <v>8704</v>
+        <v>8695</v>
       </c>
     </row>
     <row r="674">
@@ -23366,7 +23366,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -23389,7 +23389,7 @@
         <v>0</v>
       </c>
       <c r="H677" t="n">
-        <v>612</v>
+        <v>627</v>
       </c>
     </row>
     <row r="678">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -23706,7 +23706,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -23729,7 +23729,7 @@
         <v>0</v>
       </c>
       <c r="H687" t="n">
-        <v>3510</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="688">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -23967,7 +23967,7 @@
         <v>0</v>
       </c>
       <c r="H694" t="n">
-        <v>602</v>
+        <v>639</v>
       </c>
     </row>
     <row r="695">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="H700" t="n">
-        <v>1352</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="701">
@@ -24318,7 +24318,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="H706" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="707">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="H710" t="n">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="711">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -24681,7 +24681,7 @@
         <v>0</v>
       </c>
       <c r="H715" t="n">
-        <v>2790</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="716">
@@ -24896,7 +24896,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="H722" t="n">
-        <v>920</v>
+        <v>955</v>
       </c>
     </row>
     <row r="723">
@@ -25032,7 +25032,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="H726" t="n">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="727">
@@ -25236,7 +25236,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="H732" t="n">
-        <v>6252</v>
+        <v>6265</v>
       </c>
     </row>
     <row r="733">
@@ -25474,7 +25474,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -25497,7 +25497,7 @@
         <v>0</v>
       </c>
       <c r="H739" t="n">
-        <v>1390</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="740">
@@ -25542,7 +25542,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -25565,7 +25565,7 @@
         <v>0</v>
       </c>
       <c r="H741" t="n">
-        <v>346</v>
+        <v>364</v>
       </c>
     </row>
     <row r="742">
@@ -25712,7 +25712,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -25735,7 +25735,7 @@
         <v>0</v>
       </c>
       <c r="H746" t="n">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="747">
@@ -25814,7 +25814,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="H749" t="n">
-        <v>952</v>
+        <v>992</v>
       </c>
     </row>
     <row r="750">
@@ -26256,7 +26256,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2024/03/30</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -26279,7 +26279,7 @@
         <v>0</v>
       </c>
       <c r="H762" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="763">
@@ -26460,7 +26460,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -26483,7 +26483,7 @@
         <v>0</v>
       </c>
       <c r="H768" t="n">
-        <v>854</v>
+        <v>889</v>
       </c>
     </row>
     <row r="769">
@@ -26630,7 +26630,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -26732,7 +26732,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -26755,7 +26755,7 @@
         <v>0</v>
       </c>
       <c r="H776" t="n">
-        <v>1495</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="777">
@@ -26868,7 +26868,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -26891,7 +26891,7 @@
         <v>0</v>
       </c>
       <c r="H780" t="n">
-        <v>6724</v>
+        <v>7281</v>
       </c>
     </row>
     <row r="781">
@@ -28024,7 +28024,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -28047,7 +28047,7 @@
         <v>0</v>
       </c>
       <c r="H814" t="n">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="815">
@@ -28058,7 +28058,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -28081,7 +28081,7 @@
         <v>0</v>
       </c>
       <c r="H815" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="816">
@@ -28092,7 +28092,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -28115,7 +28115,7 @@
         <v>0</v>
       </c>
       <c r="H816" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="817">
@@ -28126,7 +28126,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="H817" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="818">
@@ -28160,7 +28160,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -28183,7 +28183,7 @@
         <v>0</v>
       </c>
       <c r="H818" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="819">
@@ -28194,7 +28194,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="H819" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="820">
@@ -28228,7 +28228,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="H820" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="821">
@@ -28262,7 +28262,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -28285,7 +28285,7 @@
         <v>0</v>
       </c>
       <c r="H821" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="822">
@@ -28296,7 +28296,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -28319,7 +28319,7 @@
         <v>0</v>
       </c>
       <c r="H822" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="823">
@@ -28330,7 +28330,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -28353,7 +28353,7 @@
         <v>0</v>
       </c>
       <c r="H823" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="824">
@@ -28364,7 +28364,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="H824" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="825">
@@ -28398,7 +28398,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H825" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="826">
@@ -28432,7 +28432,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -28455,7 +28455,7 @@
         <v>0</v>
       </c>
       <c r="H826" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="827">
@@ -28466,7 +28466,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -28489,7 +28489,7 @@
         <v>0</v>
       </c>
       <c r="H827" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="828">
@@ -28500,7 +28500,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -28523,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="H828" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="829">
@@ -28534,7 +28534,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -28557,7 +28557,7 @@
         <v>0</v>
       </c>
       <c r="H829" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="830">
@@ -28568,7 +28568,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -28591,7 +28591,7 @@
         <v>0</v>
       </c>
       <c r="H830" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="831">
@@ -28602,7 +28602,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -28625,7 +28625,7 @@
         <v>0</v>
       </c>
       <c r="H831" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="832">
@@ -28636,7 +28636,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -28659,7 +28659,7 @@
         <v>0</v>
       </c>
       <c r="H832" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="833">
@@ -28670,7 +28670,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -28693,7 +28693,7 @@
         <v>0</v>
       </c>
       <c r="H833" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="834">
@@ -28704,7 +28704,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -28727,7 +28727,7 @@
         <v>0</v>
       </c>
       <c r="H834" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="835">
@@ -28738,7 +28738,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="H835" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="836">
@@ -28772,7 +28772,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -28795,7 +28795,7 @@
         <v>0</v>
       </c>
       <c r="H836" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="837">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -28829,7 +28829,7 @@
         <v>0</v>
       </c>
       <c r="H837" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="838">
@@ -28840,7 +28840,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="H838" t="n">
-        <v>146</v>
+        <v>172</v>
       </c>
     </row>
     <row r="839">
@@ -28874,7 +28874,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -28897,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="H839" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="840">
@@ -28908,7 +28908,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="H840" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="841">
@@ -28942,7 +28942,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -28976,7 +28976,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -28999,7 +28999,7 @@
         <v>0</v>
       </c>
       <c r="H842" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="843">
@@ -29010,7 +29010,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -29033,7 +29033,7 @@
         <v>0</v>
       </c>
       <c r="H843" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="844">
@@ -29044,7 +29044,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -29067,7 +29067,7 @@
         <v>0</v>
       </c>
       <c r="H844" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="845">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="H845" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="846">
@@ -29112,7 +29112,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="H846" t="n">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="847">
@@ -29146,7 +29146,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -29169,7 +29169,7 @@
         <v>0</v>
       </c>
       <c r="H847" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="848">
@@ -29180,7 +29180,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -29203,7 +29203,7 @@
         <v>0</v>
       </c>
       <c r="H848" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="849">
@@ -29214,7 +29214,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -29237,7 +29237,7 @@
         <v>0</v>
       </c>
       <c r="H849" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="850">
@@ -29248,7 +29248,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -29271,7 +29271,7 @@
         <v>0</v>
       </c>
       <c r="H850" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="851">
@@ -29282,7 +29282,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -29305,7 +29305,7 @@
         <v>0</v>
       </c>
       <c r="H851" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="852">
@@ -29316,7 +29316,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -29339,7 +29339,7 @@
         <v>0</v>
       </c>
       <c r="H852" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="853">
@@ -29350,7 +29350,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -29373,7 +29373,7 @@
         <v>0</v>
       </c>
       <c r="H853" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="854">
@@ -29384,7 +29384,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -29407,7 +29407,7 @@
         <v>0</v>
       </c>
       <c r="H854" t="n">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="855">
@@ -29418,7 +29418,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -29441,7 +29441,7 @@
         <v>0</v>
       </c>
       <c r="H855" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="856">
@@ -29452,7 +29452,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="H856" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="857">
@@ -29520,7 +29520,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -29543,7 +29543,7 @@
         <v>0</v>
       </c>
       <c r="H858" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="859">
@@ -29554,7 +29554,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="H859" t="n">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="860">
@@ -29622,7 +29622,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="H861" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="862">
@@ -29656,7 +29656,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -29679,7 +29679,7 @@
         <v>0</v>
       </c>
       <c r="H862" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="863">
@@ -29690,7 +29690,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -29713,7 +29713,7 @@
         <v>0</v>
       </c>
       <c r="H863" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="864">
@@ -29724,7 +29724,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -29747,7 +29747,7 @@
         <v>0</v>
       </c>
       <c r="H864" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="865">
@@ -29758,7 +29758,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -29781,7 +29781,7 @@
         <v>0</v>
       </c>
       <c r="H865" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="866">
@@ -29792,7 +29792,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="H866" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="867">
@@ -29826,7 +29826,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -29849,7 +29849,7 @@
         <v>0</v>
       </c>
       <c r="H867" t="n">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="868">
@@ -29894,7 +29894,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -29917,7 +29917,7 @@
         <v>0</v>
       </c>
       <c r="H869" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="870">
@@ -30098,7 +30098,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -30121,7 +30121,7 @@
         <v>0</v>
       </c>
       <c r="H875" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="876">
@@ -30302,7 +30302,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -30325,7 +30325,7 @@
         <v>0</v>
       </c>
       <c r="H881" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="882">
@@ -30336,7 +30336,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="H882" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="883">
@@ -30438,7 +30438,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -30461,7 +30461,7 @@
         <v>0</v>
       </c>
       <c r="H885" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="886">
@@ -30676,7 +30676,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -30699,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="H892" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="893">
@@ -30802,6 +30802,134 @@
       </c>
       <c r="H895" t="n">
         <v>142</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr"/>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>SÍ</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr"/>
+      <c r="E896" t="n">
+        <v>1</v>
+      </c>
+      <c r="F896" t="n">
+        <v>0</v>
+      </c>
+      <c r="G896" t="n">
+        <v>0</v>
+      </c>
+      <c r="H896" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>2024/04/19</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>Fundación para el Desarrollo de las Artes y la Cultura de la comuna de Punta Arenas</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>FU022</t>
+        </is>
+      </c>
+      <c r="E897" t="n">
+        <v>0</v>
+      </c>
+      <c r="F897" t="n">
+        <v>0</v>
+      </c>
+      <c r="G897" t="n">
+        <v>0</v>
+      </c>
+      <c r="H897" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>2024/04/16</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>Municipalidad de Santa Bárbara</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>MU304</t>
+        </is>
+      </c>
+      <c r="E898" t="n">
+        <v>0</v>
+      </c>
+      <c r="F898" t="n">
+        <v>0</v>
+      </c>
+      <c r="G898" t="n">
+        <v>0</v>
+      </c>
+      <c r="H898" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>2024/04/18</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>Corporación Cultural Municipal de La Comuna de Villarrica</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>CM098</t>
+        </is>
+      </c>
+      <c r="E899" t="n">
+        <v>0</v>
+      </c>
+      <c r="F899" t="n">
+        <v>0</v>
+      </c>
+      <c r="G899" t="n">
+        <v>0</v>
+      </c>
+      <c r="H899" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H899"/>
+  <dimension ref="A1:H902"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>3037</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="24">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>30273</v>
+        <v>30640</v>
       </c>
     </row>
     <row r="35">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>56432</v>
+        <v>57095</v>
       </c>
     </row>
     <row r="50">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024/04/14</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>6530</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="78">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>11973</v>
+        <v>12067</v>
       </c>
     </row>
     <row r="79">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/04/20</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2631</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="91">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>5772</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="112">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>4691</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="117">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>21936</v>
+        <v>21972</v>
       </c>
     </row>
     <row r="137">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>32845</v>
+        <v>33213</v>
       </c>
     </row>
     <row r="149">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>57823</v>
+        <v>56754</v>
       </c>
     </row>
     <row r="154">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/04/13</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>87986</v>
+        <v>89077</v>
       </c>
     </row>
     <row r="163">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>5716</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="184">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>9157</v>
+        <v>9269</v>
       </c>
     </row>
     <row r="189">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>8499</v>
+        <v>8589</v>
       </c>
     </row>
     <row r="277">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>400</v>
+        <v>426</v>
       </c>
     </row>
     <row r="286">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>9433</v>
+        <v>9489</v>
       </c>
     </row>
     <row r="313">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>18088</v>
+        <v>18285</v>
       </c>
     </row>
     <row r="316">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2024/03/30</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11330,7 +11330,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>24769</v>
+        <v>24842</v>
       </c>
     </row>
     <row r="324">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>38295</v>
+        <v>38757</v>
       </c>
     </row>
     <row r="337">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="339">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>3620</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="358">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>19872</v>
+        <v>19876</v>
       </c>
     </row>
     <row r="370">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/04/20</t>
+          <t>2024/04/21</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>4435</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="392">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>16579</v>
+        <v>16745</v>
       </c>
     </row>
     <row r="438">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>21532</v>
+        <v>21792</v>
       </c>
     </row>
     <row r="444">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="n">
-        <v>11224</v>
+        <v>11344</v>
       </c>
     </row>
     <row r="473">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>32148</v>
+        <v>32178</v>
       </c>
     </row>
     <row r="516">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>1692</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="538">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>3743</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="541">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>14038</v>
+        <v>14139</v>
       </c>
     </row>
     <row r="567">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>6324</v>
+        <v>6325</v>
       </c>
     </row>
     <row r="594">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>2684</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="596">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>25841</v>
+        <v>25974</v>
       </c>
     </row>
     <row r="597">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>13062</v>
+        <v>13345</v>
       </c>
     </row>
     <row r="604">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>3393</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="614">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>55228</v>
+        <v>55849</v>
       </c>
     </row>
     <row r="632">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>5225</v>
+        <v>5332</v>
       </c>
     </row>
     <row r="634">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>24390</v>
+        <v>24505</v>
       </c>
     </row>
     <row r="637">
@@ -22686,7 +22686,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -22992,7 +22992,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -23015,7 +23015,7 @@
         <v>0</v>
       </c>
       <c r="H666" t="n">
-        <v>1994</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="667">
@@ -23026,7 +23026,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -23162,7 +23162,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
       <c r="H671" t="n">
-        <v>34595</v>
+        <v>34944</v>
       </c>
     </row>
     <row r="672">
@@ -23604,7 +23604,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="H684" t="n">
-        <v>438</v>
+        <v>455</v>
       </c>
     </row>
     <row r="685">
@@ -23978,7 +23978,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -24001,7 +24001,7 @@
         <v>0</v>
       </c>
       <c r="H695" t="n">
-        <v>2470</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="696">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="H708" t="n">
-        <v>709</v>
+        <v>754</v>
       </c>
     </row>
     <row r="709">
@@ -25712,7 +25712,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -25735,7 +25735,7 @@
         <v>0</v>
       </c>
       <c r="H746" t="n">
-        <v>323</v>
+        <v>450</v>
       </c>
     </row>
     <row r="747">
@@ -25848,7 +25848,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="H750" t="n">
-        <v>1198</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="751">
@@ -25882,7 +25882,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -25905,7 +25905,7 @@
         <v>0</v>
       </c>
       <c r="H751" t="n">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="752">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -27231,7 +27231,7 @@
         <v>0</v>
       </c>
       <c r="H790" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="791">
@@ -27242,7 +27242,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -27265,7 +27265,7 @@
         <v>0</v>
       </c>
       <c r="H791" t="n">
-        <v>1349</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="792">
@@ -27786,7 +27786,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -27809,7 +27809,7 @@
         <v>0</v>
       </c>
       <c r="H807" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="808">
@@ -27990,7 +27990,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="H813" t="n">
-        <v>136</v>
+        <v>292</v>
       </c>
     </row>
     <row r="814">
@@ -29962,17 +29962,17 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>Municipalidad de Curanilahue</t>
+          <t>Hospital Regional Copiapó San José del Carmen</t>
         </is>
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>MU075</t>
+          <t>AO113</t>
         </is>
       </c>
       <c r="E871" t="n">
@@ -29985,7 +29985,7 @@
         <v>0</v>
       </c>
       <c r="H871" t="n">
-        <v>1004</v>
+        <v>139</v>
       </c>
     </row>
     <row r="872">
@@ -30001,12 +30001,12 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>Municipalidad de Vitacura</t>
+          <t>Municipalidad de Curanilahue</t>
         </is>
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>MU341</t>
+          <t>MU075</t>
         </is>
       </c>
       <c r="E872" t="n">
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="H872" t="n">
-        <v>740</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="873">
@@ -30035,12 +30035,12 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>Subsecretaría de Relaciones Económicas Internacionales</t>
+          <t>Municipalidad de Vitacura</t>
         </is>
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t>AC007</t>
+          <t>MU341</t>
         </is>
       </c>
       <c r="E873" t="n">
@@ -30053,7 +30053,7 @@
         <v>0</v>
       </c>
       <c r="H873" t="n">
-        <v>122</v>
+        <v>740</v>
       </c>
     </row>
     <row r="874">
@@ -30064,17 +30064,17 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>Municipalidad de Panquehue</t>
+          <t>Subsecretaría de Relaciones Económicas Internacionales</t>
         </is>
       </c>
       <c r="D874" t="inlineStr">
         <is>
-          <t>MU201</t>
+          <t>AC007</t>
         </is>
       </c>
       <c r="E874" t="n">
@@ -30087,7 +30087,7 @@
         <v>0</v>
       </c>
       <c r="H874" t="n">
-        <v>472</v>
+        <v>122</v>
       </c>
     </row>
     <row r="875">
@@ -30098,17 +30098,17 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Isla de Pascua</t>
+          <t>Municipalidad de Panquehue</t>
         </is>
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t>AB041</t>
+          <t>MU201</t>
         </is>
       </c>
       <c r="E875" t="n">
@@ -30121,7 +30121,7 @@
         <v>0</v>
       </c>
       <c r="H875" t="n">
-        <v>80</v>
+        <v>472</v>
       </c>
     </row>
     <row r="876">
@@ -30132,17 +30132,17 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública Licancabur</t>
+          <t>Delegación Presidencial Provincial de Isla de Pascua</t>
         </is>
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>AJ035</t>
+          <t>AB041</t>
         </is>
       </c>
       <c r="E876" t="n">
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="H876" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="877">
@@ -30171,12 +30171,12 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>Fundación de Orquestas Juveniles e Infantiles de Chile (FOJI)</t>
+          <t>Servicio Local de Educación Pública Licancabur</t>
         </is>
       </c>
       <c r="D877" t="inlineStr">
         <is>
-          <t>FU004</t>
+          <t>AJ035</t>
         </is>
       </c>
       <c r="E877" t="n">
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="H877" t="n">
-        <v>207</v>
+        <v>4</v>
       </c>
     </row>
     <row r="878">
@@ -30200,17 +30200,17 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>Corporación de desarrollo territorial de la región de Arica y Parinacota</t>
+          <t>Fundación de Orquestas Juveniles e Infantiles de Chile (FOJI)</t>
         </is>
       </c>
       <c r="D878" t="inlineStr">
         <is>
-          <t>FU023</t>
+          <t>FU004</t>
         </is>
       </c>
       <c r="E878" t="n">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>207</v>
       </c>
     </row>
     <row r="879">
@@ -30234,7 +30234,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -30257,7 +30257,7 @@
         <v>0</v>
       </c>
       <c r="H879" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="880">
@@ -30404,7 +30404,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -30427,7 +30427,7 @@
         <v>0</v>
       </c>
       <c r="H884" t="n">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="885">
@@ -30608,17 +30608,17 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública Santa Rosa</t>
+          <t>Corporación Municipal de Cultura de TilTil</t>
         </is>
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t>AJ037</t>
+          <t>CM258</t>
         </is>
       </c>
       <c r="E890" t="n">
@@ -30631,7 +30631,7 @@
         <v>0</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>161</v>
       </c>
     </row>
     <row r="891">
@@ -30647,12 +30647,12 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Asociación de Gobernadores y Gobernadoras Regionales de Chile  AGORECHI</t>
+          <t>Servicio Local de Educación Pública Santa Rosa</t>
         </is>
       </c>
       <c r="D891" t="inlineStr">
         <is>
-          <t>FU025</t>
+          <t>AJ037</t>
         </is>
       </c>
       <c r="E891" t="n">
@@ -30665,7 +30665,7 @@
         <v>0</v>
       </c>
       <c r="H891" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892">
@@ -30676,17 +30676,17 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de San Felipe</t>
+          <t>Asociación de Gobernadores y Gobernadoras Regionales de Chile  AGORECHI</t>
         </is>
       </c>
       <c r="D892" t="inlineStr">
         <is>
-          <t>AB037</t>
+          <t>FU025</t>
         </is>
       </c>
       <c r="E892" t="n">
@@ -30699,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="H892" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="893">
@@ -30710,17 +30710,17 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>Corporación de Deportes de Parral</t>
+          <t>Delegación Presidencial Provincial de San Felipe</t>
         </is>
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t>CM127</t>
+          <t>AB037</t>
         </is>
       </c>
       <c r="E893" t="n">
@@ -30733,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="H893" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="894">
@@ -30744,17 +30744,17 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Universidad de Magallanes</t>
+          <t>Corporación de Deportes de Parral</t>
         </is>
       </c>
       <c r="D894" t="inlineStr">
         <is>
-          <t>UN016</t>
+          <t>CM127</t>
         </is>
       </c>
       <c r="E894" t="n">
@@ -30767,7 +30767,7 @@
         <v>0</v>
       </c>
       <c r="H894" t="n">
-        <v>341</v>
+        <v>25</v>
       </c>
     </row>
     <row r="895">
@@ -30783,12 +30783,12 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Universidad de Atacama</t>
+          <t>Universidad de Magallanes</t>
         </is>
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t>UN004</t>
+          <t>UN016</t>
         </is>
       </c>
       <c r="E895" t="n">
@@ -30801,7 +30801,7 @@
         <v>0</v>
       </c>
       <c r="H895" t="n">
-        <v>142</v>
+        <v>341</v>
       </c>
     </row>
     <row r="896">
@@ -30810,15 +30810,23 @@
           <t>TA_PersonalContratohonorarios</t>
         </is>
       </c>
-      <c r="B896" t="inlineStr"/>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>2024/04/09</t>
+        </is>
+      </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>SÍ</t>
-        </is>
-      </c>
-      <c r="D896" t="inlineStr"/>
+          <t>Universidad de Atacama</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>UN004</t>
+        </is>
+      </c>
       <c r="E896" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F896" t="n">
         <v>0</v>
@@ -30827,7 +30835,7 @@
         <v>0</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
+        <v>142</v>
       </c>
     </row>
     <row r="897">
@@ -30836,23 +30844,15 @@
           <t>TA_PersonalContratohonorarios</t>
         </is>
       </c>
-      <c r="B897" t="inlineStr">
-        <is>
-          <t>2024/04/19</t>
-        </is>
-      </c>
+      <c r="B897" t="inlineStr"/>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Fundación para el Desarrollo de las Artes y la Cultura de la comuna de Punta Arenas</t>
-        </is>
-      </c>
-      <c r="D897" t="inlineStr">
-        <is>
-          <t>FU022</t>
-        </is>
-      </c>
+          <t>SÍ</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr"/>
       <c r="E897" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F897" t="n">
         <v>0</v>
@@ -30861,7 +30861,7 @@
         <v>0</v>
       </c>
       <c r="H897" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898">
@@ -30872,17 +30872,17 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Municipalidad de Santa Bárbara</t>
+          <t>Fundación para el Desarrollo de las Artes y la Cultura de la comuna de Punta Arenas</t>
         </is>
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t>MU304</t>
+          <t>FU022</t>
         </is>
       </c>
       <c r="E898" t="n">
@@ -30895,7 +30895,7 @@
         <v>0</v>
       </c>
       <c r="H898" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
     </row>
     <row r="899">
@@ -30906,30 +30906,132 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
+          <t>2024/04/24</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>Universidad de Santiago de Chile (USACH)</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>UN008</t>
+        </is>
+      </c>
+      <c r="E899" t="n">
+        <v>0</v>
+      </c>
+      <c r="F899" t="n">
+        <v>0</v>
+      </c>
+      <c r="G899" t="n">
+        <v>0</v>
+      </c>
+      <c r="H899" t="n">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>2024/04/25</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>Municipalidad de Santa Bárbara</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>MU304</t>
+        </is>
+      </c>
+      <c r="E900" t="n">
+        <v>0</v>
+      </c>
+      <c r="F900" t="n">
+        <v>0</v>
+      </c>
+      <c r="G900" t="n">
+        <v>0</v>
+      </c>
+      <c r="H900" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
           <t>2024/04/18</t>
         </is>
       </c>
-      <c r="C899" t="inlineStr">
+      <c r="C901" t="inlineStr">
         <is>
           <t>Corporación Cultural Municipal de La Comuna de Villarrica</t>
         </is>
       </c>
-      <c r="D899" t="inlineStr">
+      <c r="D901" t="inlineStr">
         <is>
           <t>CM098</t>
         </is>
       </c>
-      <c r="E899" t="n">
-        <v>0</v>
-      </c>
-      <c r="F899" t="n">
-        <v>0</v>
-      </c>
-      <c r="G899" t="n">
-        <v>0</v>
-      </c>
-      <c r="H899" t="n">
+      <c r="E901" t="n">
+        <v>0</v>
+      </c>
+      <c r="F901" t="n">
+        <v>0</v>
+      </c>
+      <c r="G901" t="n">
+        <v>0</v>
+      </c>
+      <c r="H901" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>2024/04/22</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>Corporación de desarrollo territorial de la región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>FU023</t>
+        </is>
+      </c>
+      <c r="E902" t="n">
+        <v>0</v>
+      </c>
+      <c r="F902" t="n">
+        <v>0</v>
+      </c>
+      <c r="G902" t="n">
+        <v>0</v>
+      </c>
+      <c r="H902" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H904"/>
+  <dimension ref="A1:H905"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,7 +416,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024/05/04</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1296</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="46">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>57788</v>
+        <v>57819</v>
       </c>
     </row>
     <row r="50">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>16352</v>
+        <v>16550</v>
       </c>
     </row>
     <row r="66">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>6603</v>
+        <v>6641</v>
       </c>
     </row>
     <row r="78">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>4795</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="81">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/08</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>18191</v>
+        <v>18332</v>
       </c>
     </row>
     <row r="87">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2648</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="91">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>21125</v>
+        <v>21305</v>
       </c>
     </row>
     <row r="92">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>1443</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="94">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>18455</v>
+        <v>18573</v>
       </c>
     </row>
     <row r="103">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>12226</v>
+        <v>12377</v>
       </c>
     </row>
     <row r="106">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>3114</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="109">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>2662</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="113">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>30534</v>
+        <v>30854</v>
       </c>
     </row>
     <row r="136">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>1202</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="146">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/05/01</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>89077</v>
+        <v>89475</v>
       </c>
     </row>
     <row r="163">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>9269</v>
+        <v>9384</v>
       </c>
     </row>
     <row r="175">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>1296</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="179">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>5783</v>
+        <v>5898</v>
       </c>
     </row>
     <row r="184">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>1205</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="188">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="200">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>76952</v>
+        <v>77704</v>
       </c>
     </row>
     <row r="210">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="211">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="214">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>25132</v>
+        <v>25144</v>
       </c>
     </row>
     <row r="216">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>16646</v>
+        <v>16728</v>
       </c>
     </row>
     <row r="227">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="243">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>11491</v>
+        <v>11577</v>
       </c>
     </row>
     <row r="246">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2024/05/25</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>24768</v>
+        <v>24769</v>
       </c>
     </row>
     <row r="259">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>17593</v>
+        <v>17776</v>
       </c>
     </row>
     <row r="291">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>2161</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="306">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>288048</v>
+        <v>288355</v>
       </c>
     </row>
     <row r="332">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="H341" t="n">
-        <v>5542</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="342">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/08</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>23638</v>
+        <v>23640</v>
       </c>
     </row>
     <row r="351">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>19218</v>
+        <v>19440</v>
       </c>
     </row>
     <row r="364">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="376">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>48288</v>
+        <v>48379</v>
       </c>
     </row>
     <row r="400">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>22737</v>
+        <v>22909</v>
       </c>
     </row>
     <row r="440">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>16716</v>
+        <v>16851</v>
       </c>
     </row>
     <row r="443">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>19619</v>
+        <v>19808</v>
       </c>
     </row>
     <row r="448">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>19218</v>
+        <v>19253</v>
       </c>
     </row>
     <row r="459">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>9741</v>
+        <v>9743</v>
       </c>
     </row>
     <row r="466">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="n">
-        <v>11433</v>
+        <v>11466</v>
       </c>
     </row>
     <row r="473">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>41620</v>
+        <v>41655</v>
       </c>
     </row>
     <row r="486">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>8881</v>
+        <v>8934</v>
       </c>
     </row>
     <row r="497">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>24553</v>
+        <v>24848</v>
       </c>
     </row>
     <row r="500">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/06/08</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="508">
@@ -17620,7 +17620,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>18704</v>
+        <v>18875</v>
       </c>
     </row>
     <row r="509">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/08</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>8786</v>
+        <v>8835</v>
       </c>
     </row>
     <row r="514">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>32221</v>
+        <v>32566</v>
       </c>
     </row>
     <row r="516">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/08</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>41357</v>
+        <v>41511</v>
       </c>
     </row>
     <row r="519">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>22952</v>
+        <v>25806</v>
       </c>
     </row>
     <row r="528">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>4839</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="531">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>13296</v>
+        <v>13419</v>
       </c>
     </row>
     <row r="537">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>3770</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="541">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>5635</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="543">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>36656</v>
+        <v>36653</v>
       </c>
     </row>
     <row r="552">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>14303</v>
+        <v>14308</v>
       </c>
     </row>
     <row r="567">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="H569" t="n">
-        <v>92129</v>
+        <v>92523</v>
       </c>
     </row>
     <row r="570">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>8584</v>
+        <v>8748</v>
       </c>
     </row>
     <row r="578">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/08</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>60861</v>
+        <v>60975</v>
       </c>
     </row>
     <row r="579">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="H608" t="n">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="609">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>7448</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="613">
@@ -21326,7 +21326,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>8783</v>
+        <v>8827</v>
       </c>
     </row>
     <row r="623">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>692</v>
+        <v>703</v>
       </c>
     </row>
     <row r="628">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>8313</v>
+        <v>8508</v>
       </c>
     </row>
     <row r="638">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>41774</v>
+        <v>41751</v>
       </c>
     </row>
     <row r="639">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -22267,7 +22267,7 @@
         <v>0</v>
       </c>
       <c r="H644" t="n">
-        <v>14099</v>
+        <v>14188</v>
       </c>
     </row>
     <row r="645">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="H651" t="n">
-        <v>121661</v>
+        <v>121292</v>
       </c>
     </row>
     <row r="652">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="H653" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="654">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -23366,7 +23366,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -23389,7 +23389,7 @@
         <v>0</v>
       </c>
       <c r="H677" t="n">
-        <v>644</v>
+        <v>660</v>
       </c>
     </row>
     <row r="678">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -23423,7 +23423,7 @@
         <v>0</v>
       </c>
       <c r="H678" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="679">
@@ -23570,7 +23570,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -24012,7 +24012,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="H708" t="n">
-        <v>818</v>
+        <v>834</v>
       </c>
     </row>
     <row r="709">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -24522,7 +24522,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -24545,7 +24545,7 @@
         <v>0</v>
       </c>
       <c r="H711" t="n">
-        <v>1445</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="712">
@@ -24760,7 +24760,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -24783,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="H718" t="n">
-        <v>819</v>
+        <v>864</v>
       </c>
     </row>
     <row r="719">
@@ -24862,7 +24862,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2024/05/19</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -24964,7 +24964,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -24987,7 +24987,7 @@
         <v>0</v>
       </c>
       <c r="H724" t="n">
-        <v>640</v>
+        <v>721</v>
       </c>
     </row>
     <row r="725">
@@ -25542,7 +25542,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -25565,7 +25565,7 @@
         <v>0</v>
       </c>
       <c r="H741" t="n">
-        <v>394</v>
+        <v>426</v>
       </c>
     </row>
     <row r="742">
@@ -25610,7 +25610,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -25950,7 +25950,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -25973,7 +25973,7 @@
         <v>0</v>
       </c>
       <c r="H753" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="754">
@@ -25984,7 +25984,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -26120,7 +26120,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>2023/03/16</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -26256,7 +26256,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -26279,7 +26279,7 @@
         <v>0</v>
       </c>
       <c r="H762" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="763">
@@ -26732,7 +26732,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -26755,7 +26755,7 @@
         <v>0</v>
       </c>
       <c r="H776" t="n">
-        <v>1728</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="777">
@@ -27582,7 +27582,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="H801" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="802">
@@ -28024,7 +28024,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -28047,7 +28047,7 @@
         <v>0</v>
       </c>
       <c r="H814" t="n">
-        <v>418</v>
+        <v>443</v>
       </c>
     </row>
     <row r="815">
@@ -28228,7 +28228,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -28262,7 +28262,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -28285,7 +28285,7 @@
         <v>0</v>
       </c>
       <c r="H821" t="n">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="822">
@@ -28330,7 +28330,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -28353,7 +28353,7 @@
         <v>0</v>
       </c>
       <c r="H823" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="824">
@@ -28398,7 +28398,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -28670,7 +28670,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -28693,7 +28693,7 @@
         <v>0</v>
       </c>
       <c r="H833" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="834">
@@ -28772,7 +28772,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -28795,7 +28795,7 @@
         <v>0</v>
       </c>
       <c r="H836" t="n">
-        <v>155</v>
+        <v>178</v>
       </c>
     </row>
     <row r="837">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -28829,7 +28829,7 @@
         <v>0</v>
       </c>
       <c r="H837" t="n">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="838">
@@ -28840,7 +28840,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="H838" t="n">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="839">
@@ -28942,7 +28942,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -29248,7 +29248,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -29282,7 +29282,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -29305,7 +29305,7 @@
         <v>0</v>
       </c>
       <c r="H851" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="852">
@@ -29350,7 +29350,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -29373,7 +29373,7 @@
         <v>0</v>
       </c>
       <c r="H853" t="n">
-        <v>133</v>
+        <v>154</v>
       </c>
     </row>
     <row r="854">
@@ -29520,7 +29520,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -29543,7 +29543,7 @@
         <v>0</v>
       </c>
       <c r="H858" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="859">
@@ -29690,7 +29690,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -29713,7 +29713,7 @@
         <v>0</v>
       </c>
       <c r="H863" t="n">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="864">
@@ -29724,7 +29724,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -29894,7 +29894,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -29917,7 +29917,7 @@
         <v>0</v>
       </c>
       <c r="H869" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="870">
@@ -29928,7 +29928,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -29951,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="H870" t="n">
-        <v>1964</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="871">
@@ -30064,7 +30064,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -30166,7 +30166,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -30268,7 +30268,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="H880" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="881">
@@ -30744,7 +30744,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -30767,7 +30767,7 @@
         <v>0</v>
       </c>
       <c r="H894" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="895">
@@ -31008,7 +31008,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -31031,7 +31031,7 @@
         <v>0</v>
       </c>
       <c r="H902" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="903">
@@ -31100,6 +31100,40 @@
       </c>
       <c r="H904" t="n">
         <v>54</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>2024/06/07</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Fomento al Desarrollo Comunal y Productivo de Parral</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>CM220</t>
+        </is>
+      </c>
+      <c r="E905" t="n">
+        <v>0</v>
+      </c>
+      <c r="F905" t="n">
+        <v>0</v>
+      </c>
+      <c r="G905" t="n">
+        <v>0</v>
+      </c>
+      <c r="H905" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="25">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>14677</v>
+        <v>15033</v>
       </c>
     </row>
     <row r="38">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>16773</v>
+        <v>16777</v>
       </c>
     </row>
     <row r="49">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>12963</v>
+        <v>13112</v>
       </c>
     </row>
     <row r="56">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>19772</v>
+        <v>20149</v>
       </c>
     </row>
     <row r="61">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>2859</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="73">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>4867</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="81">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>7633</v>
+        <v>7649</v>
       </c>
     </row>
     <row r="84">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1134</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="99">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>40134</v>
+        <v>40307</v>
       </c>
     </row>
     <row r="128">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>22077</v>
+        <v>22109</v>
       </c>
     </row>
     <row r="137">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>41312</v>
+        <v>41625</v>
       </c>
     </row>
     <row r="150">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>1759</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="160">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>88666</v>
+        <v>88735</v>
       </c>
     </row>
     <row r="197">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>6795</v>
+        <v>6926</v>
       </c>
     </row>
     <row r="205">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>12481</v>
+        <v>12777</v>
       </c>
     </row>
     <row r="215">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>25414</v>
+        <v>25290</v>
       </c>
     </row>
     <row r="216">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>56350</v>
+        <v>55953</v>
       </c>
     </row>
     <row r="220">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>14935</v>
+        <v>15120</v>
       </c>
     </row>
     <row r="223">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>4191</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="228">
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>8363</v>
+        <v>8364</v>
       </c>
     </row>
     <row r="236">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>6646</v>
+        <v>6744</v>
       </c>
     </row>
     <row r="250">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>471</v>
+        <v>504</v>
       </c>
     </row>
     <row r="255">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>9745</v>
+        <v>9738</v>
       </c>
     </row>
     <row r="256">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="258">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="266">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>6208</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="270">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>1791</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="295">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>18452</v>
+        <v>18454</v>
       </c>
     </row>
     <row r="316">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>5830</v>
+        <v>5862</v>
       </c>
     </row>
     <row r="323">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>8047</v>
+        <v>8049</v>
       </c>
     </row>
     <row r="349">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>15853</v>
+        <v>15919</v>
       </c>
     </row>
     <row r="381">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>15190</v>
+        <v>15208</v>
       </c>
     </row>
     <row r="397">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>8983</v>
+        <v>8991</v>
       </c>
     </row>
     <row r="402">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="465">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="467">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="n">
-        <v>11522</v>
+        <v>11605</v>
       </c>
     </row>
     <row r="473">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="476">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>41897</v>
+        <v>41953</v>
       </c>
     </row>
     <row r="486">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>8359</v>
+        <v>8460</v>
       </c>
     </row>
     <row r="491">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17246,7 +17246,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>35564</v>
+        <v>35650</v>
       </c>
     </row>
     <row r="498">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>7739</v>
+        <v>7803</v>
       </c>
     </row>
     <row r="501">
@@ -17450,7 +17450,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>51471</v>
+        <v>52069</v>
       </c>
     </row>
     <row r="504">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>14323</v>
+        <v>14561</v>
       </c>
     </row>
     <row r="511">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>73410</v>
+        <v>74457</v>
       </c>
     </row>
     <row r="553">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>8096</v>
+        <v>8194</v>
       </c>
     </row>
     <row r="554">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/06/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>17754</v>
+        <v>17753</v>
       </c>
     </row>
     <row r="581">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21145,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="H611" t="n">
-        <v>18806</v>
+        <v>18878</v>
       </c>
     </row>
     <row r="612">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="627">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>11565</v>
+        <v>11725</v>
       </c>
     </row>
     <row r="629">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>41751</v>
+        <v>42167</v>
       </c>
     </row>
     <row r="639">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>64205</v>
+        <v>65048</v>
       </c>
     </row>
     <row r="640">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="H652" t="n">
-        <v>28756</v>
+        <v>29402</v>
       </c>
     </row>
     <row r="653">
@@ -23094,7 +23094,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -23117,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="H669" t="n">
-        <v>7091</v>
+        <v>7145</v>
       </c>
     </row>
     <row r="670">
@@ -23162,7 +23162,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
       <c r="H671" t="n">
-        <v>35393</v>
+        <v>35784</v>
       </c>
     </row>
     <row r="672">
@@ -23196,7 +23196,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -23219,7 +23219,7 @@
         <v>0</v>
       </c>
       <c r="H672" t="n">
-        <v>1914</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="673">
@@ -26494,7 +26494,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -26517,7 +26517,7 @@
         <v>0</v>
       </c>
       <c r="H769" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="770">
@@ -26630,7 +26630,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -26653,7 +26653,7 @@
         <v>0</v>
       </c>
       <c r="H773" t="n">
-        <v>3891</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="774">
@@ -27446,7 +27446,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="H797" t="n">
-        <v>695</v>
+        <v>758</v>
       </c>
     </row>
     <row r="798">
@@ -27514,7 +27514,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="H799" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="800">
@@ -27718,7 +27718,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -28738,7 +28738,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="H835" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="836">
@@ -28874,7 +28874,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -28897,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="H839" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="840">
@@ -29860,7 +29860,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -29883,7 +29883,7 @@
         <v>0</v>
       </c>
       <c r="H868" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="869">
@@ -30940,7 +30940,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -30963,7 +30963,7 @@
         <v>0</v>
       </c>
       <c r="H900" t="n">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="901">

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H905"/>
+  <dimension ref="A1:H906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,7 +756,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>3170</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="24">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>9773</v>
+        <v>9882</v>
       </c>
     </row>
     <row r="68">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/06/02</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2659</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="91">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>33368</v>
+        <v>33500</v>
       </c>
     </row>
     <row r="124">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/06/15</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>9281</v>
+        <v>9390</v>
       </c>
     </row>
     <row r="133">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>9547</v>
+        <v>9830</v>
       </c>
     </row>
     <row r="189">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>88735</v>
+        <v>88931</v>
       </c>
     </row>
     <row r="197">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>6926</v>
+        <v>7014</v>
       </c>
     </row>
     <row r="205">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="224">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>22063</v>
+        <v>22115</v>
       </c>
     </row>
     <row r="229">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="231">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>51845</v>
+        <v>52211</v>
       </c>
     </row>
     <row r="252">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>24917</v>
+        <v>25101</v>
       </c>
     </row>
     <row r="259">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>28291</v>
+        <v>28295</v>
       </c>
     </row>
     <row r="264">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>6232</v>
+        <v>6306</v>
       </c>
     </row>
     <row r="270">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>1458</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="293">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>18454</v>
+        <v>18533</v>
       </c>
     </row>
     <row r="316">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>5823</v>
+        <v>5902</v>
       </c>
     </row>
     <row r="317">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>20066</v>
+        <v>20087</v>
       </c>
     </row>
     <row r="370">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>10012</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="371">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="382">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>23655</v>
+        <v>24716</v>
       </c>
     </row>
     <row r="385">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/22</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>4593</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="392">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>48379</v>
+        <v>48548</v>
       </c>
     </row>
     <row r="400">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>30230</v>
+        <v>30323</v>
       </c>
     </row>
     <row r="415">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>18691</v>
+        <v>18700</v>
       </c>
     </row>
     <row r="417">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="n">
-        <v>10532</v>
+        <v>10640</v>
       </c>
     </row>
     <row r="421">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>18794</v>
+        <v>19125</v>
       </c>
     </row>
     <row r="432">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>23169</v>
+        <v>23129</v>
       </c>
     </row>
     <row r="440">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>25152</v>
+        <v>25384</v>
       </c>
     </row>
     <row r="449">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="n">
-        <v>33908</v>
+        <v>34111</v>
       </c>
     </row>
     <row r="455">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>5709</v>
+        <v>5766</v>
       </c>
     </row>
     <row r="461">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>9013</v>
+        <v>9018</v>
       </c>
     </row>
     <row r="497">
@@ -17620,7 +17620,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>18968</v>
+        <v>19331</v>
       </c>
     </row>
     <row r="509">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>7753</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="522">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="n">
-        <v>5001</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="531">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>13448</v>
+        <v>13463</v>
       </c>
     </row>
     <row r="537">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>101786</v>
+        <v>102025</v>
       </c>
     </row>
     <row r="544">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>25101</v>
+        <v>25356</v>
       </c>
     </row>
     <row r="549">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>37107</v>
+        <v>37167</v>
       </c>
     </row>
     <row r="552">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>12767</v>
+        <v>12784</v>
       </c>
     </row>
     <row r="557">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>13048</v>
+        <v>13155</v>
       </c>
     </row>
     <row r="569">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/06/15</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>8846</v>
+        <v>8919</v>
       </c>
     </row>
     <row r="571">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>38875</v>
+        <v>38902</v>
       </c>
     </row>
     <row r="572">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>61404</v>
+        <v>61403</v>
       </c>
     </row>
     <row r="579">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
     <row r="590">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>41487</v>
+        <v>41799</v>
       </c>
     </row>
     <row r="593">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>26327</v>
+        <v>26681</v>
       </c>
     </row>
     <row r="597">
@@ -20646,7 +20646,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="598">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>16633</v>
+        <v>16787</v>
       </c>
     </row>
     <row r="608">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>5927</v>
+        <v>5951</v>
       </c>
     </row>
     <row r="621">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>11725</v>
+        <v>11867</v>
       </c>
     </row>
     <row r="629">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>42167</v>
+        <v>42094</v>
       </c>
     </row>
     <row r="639">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -22131,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="H640" t="n">
-        <v>38770</v>
+        <v>38781</v>
       </c>
     </row>
     <row r="641">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>26704</v>
+        <v>26780</v>
       </c>
     </row>
     <row r="646">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="H651" t="n">
-        <v>121292</v>
+        <v>122965</v>
       </c>
     </row>
     <row r="652">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22686,7 +22686,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -22709,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="H657" t="n">
-        <v>15984</v>
+        <v>16019</v>
       </c>
     </row>
     <row r="658">
@@ -23026,7 +23026,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -23604,7 +23604,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="H684" t="n">
-        <v>472</v>
+        <v>490</v>
       </c>
     </row>
     <row r="685">
@@ -25202,7 +25202,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -25225,7 +25225,7 @@
         <v>0</v>
       </c>
       <c r="H731" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="732">
@@ -25338,7 +25338,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/06/22</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -25361,7 +25361,7 @@
         <v>0</v>
       </c>
       <c r="H735" t="n">
-        <v>1727</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="736">
@@ -25474,7 +25474,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -25497,7 +25497,7 @@
         <v>0</v>
       </c>
       <c r="H739" t="n">
-        <v>1555</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="740">
@@ -26392,7 +26392,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -26415,7 +26415,7 @@
         <v>0</v>
       </c>
       <c r="H766" t="n">
-        <v>2620</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="767">
@@ -26596,7 +26596,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -26619,7 +26619,7 @@
         <v>0</v>
       </c>
       <c r="H772" t="n">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="773">
@@ -26698,7 +26698,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="H775" t="n">
-        <v>1149</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="776">
@@ -26970,7 +26970,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="H783" t="n">
-        <v>7225</v>
+        <v>7249</v>
       </c>
     </row>
     <row r="784">
@@ -29112,7 +29112,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="H846" t="n">
-        <v>281</v>
+        <v>321</v>
       </c>
     </row>
     <row r="847">
@@ -29928,7 +29928,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -30608,7 +30608,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -30631,7 +30631,7 @@
         <v>0</v>
       </c>
       <c r="H890" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="891">
@@ -31134,6 +31134,40 @@
       </c>
       <c r="H905" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>2024/06/18</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Corporación Teatro Regional Del Biobío</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>FU027</t>
+        </is>
+      </c>
+      <c r="E906" t="n">
+        <v>0</v>
+      </c>
+      <c r="F906" t="n">
+        <v>0</v>
+      </c>
+      <c r="G906" t="n">
+        <v>0</v>
+      </c>
+      <c r="H906" t="n">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H906"/>
+  <dimension ref="A1:H907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>20149</v>
+        <v>19923</v>
       </c>
     </row>
     <row r="61">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>2919</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="73">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>18325</v>
+        <v>18514</v>
       </c>
     </row>
     <row r="77">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>12067</v>
+        <v>12171</v>
       </c>
     </row>
     <row r="79">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>9985</v>
+        <v>10094</v>
       </c>
     </row>
     <row r="82">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024/06/08</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>18332</v>
+        <v>18428</v>
       </c>
     </row>
     <row r="87">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2666</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="91">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>3123</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="109">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>6696</v>
+        <v>6740</v>
       </c>
     </row>
     <row r="111">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>6057</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="112">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/06/09</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>33996</v>
+        <v>34622</v>
       </c>
     </row>
     <row r="149">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="204">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>8485</v>
+        <v>8595</v>
       </c>
     </row>
     <row r="232">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>8695</v>
+        <v>8813</v>
       </c>
     </row>
     <row r="277">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>21774</v>
+        <v>22851</v>
       </c>
     </row>
     <row r="278">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>7494</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="292">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="295">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>17341</v>
+        <v>17531</v>
       </c>
     </row>
     <row r="326">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>39209</v>
+        <v>39676</v>
       </c>
     </row>
     <row r="337">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>8049</v>
+        <v>8111</v>
       </c>
     </row>
     <row r="349">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>472</v>
+        <v>792</v>
       </c>
     </row>
     <row r="363">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>19709</v>
+        <v>19965</v>
       </c>
     </row>
     <row r="364">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>8514</v>
+        <v>8523</v>
       </c>
     </row>
     <row r="368">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>6575</v>
+        <v>6693</v>
       </c>
     </row>
     <row r="379">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>31054</v>
+        <v>31139</v>
       </c>
     </row>
     <row r="403">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>18700</v>
+        <v>18938</v>
       </c>
     </row>
     <row r="417">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>19125</v>
+        <v>19300</v>
       </c>
     </row>
     <row r="432">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>16851</v>
+        <v>17172</v>
       </c>
     </row>
     <row r="443">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>19717</v>
+        <v>19751</v>
       </c>
     </row>
     <row r="457">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/29</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>19819</v>
+        <v>19995</v>
       </c>
     </row>
     <row r="487">
@@ -17280,7 +17280,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="n">
-        <v>28485</v>
+        <v>28556</v>
       </c>
     </row>
     <row r="499">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>14561</v>
+        <v>14581</v>
       </c>
     </row>
     <row r="511">
@@ -17722,7 +17722,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>4442</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="515">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>32603</v>
+        <v>32976</v>
       </c>
     </row>
     <row r="516">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="n">
-        <v>11727</v>
+        <v>11728</v>
       </c>
     </row>
     <row r="518">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>25806</v>
+        <v>26394</v>
       </c>
     </row>
     <row r="528">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>1839</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="538">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>12784</v>
+        <v>12884</v>
       </c>
     </row>
     <row r="557">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>13160</v>
+        <v>13171</v>
       </c>
     </row>
     <row r="559">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="n">
-        <v>17565</v>
+        <v>18017</v>
       </c>
     </row>
     <row r="573">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>16603</v>
+        <v>16627</v>
       </c>
     </row>
     <row r="602">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>13475</v>
+        <v>13528</v>
       </c>
     </row>
     <row r="604">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>8833</v>
+        <v>8870</v>
       </c>
     </row>
     <row r="623">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>24334</v>
+        <v>24477</v>
       </c>
     </row>
     <row r="631">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>24661</v>
+        <v>24804</v>
       </c>
     </row>
     <row r="637">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -22131,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="H640" t="n">
-        <v>38781</v>
+        <v>38814</v>
       </c>
     </row>
     <row r="641">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>26780</v>
+        <v>26929</v>
       </c>
     </row>
     <row r="646">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -23162,7 +23162,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -23332,7 +23332,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -23355,7 +23355,7 @@
         <v>0</v>
       </c>
       <c r="H676" t="n">
-        <v>7768</v>
+        <v>7811</v>
       </c>
     </row>
     <row r="677">
@@ -23706,7 +23706,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -23729,7 +23729,7 @@
         <v>0</v>
       </c>
       <c r="H687" t="n">
-        <v>3766</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="688">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="H707" t="n">
-        <v>181</v>
+        <v>206</v>
       </c>
     </row>
     <row r="708">
@@ -24556,7 +24556,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -24828,7 +24828,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -24851,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="H720" t="n">
-        <v>183</v>
+        <v>209</v>
       </c>
     </row>
     <row r="721">
@@ -24964,7 +24964,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -24987,7 +24987,7 @@
         <v>0</v>
       </c>
       <c r="H724" t="n">
-        <v>721</v>
+        <v>756</v>
       </c>
     </row>
     <row r="725">
@@ -25474,7 +25474,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -25610,7 +25610,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="H743" t="n">
-        <v>4006</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="744">
@@ -26834,7 +26834,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -26857,7 +26857,7 @@
         <v>0</v>
       </c>
       <c r="H779" t="n">
-        <v>7763</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="780">
@@ -26868,7 +26868,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -26891,7 +26891,7 @@
         <v>0</v>
       </c>
       <c r="H780" t="n">
-        <v>7281</v>
+        <v>8468</v>
       </c>
     </row>
     <row r="781">
@@ -27072,7 +27072,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -27095,7 +27095,7 @@
         <v>0</v>
       </c>
       <c r="H786" t="n">
-        <v>4896</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="787">
@@ -28432,7 +28432,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -28455,7 +28455,7 @@
         <v>0</v>
       </c>
       <c r="H826" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="827">
@@ -30234,7 +30234,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -30257,7 +30257,7 @@
         <v>0</v>
       </c>
       <c r="H879" t="n">
-        <v>354</v>
+        <v>518</v>
       </c>
     </row>
     <row r="880">
@@ -30370,7 +30370,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -30393,7 +30393,7 @@
         <v>0</v>
       </c>
       <c r="H883" t="n">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="884">
@@ -30676,7 +30676,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -30699,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="H892" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="893">
@@ -30744,7 +30744,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -30974,7 +30974,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -30997,7 +30997,7 @@
         <v>0</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="902">
@@ -31168,6 +31168,40 @@
       </c>
       <c r="H906" t="n">
         <v>244</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>2024/06/28</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>Fundación Cultural de la municipalidad de Tocopilla</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>FM004</t>
+        </is>
+      </c>
+      <c r="E907" t="n">
+        <v>0</v>
+      </c>
+      <c r="F907" t="n">
+        <v>0</v>
+      </c>
+      <c r="G907" t="n">
+        <v>0</v>
+      </c>
+      <c r="H907" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -416,7 +416,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>268</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>2047</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="61">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/08/03</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>487</v>
+        <v>509</v>
       </c>
     </row>
     <row r="68">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1209</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="72">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>7523</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="83">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/03</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>89475</v>
+        <v>91283</v>
       </c>
     </row>
     <row r="90">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>5375</v>
+        <v>5376</v>
       </c>
     </row>
     <row r="194">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>102025</v>
+        <v>102314</v>
       </c>
     </row>
     <row r="222">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="427">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>2786</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="442">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2023/06/07</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="459">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>490</v>
+        <v>506</v>
       </c>
     </row>
     <row r="466">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="H469" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="470">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>870</v>
+        <v>915</v>
       </c>
     </row>
     <row r="479">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>1570</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="483">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="491">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="581">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="583">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2024/06/26</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="590">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21145,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="H611" t="n">
-        <v>13614</v>
+        <v>13628</v>
       </c>
     </row>
     <row r="612">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>13451</v>
+        <v>13454</v>
       </c>
     </row>
     <row r="624">
@@ -22346,7 +22346,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -22380,7 +22380,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -22403,7 +22403,7 @@
         <v>0</v>
       </c>
       <c r="H648" t="n">
-        <v>38357</v>
+        <v>39086</v>
       </c>
     </row>
     <row r="649">
@@ -22720,7 +22720,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -22743,7 +22743,7 @@
         <v>0</v>
       </c>
       <c r="H658" t="n">
-        <v>17056</v>
+        <v>17069</v>
       </c>
     </row>
     <row r="659">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="H664" t="n">
-        <v>19899</v>
+        <v>20237</v>
       </c>
     </row>
     <row r="665">
@@ -23060,7 +23060,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -23151,7 +23151,7 @@
         <v>0</v>
       </c>
       <c r="H670" t="n">
-        <v>7811</v>
+        <v>7945</v>
       </c>
     </row>
     <row r="671">
@@ -23298,7 +23298,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -23536,7 +23536,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2024/06/26</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -23559,7 +23559,7 @@
         <v>0</v>
       </c>
       <c r="H682" t="n">
-        <v>18017</v>
+        <v>18174</v>
       </c>
     </row>
     <row r="683">
@@ -23570,7 +23570,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -23593,7 +23593,7 @@
         <v>0</v>
       </c>
       <c r="H683" t="n">
-        <v>18620</v>
+        <v>18739</v>
       </c>
     </row>
     <row r="684">
@@ -23706,7 +23706,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -23729,7 +23729,7 @@
         <v>0</v>
       </c>
       <c r="H687" t="n">
-        <v>6217</v>
+        <v>7017</v>
       </c>
     </row>
     <row r="688">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -24318,7 +24318,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="H707" t="n">
-        <v>1364</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="708">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -24760,7 +24760,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -25100,7 +25100,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -25168,7 +25168,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -25191,7 +25191,7 @@
         <v>0</v>
       </c>
       <c r="H730" t="n">
-        <v>17238</v>
+        <v>17470</v>
       </c>
     </row>
     <row r="731">
@@ -25304,7 +25304,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H734" t="n">
-        <v>42498</v>
+        <v>42851</v>
       </c>
     </row>
     <row r="735">
@@ -25542,7 +25542,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -26358,7 +26358,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -26460,7 +26460,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -26630,7 +26630,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -27038,7 +27038,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>2024/06/30</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -27061,7 +27061,7 @@
         <v>0</v>
       </c>
       <c r="H785" t="n">
-        <v>1456</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="786">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -27231,7 +27231,7 @@
         <v>0</v>
       </c>
       <c r="H790" t="n">
-        <v>9015</v>
+        <v>9071</v>
       </c>
     </row>
     <row r="791">
@@ -27310,7 +27310,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -27333,7 +27333,7 @@
         <v>0</v>
       </c>
       <c r="H793" t="n">
-        <v>7095</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="794">
@@ -27480,7 +27480,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2024/06/24</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="H798" t="n">
-        <v>19300</v>
+        <v>19590</v>
       </c>
     </row>
     <row r="799">
@@ -27582,7 +27582,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -27888,7 +27888,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -27911,7 +27911,7 @@
         <v>0</v>
       </c>
       <c r="H810" t="n">
-        <v>13261</v>
+        <v>13382</v>
       </c>
     </row>
     <row r="811">
@@ -28228,7 +28228,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="H820" t="n">
-        <v>5188</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="821">
@@ -28262,7 +28262,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -28285,7 +28285,7 @@
         <v>0</v>
       </c>
       <c r="H821" t="n">
-        <v>3183</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="822">
@@ -28432,7 +28432,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -28455,7 +28455,7 @@
         <v>0</v>
       </c>
       <c r="H826" t="n">
-        <v>11729</v>
+        <v>11762</v>
       </c>
     </row>
     <row r="827">
@@ -28466,7 +28466,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -28738,7 +28738,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -29010,7 +29010,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -29112,7 +29112,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="H846" t="n">
-        <v>42519</v>
+        <v>42579</v>
       </c>
     </row>
     <row r="847">
@@ -30234,7 +30234,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -30257,7 +30257,7 @@
         <v>0</v>
       </c>
       <c r="H879" t="n">
-        <v>11867</v>
+        <v>12097</v>
       </c>
     </row>
     <row r="880">

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -416,7 +416,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6574</v>
+        <v>6674</v>
       </c>
     </row>
     <row r="3">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/21</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>92390</v>
+        <v>94167</v>
       </c>
     </row>
     <row r="90">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>678</v>
+        <v>685</v>
       </c>
     </row>
     <row r="149">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="151">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>9069</v>
+        <v>9110</v>
       </c>
     </row>
     <row r="219">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>5929</v>
+        <v>5964</v>
       </c>
     </row>
     <row r="225">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>15766</v>
+        <v>16064</v>
       </c>
     </row>
     <row r="248">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>16076</v>
+        <v>16181</v>
       </c>
     </row>
     <row r="249">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>57576</v>
+        <v>58242</v>
       </c>
     </row>
     <row r="278">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="n">
-        <v>40387</v>
+        <v>40428</v>
       </c>
     </row>
     <row r="284">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>30471</v>
+        <v>30927</v>
       </c>
     </row>
     <row r="291">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>27789</v>
+        <v>27893</v>
       </c>
     </row>
     <row r="314">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="351">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>5185</v>
+        <v>5371</v>
       </c>
     </row>
     <row r="375">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>7911</v>
+        <v>7996</v>
       </c>
     </row>
     <row r="400">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/08/26</t>
+          <t>2024/09/21</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>1088</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="408">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14345,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>14852</v>
+        <v>14972</v>
       </c>
     </row>
     <row r="412">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="422">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>783</v>
+        <v>822</v>
       </c>
     </row>
     <row r="449">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="456">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="459">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>367</v>
+        <v>428</v>
       </c>
     </row>
     <row r="491">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="501">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="545">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="549">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="577">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/08/18</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="589">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="H610" t="n">
-        <v>13382</v>
+        <v>13503</v>
       </c>
     </row>
     <row r="611">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>10060</v>
+        <v>10141</v>
       </c>
     </row>
     <row r="628">
@@ -21938,7 +21938,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>21250</v>
+        <v>21507</v>
       </c>
     </row>
     <row r="637">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="H646" t="n">
-        <v>8646</v>
+        <v>8652</v>
       </c>
     </row>
     <row r="647">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="H652" t="n">
-        <v>68622</v>
+        <v>68861</v>
       </c>
     </row>
     <row r="653">
@@ -23026,7 +23026,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -23049,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="H667" t="n">
-        <v>10464</v>
+        <v>10484</v>
       </c>
     </row>
     <row r="668">
@@ -23196,7 +23196,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -23219,7 +23219,7 @@
         <v>0</v>
       </c>
       <c r="H672" t="n">
-        <v>30625</v>
+        <v>31173</v>
       </c>
     </row>
     <row r="673">
@@ -23298,7 +23298,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="H675" t="n">
-        <v>30918</v>
+        <v>31700</v>
       </c>
     </row>
     <row r="676">
@@ -23910,7 +23910,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -23933,7 +23933,7 @@
         <v>0</v>
       </c>
       <c r="H693" t="n">
-        <v>7158</v>
+        <v>7225</v>
       </c>
     </row>
     <row r="694">
@@ -23978,7 +23978,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -24046,7 +24046,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -24250,7 +24250,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -24273,7 +24273,7 @@
         <v>0</v>
       </c>
       <c r="H703" t="n">
-        <v>9124</v>
+        <v>9126</v>
       </c>
     </row>
     <row r="704">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="H707" t="n">
-        <v>90455</v>
+        <v>90522</v>
       </c>
     </row>
     <row r="708">
@@ -24590,7 +24590,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="H713" t="n">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="714">
@@ -24760,7 +24760,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -24783,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="H718" t="n">
-        <v>27043</v>
+        <v>27145</v>
       </c>
     </row>
     <row r="719">
@@ -24930,7 +24930,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -25168,7 +25168,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -25191,7 +25191,7 @@
         <v>0</v>
       </c>
       <c r="H730" t="n">
-        <v>22318</v>
+        <v>22704</v>
       </c>
     </row>
     <row r="731">
@@ -25270,7 +25270,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -25293,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="H733" t="n">
-        <v>95172</v>
+        <v>95640</v>
       </c>
     </row>
     <row r="734">
@@ -25474,7 +25474,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -25497,7 +25497,7 @@
         <v>0</v>
       </c>
       <c r="H739" t="n">
-        <v>14068</v>
+        <v>14092</v>
       </c>
     </row>
     <row r="740">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -25712,7 +25712,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -25735,7 +25735,7 @@
         <v>0</v>
       </c>
       <c r="H746" t="n">
-        <v>7941</v>
+        <v>8014</v>
       </c>
     </row>
     <row r="747">
@@ -25848,7 +25848,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="H750" t="n">
-        <v>21331</v>
+        <v>21335</v>
       </c>
     </row>
     <row r="751">
@@ -26052,7 +26052,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -26075,7 +26075,7 @@
         <v>0</v>
       </c>
       <c r="H756" t="n">
-        <v>3564</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="757">
@@ -26358,7 +26358,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H765" t="n">
-        <v>3939</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="766">
@@ -26528,7 +26528,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -26551,7 +26551,7 @@
         <v>0</v>
       </c>
       <c r="H770" t="n">
-        <v>77974</v>
+        <v>78012</v>
       </c>
     </row>
     <row r="771">
@@ -26800,7 +26800,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -26823,7 +26823,7 @@
         <v>0</v>
       </c>
       <c r="H778" t="n">
-        <v>901</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="779">
@@ -27072,7 +27072,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -27095,7 +27095,7 @@
         <v>0</v>
       </c>
       <c r="H786" t="n">
-        <v>10257</v>
+        <v>10467</v>
       </c>
     </row>
     <row r="787">
@@ -27242,7 +27242,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -27378,7 +27378,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>2024/09/15</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -27401,7 +27401,7 @@
         <v>0</v>
       </c>
       <c r="H795" t="n">
-        <v>7703</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="796">
@@ -27412,7 +27412,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>2024/08/26</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -27514,7 +27514,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="H799" t="n">
-        <v>17668</v>
+        <v>17854</v>
       </c>
     </row>
     <row r="800">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -27571,7 +27571,7 @@
         <v>0</v>
       </c>
       <c r="H800" t="n">
-        <v>7174</v>
+        <v>7253</v>
       </c>
     </row>
     <row r="801">
@@ -27582,7 +27582,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -28194,7 +28194,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="H819" t="n">
-        <v>9659</v>
+        <v>9693</v>
       </c>
     </row>
     <row r="820">
@@ -28466,7 +28466,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -28489,7 +28489,7 @@
         <v>0</v>
       </c>
       <c r="H827" t="n">
-        <v>59712</v>
+        <v>60384</v>
       </c>
     </row>
     <row r="828">
@@ -28602,7 +28602,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -28625,7 +28625,7 @@
         <v>0</v>
       </c>
       <c r="H831" t="n">
-        <v>9066</v>
+        <v>9189</v>
       </c>
     </row>
     <row r="832">
@@ -28738,7 +28738,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="H835" t="n">
-        <v>3178</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="836">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -28829,7 +28829,7 @@
         <v>0</v>
       </c>
       <c r="H837" t="n">
-        <v>17419</v>
+        <v>17813</v>
       </c>
     </row>
     <row r="838">
@@ -29010,7 +29010,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -29033,7 +29033,7 @@
         <v>0</v>
       </c>
       <c r="H843" t="n">
-        <v>19885</v>
+        <v>19994</v>
       </c>
     </row>
     <row r="844">
@@ -29044,7 +29044,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -29067,7 +29067,7 @@
         <v>0</v>
       </c>
       <c r="H844" t="n">
-        <v>6540</v>
+        <v>6655</v>
       </c>
     </row>
     <row r="845">
@@ -29384,7 +29384,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -29407,7 +29407,7 @@
         <v>0</v>
       </c>
       <c r="H854" t="n">
-        <v>43715</v>
+        <v>44044</v>
       </c>
     </row>
     <row r="855">
@@ -29792,7 +29792,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="H866" t="n">
-        <v>26190</v>
+        <v>26444</v>
       </c>
     </row>
     <row r="867">
@@ -29917,7 +29917,7 @@
         <v>0</v>
       </c>
       <c r="H869" t="n">
-        <v>10094</v>
+        <v>10185</v>
       </c>
     </row>
     <row r="870">
@@ -30132,7 +30132,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -31254,7 +31254,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
@@ -31277,7 +31277,7 @@
         <v>0</v>
       </c>
       <c r="H909" t="n">
-        <v>12442</v>
+        <v>12519</v>
       </c>
     </row>
     <row r="910">

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -790,7 +790,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14">
@@ -926,7 +926,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>401</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>316</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>2086</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="61">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>15692</v>
+        <v>15793</v>
       </c>
     </row>
     <row r="77">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="120">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>2011</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="131">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>13751</v>
+        <v>13797</v>
       </c>
     </row>
     <row r="177">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>5840</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="185">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>1918</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="193">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="203">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>9110</v>
+        <v>9153</v>
       </c>
     </row>
     <row r="219">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>102869</v>
+        <v>103156</v>
       </c>
     </row>
     <row r="223">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>5964</v>
+        <v>5997</v>
       </c>
     </row>
     <row r="225">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>25277</v>
+        <v>25448</v>
       </c>
     </row>
     <row r="231">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>34947</v>
+        <v>35136</v>
       </c>
     </row>
     <row r="241">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="253">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>19102</v>
+        <v>19172</v>
       </c>
     </row>
     <row r="270">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>6619</v>
+        <v>6637</v>
       </c>
     </row>
     <row r="273">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>79913</v>
+        <v>80319</v>
       </c>
     </row>
     <row r="282">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>33980</v>
+        <v>34082</v>
       </c>
     </row>
     <row r="286">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/09/15</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>26429</v>
+        <v>26476</v>
       </c>
     </row>
     <row r="303">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>19392</v>
+        <v>19802</v>
       </c>
     </row>
     <row r="309">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>8570</v>
+        <v>8705</v>
       </c>
     </row>
     <row r="310">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>27893</v>
+        <v>27997</v>
       </c>
     </row>
     <row r="314">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>35896</v>
+        <v>35976</v>
       </c>
     </row>
     <row r="321">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>7833</v>
+        <v>7837</v>
       </c>
     </row>
     <row r="323">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="H332" t="n">
-        <v>14186</v>
+        <v>14415</v>
       </c>
     </row>
     <row r="333">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="n">
-        <v>2651</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="338">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="n">
-        <v>75005</v>
+        <v>75507</v>
       </c>
     </row>
     <row r="339">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>4280</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="364">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>3501</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="366">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>9912</v>
+        <v>10087</v>
       </c>
     </row>
     <row r="377">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>19018</v>
+        <v>19019</v>
       </c>
     </row>
     <row r="382">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>7996</v>
+        <v>8074</v>
       </c>
     </row>
     <row r="400">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>24358</v>
+        <v>24594</v>
       </c>
     </row>
     <row r="401">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>114597</v>
+        <v>114593</v>
       </c>
     </row>
     <row r="404">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>41502</v>
+        <v>41532</v>
       </c>
     </row>
     <row r="405">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14141,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="n">
-        <v>6684</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="406">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="418">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>4993</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="425">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2024/06/24</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="446">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="457">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/09/22</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>787</v>
+        <v>872</v>
       </c>
     </row>
     <row r="467">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>538</v>
+        <v>555</v>
       </c>
     </row>
     <row r="469">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="480">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>1781</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="486">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>3654</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="489">
@@ -17042,7 +17042,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -17065,7 +17065,7 @@
         <v>0</v>
       </c>
       <c r="H491" t="n">
-        <v>490</v>
+        <v>551</v>
       </c>
     </row>
     <row r="492">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>551</v>
+        <v>586</v>
       </c>
     </row>
     <row r="501">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -17915,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="517">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>1899</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="519">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="556">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="587">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/10/05</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -20839,7 +20839,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>1030</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="603">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>13492</v>
+        <v>13579</v>
       </c>
     </row>
     <row r="604">
@@ -20884,7 +20884,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2024/10/12</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>9018</v>
+        <v>9150</v>
       </c>
     </row>
     <row r="605">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>14025</v>
+        <v>14027</v>
       </c>
     </row>
     <row r="613">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>13503</v>
+        <v>13644</v>
       </c>
     </row>
     <row r="614">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>49843</v>
+        <v>49933</v>
       </c>
     </row>
     <row r="617">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>18348</v>
+        <v>18474</v>
       </c>
     </row>
     <row r="623">
@@ -21564,7 +21564,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>39798</v>
+        <v>40393</v>
       </c>
     </row>
     <row r="625">
@@ -21734,7 +21734,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>28483</v>
+        <v>28737</v>
       </c>
     </row>
     <row r="630">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>10141</v>
+        <v>10229</v>
       </c>
     </row>
     <row r="631">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>6362</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="632">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>13629</v>
+        <v>14218</v>
       </c>
     </row>
     <row r="633">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>22925</v>
+        <v>22983</v>
       </c>
     </row>
     <row r="639">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>3885</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="646">
@@ -22380,7 +22380,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -22403,7 +22403,7 @@
         <v>0</v>
       </c>
       <c r="H648" t="n">
-        <v>5580</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="649">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>26790</v>
+        <v>27369</v>
       </c>
     </row>
     <row r="655">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="H664" t="n">
-        <v>1638</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="665">
@@ -22992,7 +22992,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -23015,7 +23015,7 @@
         <v>0</v>
       </c>
       <c r="H666" t="n">
-        <v>13574</v>
+        <v>13872</v>
       </c>
     </row>
     <row r="667">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -23151,7 +23151,7 @@
         <v>0</v>
       </c>
       <c r="H670" t="n">
-        <v>10629</v>
+        <v>10795</v>
       </c>
     </row>
     <row r="671">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -23423,7 +23423,7 @@
         <v>0</v>
       </c>
       <c r="H678" t="n">
-        <v>31700</v>
+        <v>32495</v>
       </c>
     </row>
     <row r="679">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="H685" t="n">
-        <v>10541</v>
+        <v>10670</v>
       </c>
     </row>
     <row r="686">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="H686" t="n">
-        <v>17408</v>
+        <v>17610</v>
       </c>
     </row>
     <row r="687">
@@ -23978,7 +23978,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -24012,7 +24012,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -24103,7 +24103,7 @@
         <v>0</v>
       </c>
       <c r="H698" t="n">
-        <v>36610</v>
+        <v>36847</v>
       </c>
     </row>
     <row r="699">
@@ -24114,7 +24114,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -24182,7 +24182,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -24205,7 +24205,7 @@
         <v>0</v>
       </c>
       <c r="H701" t="n">
-        <v>27695</v>
+        <v>28032</v>
       </c>
     </row>
     <row r="702">
@@ -24216,7 +24216,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -24239,7 +24239,7 @@
         <v>0</v>
       </c>
       <c r="H702" t="n">
-        <v>44984</v>
+        <v>45748</v>
       </c>
     </row>
     <row r="703">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="H706" t="n">
-        <v>9243</v>
+        <v>9287</v>
       </c>
     </row>
     <row r="707">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="H707" t="n">
-        <v>7637</v>
+        <v>8651</v>
       </c>
     </row>
     <row r="708">
@@ -24522,7 +24522,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -24545,7 +24545,7 @@
         <v>0</v>
       </c>
       <c r="H711" t="n">
-        <v>91390</v>
+        <v>91259</v>
       </c>
     </row>
     <row r="712">
@@ -24556,7 +24556,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -24579,7 +24579,7 @@
         <v>0</v>
       </c>
       <c r="H712" t="n">
-        <v>15766</v>
+        <v>16025</v>
       </c>
     </row>
     <row r="713">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -24862,7 +24862,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -24896,7 +24896,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="H722" t="n">
-        <v>27381</v>
+        <v>27505</v>
       </c>
     </row>
     <row r="723">
@@ -24930,7 +24930,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -24953,7 +24953,7 @@
         <v>0</v>
       </c>
       <c r="H723" t="n">
-        <v>33567</v>
+        <v>33649</v>
       </c>
     </row>
     <row r="724">
@@ -25032,7 +25032,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="H726" t="n">
-        <v>5638</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="727">
@@ -25066,7 +25066,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -25168,7 +25168,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -25191,7 +25191,7 @@
         <v>0</v>
       </c>
       <c r="H730" t="n">
-        <v>26819</v>
+        <v>27118</v>
       </c>
     </row>
     <row r="731">
@@ -25270,7 +25270,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -25440,7 +25440,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -25463,7 +25463,7 @@
         <v>0</v>
       </c>
       <c r="H738" t="n">
-        <v>8350</v>
+        <v>8490</v>
       </c>
     </row>
     <row r="739">
@@ -25474,7 +25474,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -25497,7 +25497,7 @@
         <v>0</v>
       </c>
       <c r="H739" t="n">
-        <v>6098</v>
+        <v>6217</v>
       </c>
     </row>
     <row r="740">
@@ -25610,7 +25610,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="H743" t="n">
-        <v>14277</v>
+        <v>14286</v>
       </c>
     </row>
     <row r="744">
@@ -25644,7 +25644,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -25746,7 +25746,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="H747" t="n">
-        <v>6048</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="748">
@@ -25848,7 +25848,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="H750" t="n">
-        <v>8014</v>
+        <v>8084</v>
       </c>
     </row>
     <row r="751">
@@ -25916,7 +25916,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -26120,7 +26120,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -26143,7 +26143,7 @@
         <v>0</v>
       </c>
       <c r="H758" t="n">
-        <v>34039</v>
+        <v>34397</v>
       </c>
     </row>
     <row r="759">
@@ -26154,7 +26154,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -26177,7 +26177,7 @@
         <v>0</v>
       </c>
       <c r="H759" t="n">
-        <v>20752</v>
+        <v>20990</v>
       </c>
     </row>
     <row r="760">
@@ -26222,7 +26222,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -26256,7 +26256,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -26279,7 +26279,7 @@
         <v>0</v>
       </c>
       <c r="H762" t="n">
-        <v>13949</v>
+        <v>14460</v>
       </c>
     </row>
     <row r="763">
@@ -26358,7 +26358,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H765" t="n">
-        <v>593</v>
+        <v>646</v>
       </c>
     </row>
     <row r="766">
@@ -26460,7 +26460,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -26483,7 +26483,7 @@
         <v>0</v>
       </c>
       <c r="H768" t="n">
-        <v>6117</v>
+        <v>6118</v>
       </c>
     </row>
     <row r="769">
@@ -26494,7 +26494,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -26517,7 +26517,7 @@
         <v>0</v>
       </c>
       <c r="H769" t="n">
-        <v>4037</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="770">
@@ -26664,7 +26664,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -26800,7 +26800,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -27038,7 +27038,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -27106,7 +27106,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -27129,7 +27129,7 @@
         <v>0</v>
       </c>
       <c r="H787" t="n">
-        <v>4164</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="788">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -27231,7 +27231,7 @@
         <v>0</v>
       </c>
       <c r="H790" t="n">
-        <v>10467</v>
+        <v>10684</v>
       </c>
     </row>
     <row r="791">
@@ -27276,7 +27276,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -27299,7 +27299,7 @@
         <v>0</v>
       </c>
       <c r="H792" t="n">
-        <v>26309</v>
+        <v>26440</v>
       </c>
     </row>
     <row r="793">
@@ -27310,7 +27310,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -27446,7 +27446,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="H797" t="n">
-        <v>15259</v>
+        <v>15466</v>
       </c>
     </row>
     <row r="798">
@@ -27582,7 +27582,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="H801" t="n">
-        <v>9534</v>
+        <v>9588</v>
       </c>
     </row>
     <row r="802">
@@ -27650,7 +27650,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="H803" t="n">
-        <v>18039</v>
+        <v>18224</v>
       </c>
     </row>
     <row r="804">
@@ -27786,7 +27786,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -27809,7 +27809,7 @@
         <v>0</v>
       </c>
       <c r="H807" t="n">
-        <v>18488</v>
+        <v>18652</v>
       </c>
     </row>
     <row r="808">
@@ -27990,7 +27990,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="H813" t="n">
-        <v>29715</v>
+        <v>29803</v>
       </c>
     </row>
     <row r="814">
@@ -28160,7 +28160,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -28183,7 +28183,7 @@
         <v>0</v>
       </c>
       <c r="H818" t="n">
-        <v>9961</v>
+        <v>10205</v>
       </c>
     </row>
     <row r="819">
@@ -28398,7 +28398,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H825" t="n">
-        <v>6896</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="826">
@@ -28534,7 +28534,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -28557,7 +28557,7 @@
         <v>0</v>
       </c>
       <c r="H829" t="n">
-        <v>98364</v>
+        <v>98752</v>
       </c>
     </row>
     <row r="830">
@@ -28602,7 +28602,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -28625,7 +28625,7 @@
         <v>0</v>
       </c>
       <c r="H831" t="n">
-        <v>60464</v>
+        <v>60542</v>
       </c>
     </row>
     <row r="832">
@@ -28738,7 +28738,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="H835" t="n">
-        <v>9189</v>
+        <v>9320</v>
       </c>
     </row>
     <row r="836">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -28829,7 +28829,7 @@
         <v>0</v>
       </c>
       <c r="H837" t="n">
-        <v>44575</v>
+        <v>45082</v>
       </c>
     </row>
     <row r="838">
@@ -28874,7 +28874,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -28897,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="H839" t="n">
-        <v>3205</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="840">
@@ -29180,7 +29180,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -29203,7 +29203,7 @@
         <v>0</v>
       </c>
       <c r="H848" t="n">
-        <v>6655</v>
+        <v>6769</v>
       </c>
     </row>
     <row r="849">
@@ -29248,7 +29248,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -29282,7 +29282,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -29305,7 +29305,7 @@
         <v>0</v>
       </c>
       <c r="H851" t="n">
-        <v>1848</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="852">
@@ -29418,7 +29418,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -29441,7 +29441,7 @@
         <v>0</v>
       </c>
       <c r="H855" t="n">
-        <v>39165</v>
+        <v>39239</v>
       </c>
     </row>
     <row r="856">
@@ -29452,7 +29452,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -29520,7 +29520,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -29543,7 +29543,7 @@
         <v>0</v>
       </c>
       <c r="H858" t="n">
-        <v>44044</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="859">
@@ -29690,7 +29690,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -29962,7 +29962,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -29985,7 +29985,7 @@
         <v>0</v>
       </c>
       <c r="H871" t="n">
-        <v>14031</v>
+        <v>14147</v>
       </c>
     </row>
     <row r="872">
@@ -30166,7 +30166,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="H877" t="n">
-        <v>23993</v>
+        <v>23994</v>
       </c>
     </row>
     <row r="878">
@@ -30268,7 +30268,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="H880" t="n">
-        <v>6585</v>
+        <v>6847</v>
       </c>
     </row>
     <row r="881">
@@ -30642,7 +30642,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -30676,7 +30676,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -30699,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="H892" t="n">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="893">
@@ -30812,7 +30812,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -30835,7 +30835,7 @@
         <v>0</v>
       </c>
       <c r="H896" t="n">
-        <v>43046</v>
+        <v>43140</v>
       </c>
     </row>
     <row r="897">
@@ -30982,7 +30982,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -31016,7 +31016,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="H902" t="n">
-        <v>12809</v>
+        <v>13217</v>
       </c>
     </row>
     <row r="903">
@@ -31118,7 +31118,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
@@ -31356,7 +31356,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -31379,7 +31379,7 @@
         <v>0</v>
       </c>
       <c r="H912" t="n">
-        <v>13570</v>
+        <v>13958</v>
       </c>
     </row>
     <row r="913">
@@ -31560,7 +31560,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -31583,7 +31583,7 @@
         <v>0</v>
       </c>
       <c r="H918" t="n">
-        <v>17251</v>
+        <v>18426</v>
       </c>
     </row>
     <row r="919">
@@ -31662,7 +31662,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -31685,7 +31685,7 @@
         <v>0</v>
       </c>
       <c r="H921" t="n">
-        <v>47915</v>
+        <v>48995</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -450,7 +450,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>5779</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="78">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>2098</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="139">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>9917</v>
+        <v>9968</v>
       </c>
     </row>
     <row r="242">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="264">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>19172</v>
+        <v>19170</v>
       </c>
     </row>
     <row r="270">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>7071</v>
+        <v>7183</v>
       </c>
     </row>
     <row r="272">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="n">
-        <v>8783</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="305">
@@ -11330,7 +11330,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>533</v>
+        <v>555</v>
       </c>
     </row>
     <row r="324">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>10403</v>
+        <v>10518</v>
       </c>
     </row>
     <row r="361">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>19019</v>
+        <v>19374</v>
       </c>
     </row>
     <row r="382">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>23103</v>
+        <v>23250</v>
       </c>
     </row>
     <row r="388">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>2396</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="394">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>37408</v>
+        <v>37915</v>
       </c>
     </row>
     <row r="399">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>41532</v>
+        <v>42513</v>
       </c>
     </row>
     <row r="405">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/09/22</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>1754</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="435">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="443">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="446">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>1843</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="451">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>161</v>
+        <v>194</v>
       </c>
     </row>
     <row r="453">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="n">
-        <v>639</v>
+        <v>814</v>
       </c>
     </row>
     <row r="477">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>894</v>
+        <v>930</v>
       </c>
     </row>
     <row r="497">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="589">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/08/31</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="591">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="593">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>14027</v>
+        <v>14035</v>
       </c>
     </row>
     <row r="613">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>5496</v>
+        <v>5542</v>
       </c>
     </row>
     <row r="620">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22686,7 +22686,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -23026,7 +23026,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -23049,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="H667" t="n">
-        <v>18179</v>
+        <v>18193</v>
       </c>
     </row>
     <row r="668">
@@ -23298,7 +23298,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="H675" t="n">
-        <v>31737</v>
+        <v>31774</v>
       </c>
     </row>
     <row r="676">
@@ -23366,7 +23366,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -23389,7 +23389,7 @@
         <v>0</v>
       </c>
       <c r="H677" t="n">
-        <v>20849</v>
+        <v>21020</v>
       </c>
     </row>
     <row r="678">
@@ -23740,7 +23740,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -23763,7 +23763,7 @@
         <v>0</v>
       </c>
       <c r="H688" t="n">
-        <v>17366</v>
+        <v>17383</v>
       </c>
     </row>
     <row r="689">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="H692" t="n">
-        <v>19091</v>
+        <v>19258</v>
       </c>
     </row>
     <row r="693">
@@ -24182,7 +24182,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -24205,7 +24205,7 @@
         <v>0</v>
       </c>
       <c r="H701" t="n">
-        <v>28032</v>
+        <v>28041</v>
       </c>
     </row>
     <row r="702">
@@ -24284,7 +24284,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -24307,7 +24307,7 @@
         <v>0</v>
       </c>
       <c r="H704" t="n">
-        <v>26514</v>
+        <v>26669</v>
       </c>
     </row>
     <row r="705">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="H706" t="n">
-        <v>9287</v>
+        <v>9329</v>
       </c>
     </row>
     <row r="707">
@@ -24454,7 +24454,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -24477,7 +24477,7 @@
         <v>0</v>
       </c>
       <c r="H709" t="n">
-        <v>4656</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="710">
@@ -24522,7 +24522,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -24545,7 +24545,7 @@
         <v>0</v>
       </c>
       <c r="H711" t="n">
-        <v>91259</v>
+        <v>91956</v>
       </c>
     </row>
     <row r="712">
@@ -24556,7 +24556,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -24579,7 +24579,7 @@
         <v>0</v>
       </c>
       <c r="H712" t="n">
-        <v>16025</v>
+        <v>16026</v>
       </c>
     </row>
     <row r="713">
@@ -24794,7 +24794,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -24817,7 +24817,7 @@
         <v>0</v>
       </c>
       <c r="H719" t="n">
-        <v>53737</v>
+        <v>54832</v>
       </c>
     </row>
     <row r="720">
@@ -24828,7 +24828,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -24851,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="H720" t="n">
-        <v>6360</v>
+        <v>6381</v>
       </c>
     </row>
     <row r="721">
@@ -25168,7 +25168,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -25191,7 +25191,7 @@
         <v>0</v>
       </c>
       <c r="H730" t="n">
-        <v>27118</v>
+        <v>27131</v>
       </c>
     </row>
     <row r="731">
@@ -25270,7 +25270,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -25293,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="H733" t="n">
-        <v>17528</v>
+        <v>17949</v>
       </c>
     </row>
     <row r="734">
@@ -25406,7 +25406,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -25429,7 +25429,7 @@
         <v>0</v>
       </c>
       <c r="H737" t="n">
-        <v>95982</v>
+        <v>96455</v>
       </c>
     </row>
     <row r="738">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -25531,7 +25531,7 @@
         <v>0</v>
       </c>
       <c r="H740" t="n">
-        <v>17796</v>
+        <v>17868</v>
       </c>
     </row>
     <row r="741">
@@ -25746,7 +25746,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -25916,7 +25916,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="H752" t="n">
-        <v>21931</v>
+        <v>22120</v>
       </c>
     </row>
     <row r="753">
@@ -26086,7 +26086,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -26109,7 +26109,7 @@
         <v>0</v>
       </c>
       <c r="H757" t="n">
-        <v>14016</v>
+        <v>14051</v>
       </c>
     </row>
     <row r="758">
@@ -26800,7 +26800,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -26823,7 +26823,7 @@
         <v>0</v>
       </c>
       <c r="H778" t="n">
-        <v>8321</v>
+        <v>8377</v>
       </c>
     </row>
     <row r="779">
@@ -26902,7 +26902,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/20</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H781" t="n">
-        <v>22633</v>
+        <v>22902</v>
       </c>
     </row>
     <row r="782">
@@ -27344,7 +27344,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -27367,7 +27367,7 @@
         <v>0</v>
       </c>
       <c r="H794" t="n">
-        <v>5475</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="795">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -27571,7 +27571,7 @@
         <v>0</v>
       </c>
       <c r="H800" t="n">
-        <v>19910</v>
+        <v>19938</v>
       </c>
     </row>
     <row r="801">
@@ -27582,7 +27582,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="H801" t="n">
-        <v>9588</v>
+        <v>9651</v>
       </c>
     </row>
     <row r="802">
@@ -27718,7 +27718,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -27741,7 +27741,7 @@
         <v>0</v>
       </c>
       <c r="H805" t="n">
-        <v>9401</v>
+        <v>9422</v>
       </c>
     </row>
     <row r="806">
@@ -28364,7 +28364,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="H824" t="n">
-        <v>9090</v>
+        <v>9141</v>
       </c>
     </row>
     <row r="825">
@@ -28602,7 +28602,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -28625,7 +28625,7 @@
         <v>0</v>
       </c>
       <c r="H831" t="n">
-        <v>60542</v>
+        <v>61190</v>
       </c>
     </row>
     <row r="832">
@@ -28670,7 +28670,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -28693,7 +28693,7 @@
         <v>0</v>
       </c>
       <c r="H833" t="n">
-        <v>3423</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="834">
@@ -29248,7 +29248,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -29271,7 +29271,7 @@
         <v>0</v>
       </c>
       <c r="H850" t="n">
-        <v>8703</v>
+        <v>8725</v>
       </c>
     </row>
     <row r="851">
@@ -29418,7 +29418,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -29452,7 +29452,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="H856" t="n">
-        <v>93337</v>
+        <v>93374</v>
       </c>
     </row>
     <row r="857">
@@ -29656,7 +29656,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -29679,7 +29679,7 @@
         <v>0</v>
       </c>
       <c r="H862" t="n">
-        <v>45160</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="863">
@@ -29724,7 +29724,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -29747,7 +29747,7 @@
         <v>0</v>
       </c>
       <c r="H864" t="n">
-        <v>1138</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="865">
@@ -30030,7 +30030,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -30234,7 +30234,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -30257,7 +30257,7 @@
         <v>0</v>
       </c>
       <c r="H879" t="n">
-        <v>6700</v>
+        <v>6749</v>
       </c>
     </row>
     <row r="880">
@@ -30268,7 +30268,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="H880" t="n">
-        <v>6847</v>
+        <v>6744</v>
       </c>
     </row>
     <row r="881">
@@ -30642,7 +30642,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -30948,7 +30948,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -30971,7 +30971,7 @@
         <v>0</v>
       </c>
       <c r="H900" t="n">
-        <v>10316</v>
+        <v>10348</v>
       </c>
     </row>
     <row r="901">
@@ -30982,7 +30982,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -31005,7 +31005,7 @@
         <v>0</v>
       </c>
       <c r="H901" t="n">
-        <v>6804</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="902">

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="68">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="151">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>3913</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="176">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2024/08/31</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>3538</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="368">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>24169</v>
+        <v>24414</v>
       </c>
     </row>
     <row r="379">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>7005</v>
+        <v>7112</v>
       </c>
     </row>
     <row r="385">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>23579</v>
+        <v>24423</v>
       </c>
     </row>
     <row r="393">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>272</v>
+        <v>299</v>
       </c>
     </row>
     <row r="440">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15535,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="n">
-        <v>1350</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="447">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>935</v>
+        <v>949</v>
       </c>
     </row>
     <row r="508">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="n">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="538">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/11/02</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="541">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>17725</v>
+        <v>18142</v>
       </c>
     </row>
     <row r="607">
@@ -21564,7 +21564,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
       <c r="H624" t="n">
-        <v>40393</v>
+        <v>40410</v>
       </c>
     </row>
     <row r="625">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>6166</v>
+        <v>6253</v>
       </c>
     </row>
     <row r="651">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -22879,7 +22879,7 @@
         <v>0</v>
       </c>
       <c r="H662" t="n">
-        <v>9185</v>
+        <v>9216</v>
       </c>
     </row>
     <row r="663">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -23253,7 +23253,7 @@
         <v>0</v>
       </c>
       <c r="H673" t="n">
-        <v>20702</v>
+        <v>20918</v>
       </c>
     </row>
     <row r="674">
@@ -23332,7 +23332,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -23355,7 +23355,7 @@
         <v>0</v>
       </c>
       <c r="H676" t="n">
-        <v>4353</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="677">
@@ -23706,7 +23706,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/27</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -23729,7 +23729,7 @@
         <v>0</v>
       </c>
       <c r="H687" t="n">
-        <v>2744</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="688">
@@ -24284,7 +24284,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -24307,7 +24307,7 @@
         <v>0</v>
       </c>
       <c r="H704" t="n">
-        <v>26669</v>
+        <v>26823</v>
       </c>
     </row>
     <row r="705">
@@ -24556,7 +24556,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -24579,7 +24579,7 @@
         <v>0</v>
       </c>
       <c r="H712" t="n">
-        <v>16026</v>
+        <v>16016</v>
       </c>
     </row>
     <row r="713">
@@ -24590,7 +24590,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -25236,7 +25236,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="H732" t="n">
-        <v>4038</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="733">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -25531,7 +25531,7 @@
         <v>0</v>
       </c>
       <c r="H740" t="n">
-        <v>17868</v>
+        <v>18114</v>
       </c>
     </row>
     <row r="741">
@@ -25576,7 +25576,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="H742" t="n">
-        <v>14198</v>
+        <v>14318</v>
       </c>
     </row>
     <row r="743">
@@ -25610,7 +25610,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="H743" t="n">
-        <v>14286</v>
+        <v>14298</v>
       </c>
     </row>
     <row r="744">
@@ -25916,7 +25916,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="H752" t="n">
-        <v>22120</v>
+        <v>22210</v>
       </c>
     </row>
     <row r="753">
@@ -26290,7 +26290,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -26313,7 +26313,7 @@
         <v>0</v>
       </c>
       <c r="H763" t="n">
-        <v>10403</v>
+        <v>10733</v>
       </c>
     </row>
     <row r="764">
@@ -27276,7 +27276,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -27299,7 +27299,7 @@
         <v>0</v>
       </c>
       <c r="H792" t="n">
-        <v>26440</v>
+        <v>26572</v>
       </c>
     </row>
     <row r="793">
@@ -27412,7 +27412,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="H796" t="n">
-        <v>1661</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="797">
@@ -27650,7 +27650,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="H803" t="n">
-        <v>18224</v>
+        <v>18235</v>
       </c>
     </row>
     <row r="804">
@@ -28228,7 +28228,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -28330,7 +28330,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -28908,7 +28908,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>2024/09/22</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="H840" t="n">
-        <v>27459</v>
+        <v>27949</v>
       </c>
     </row>
     <row r="841">
@@ -30540,7 +30540,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -30563,7 +30563,7 @@
         <v>0</v>
       </c>
       <c r="H888" t="n">
-        <v>9325</v>
+        <v>9331</v>
       </c>
     </row>
     <row r="889">
@@ -30608,7 +30608,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -450,7 +450,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -484,7 +484,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>7608</v>
+        <v>7673</v>
       </c>
     </row>
     <row r="5">
@@ -552,7 +552,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1555</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="66">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/09</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>697</v>
+        <v>713</v>
       </c>
     </row>
     <row r="74">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>7918</v>
+        <v>8050</v>
       </c>
     </row>
     <row r="83">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>9679</v>
+        <v>9690</v>
       </c>
     </row>
     <row r="92">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>1610</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="94">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>5101</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="98">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>4395</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="100">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>6964</v>
+        <v>7011</v>
       </c>
     </row>
     <row r="102">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="110">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="113">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>945</v>
+        <v>956</v>
       </c>
     </row>
     <row r="117">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>5749</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="142">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>1283</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="158">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="188">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>2861</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="189">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>5395</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="201">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="206">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>9153</v>
+        <v>9178</v>
       </c>
     </row>
     <row r="219">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>9396</v>
+        <v>9483</v>
       </c>
     </row>
     <row r="228">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>2901</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="255">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="257">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2024/10/12</t>
+          <t>2024/11/09</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="258">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="261">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>8567</v>
+        <v>8590</v>
       </c>
     </row>
     <row r="274">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="n">
-        <v>9724</v>
+        <v>9831</v>
       </c>
     </row>
     <row r="308">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>1455</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="348">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>1430</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="358">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>1911</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="370">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>24414</v>
+        <v>25057</v>
       </c>
     </row>
     <row r="379">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>2007</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="384">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/09</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>3659</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="420">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="423">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>863</v>
+        <v>899</v>
       </c>
     </row>
     <row r="429">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>438</v>
+        <v>473</v>
       </c>
     </row>
     <row r="436">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="437">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>247</v>
+        <v>332</v>
       </c>
     </row>
     <row r="446">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>1925</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="451">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="n">
-        <v>166</v>
+        <v>242</v>
       </c>
     </row>
     <row r="454">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>1851</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="459">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="464">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>4929</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="466">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="473">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="474">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="481">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>409</v>
+        <v>423</v>
       </c>
     </row>
     <row r="483">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="484">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="503">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -17620,7 +17620,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
     <row r="509">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="n">
-        <v>744</v>
+        <v>755</v>
       </c>
     </row>
     <row r="515">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/11/03</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="522">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>550</v>
+        <v>581</v>
       </c>
     </row>
     <row r="536">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>412</v>
+        <v>468</v>
       </c>
     </row>
     <row r="545">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/08/27</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="554">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="557">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>2357</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="562">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="575">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H580" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="581">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="583">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/10</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="594">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/10/06</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="602">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>14035</v>
+        <v>14043</v>
       </c>
     </row>
     <row r="613">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>7279</v>
+        <v>7488</v>
       </c>
     </row>
     <row r="627">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/09</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -21734,7 +21734,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>28737</v>
+        <v>29019</v>
       </c>
     </row>
     <row r="630">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>127587</v>
+        <v>130151</v>
       </c>
     </row>
     <row r="637">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>22983</v>
+        <v>23316</v>
       </c>
     </row>
     <row r="639">
@@ -22142,7 +22142,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="H641" t="n">
-        <v>21007</v>
+        <v>21308</v>
       </c>
     </row>
     <row r="642">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="H652" t="n">
-        <v>32221</v>
+        <v>32649</v>
       </c>
     </row>
     <row r="653">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22675,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="H656" t="n">
-        <v>7636</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="657">
@@ -22992,7 +22992,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -23015,7 +23015,7 @@
         <v>0</v>
       </c>
       <c r="H666" t="n">
-        <v>13872</v>
+        <v>13911</v>
       </c>
     </row>
     <row r="667">
@@ -23060,7 +23060,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -23253,7 +23253,7 @@
         <v>0</v>
       </c>
       <c r="H673" t="n">
-        <v>20918</v>
+        <v>21280</v>
       </c>
     </row>
     <row r="674">
@@ -23264,7 +23264,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -23287,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="H674" t="n">
-        <v>31114</v>
+        <v>31125</v>
       </c>
     </row>
     <row r="675">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="H685" t="n">
-        <v>10670</v>
+        <v>10798</v>
       </c>
     </row>
     <row r="686">
@@ -23978,7 +23978,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/03</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -24103,7 +24103,7 @@
         <v>0</v>
       </c>
       <c r="H698" t="n">
-        <v>36847</v>
+        <v>37290</v>
       </c>
     </row>
     <row r="699">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="H710" t="n">
-        <v>16426</v>
+        <v>16801</v>
       </c>
     </row>
     <row r="711">
@@ -24556,7 +24556,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -24828,7 +24828,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -24851,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="H720" t="n">
-        <v>6381</v>
+        <v>6417</v>
       </c>
     </row>
     <row r="721">
@@ -25100,7 +25100,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -25134,7 +25134,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="H729" t="n">
-        <v>4128</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="730">
@@ -25338,7 +25338,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -25440,7 +25440,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -25610,7 +25610,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="H743" t="n">
-        <v>14298</v>
+        <v>14311</v>
       </c>
     </row>
     <row r="744">
@@ -26018,7 +26018,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="H755" t="n">
-        <v>13602</v>
+        <v>13619</v>
       </c>
     </row>
     <row r="756">
@@ -26086,7 +26086,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -26109,7 +26109,7 @@
         <v>0</v>
       </c>
       <c r="H757" t="n">
-        <v>14051</v>
+        <v>14180</v>
       </c>
     </row>
     <row r="758">
@@ -26154,7 +26154,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -26177,7 +26177,7 @@
         <v>0</v>
       </c>
       <c r="H759" t="n">
-        <v>20990</v>
+        <v>21235</v>
       </c>
     </row>
     <row r="760">
@@ -26188,7 +26188,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -26211,7 +26211,7 @@
         <v>0</v>
       </c>
       <c r="H760" t="n">
-        <v>3602</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="761">
@@ -26222,7 +26222,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -26245,7 +26245,7 @@
         <v>0</v>
       </c>
       <c r="H761" t="n">
-        <v>10835</v>
+        <v>10868</v>
       </c>
     </row>
     <row r="762">
@@ -26324,7 +26324,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -26347,7 +26347,7 @@
         <v>0</v>
       </c>
       <c r="H764" t="n">
-        <v>10147</v>
+        <v>10231</v>
       </c>
     </row>
     <row r="765">
@@ -26732,7 +26732,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -26755,7 +26755,7 @@
         <v>0</v>
       </c>
       <c r="H776" t="n">
-        <v>59449</v>
+        <v>59643</v>
       </c>
     </row>
     <row r="777">
@@ -26800,7 +26800,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -26868,7 +26868,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -26891,7 +26891,7 @@
         <v>0</v>
       </c>
       <c r="H780" t="n">
-        <v>6509</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="781">
@@ -27344,7 +27344,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/09</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -27367,7 +27367,7 @@
         <v>0</v>
       </c>
       <c r="H794" t="n">
-        <v>5610</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="795">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -27571,7 +27571,7 @@
         <v>0</v>
       </c>
       <c r="H800" t="n">
-        <v>19938</v>
+        <v>20230</v>
       </c>
     </row>
     <row r="801">
@@ -27582,7 +27582,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -27684,7 +27684,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="H804" t="n">
-        <v>7323</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="805">
@@ -27786,7 +27786,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -27809,7 +27809,7 @@
         <v>0</v>
       </c>
       <c r="H807" t="n">
-        <v>18652</v>
+        <v>18653</v>
       </c>
     </row>
     <row r="808">
@@ -28092,7 +28092,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -28115,7 +28115,7 @@
         <v>0</v>
       </c>
       <c r="H816" t="n">
-        <v>43348</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="817">
@@ -28398,7 +28398,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -28636,7 +28636,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -28659,7 +28659,7 @@
         <v>0</v>
       </c>
       <c r="H832" t="n">
-        <v>5372</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="833">
@@ -28976,7 +28976,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>2024/10/12</t>
+          <t>2024/11/09</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -28999,7 +28999,7 @@
         <v>0</v>
       </c>
       <c r="H842" t="n">
-        <v>26410</v>
+        <v>26421</v>
       </c>
     </row>
     <row r="843">
@@ -29044,7 +29044,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -29067,7 +29067,7 @@
         <v>0</v>
       </c>
       <c r="H844" t="n">
-        <v>3152</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="845">
@@ -29146,7 +29146,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -29180,7 +29180,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -30098,7 +30098,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -30121,7 +30121,7 @@
         <v>0</v>
       </c>
       <c r="H875" t="n">
-        <v>59959</v>
+        <v>60458</v>
       </c>
     </row>
     <row r="876">
@@ -30302,7 +30302,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/11/09</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -30325,7 +30325,7 @@
         <v>0</v>
       </c>
       <c r="H881" t="n">
-        <v>62513</v>
+        <v>62733</v>
       </c>
     </row>
     <row r="882">
@@ -30540,7 +30540,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -30563,7 +30563,7 @@
         <v>0</v>
       </c>
       <c r="H888" t="n">
-        <v>9331</v>
+        <v>9343</v>
       </c>
     </row>
     <row r="889">
@@ -30642,7 +30642,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -30665,7 +30665,7 @@
         <v>0</v>
       </c>
       <c r="H891" t="n">
-        <v>12401</v>
+        <v>12541</v>
       </c>
     </row>
     <row r="892">
@@ -31084,7 +31084,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -31107,7 +31107,7 @@
         <v>0</v>
       </c>
       <c r="H904" t="n">
-        <v>59869</v>
+        <v>59901</v>
       </c>
     </row>
     <row r="905">
@@ -31390,7 +31390,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -31413,7 +31413,7 @@
         <v>0</v>
       </c>
       <c r="H913" t="n">
-        <v>12614</v>
+        <v>12751</v>
       </c>
     </row>
     <row r="914">
@@ -31492,7 +31492,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -31594,7 +31594,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -31617,7 +31617,7 @@
         <v>0</v>
       </c>
       <c r="H919" t="n">
-        <v>6623</v>
+        <v>7262</v>
       </c>
     </row>
     <row r="920">

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -450,7 +450,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -756,7 +756,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13">
@@ -926,7 +926,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>952</v>
+        <v>970</v>
       </c>
     </row>
     <row r="65">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1478</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="71">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1347</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="75">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>2138</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="139">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="160">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="183">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>9178</v>
+        <v>9218</v>
       </c>
     </row>
     <row r="219">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>103156</v>
+        <v>103433</v>
       </c>
     </row>
     <row r="223">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>25448</v>
+        <v>25599</v>
       </c>
     </row>
     <row r="231">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>9968</v>
+        <v>10005</v>
       </c>
     </row>
     <row r="242">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>16326</v>
+        <v>16597</v>
       </c>
     </row>
     <row r="248">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>16284</v>
+        <v>16387</v>
       </c>
     </row>
     <row r="249">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>19170</v>
+        <v>19246</v>
       </c>
     </row>
     <row r="270">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/11/23</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>58242</v>
+        <v>59815</v>
       </c>
     </row>
     <row r="278">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>29441</v>
+        <v>29635</v>
       </c>
     </row>
     <row r="279">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>11216</v>
+        <v>11292</v>
       </c>
     </row>
     <row r="285">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>34082</v>
+        <v>34187</v>
       </c>
     </row>
     <row r="286">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>2753</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="288">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>22452</v>
+        <v>22508</v>
       </c>
     </row>
     <row r="290">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>31416</v>
+        <v>31762</v>
       </c>
     </row>
     <row r="291">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>16810</v>
+        <v>16824</v>
       </c>
     </row>
     <row r="296">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>26476</v>
+        <v>26523</v>
       </c>
     </row>
     <row r="303">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="n">
-        <v>8904</v>
+        <v>9043</v>
       </c>
     </row>
     <row r="305">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>27997</v>
+        <v>28106</v>
       </c>
     </row>
     <row r="314">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>930</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="340">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>241724</v>
+        <v>241909</v>
       </c>
     </row>
     <row r="357">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>2149</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="369">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>19374</v>
+        <v>19576</v>
       </c>
     </row>
     <row r="382">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>24423</v>
+        <v>24794</v>
       </c>
     </row>
     <row r="393">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>2425</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="394">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>24859</v>
+        <v>25133</v>
       </c>
     </row>
     <row r="401">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>42537</v>
+        <v>43015</v>
       </c>
     </row>
     <row r="405">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>1176</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="408">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="H444" t="n">
-        <v>3267</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="445">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>855</v>
+        <v>900</v>
       </c>
     </row>
     <row r="450">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="n">
-        <v>317</v>
+        <v>353</v>
       </c>
     </row>
     <row r="455">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="457">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>872</v>
+        <v>984</v>
       </c>
     </row>
     <row r="467">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>1857</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="487">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>551</v>
+        <v>611</v>
       </c>
     </row>
     <row r="493">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>586</v>
+        <v>679</v>
       </c>
     </row>
     <row r="502">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="510">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
     </row>
     <row r="518">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="522">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="n">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="529">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="540">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>2154</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="554">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="556">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="557">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="585">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="597">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>14</v>
+        <v>198</v>
       </c>
     </row>
     <row r="602">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>18142</v>
+        <v>18546</v>
       </c>
     </row>
     <row r="608">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21145,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="H611" t="n">
-        <v>19578</v>
+        <v>19807</v>
       </c>
     </row>
     <row r="612">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/23</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>41157</v>
+        <v>41668</v>
       </c>
     </row>
     <row r="613">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>14247</v>
+        <v>14173</v>
       </c>
     </row>
     <row r="614">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>13644</v>
+        <v>13774</v>
       </c>
     </row>
     <row r="615">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>5542</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="621">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>13780</v>
+        <v>13795</v>
       </c>
     </row>
     <row r="622">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>18474</v>
+        <v>18612</v>
       </c>
     </row>
     <row r="624">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>40410</v>
+        <v>40455</v>
       </c>
     </row>
     <row r="626">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>7488</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="628">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>29019</v>
+        <v>29472</v>
       </c>
     </row>
     <row r="631">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>10229</v>
+        <v>10321</v>
       </c>
     </row>
     <row r="632">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>15466</v>
+        <v>15587</v>
       </c>
     </row>
     <row r="637">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>8746</v>
+        <v>8837</v>
       </c>
     </row>
     <row r="651">
@@ -22618,7 +22618,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="H655" t="n">
-        <v>27410</v>
+        <v>27611</v>
       </c>
     </row>
     <row r="656">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/11/16</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22686,7 +22686,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="H664" t="n">
-        <v>26089</v>
+        <v>26442</v>
       </c>
     </row>
     <row r="665">
@@ -23162,7 +23162,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
       <c r="H671" t="n">
-        <v>10795</v>
+        <v>10960</v>
       </c>
     </row>
     <row r="672">
@@ -23332,7 +23332,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -23355,7 +23355,7 @@
         <v>0</v>
       </c>
       <c r="H676" t="n">
-        <v>32306</v>
+        <v>32343</v>
       </c>
     </row>
     <row r="677">
@@ -23366,7 +23366,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -23389,7 +23389,7 @@
         <v>0</v>
       </c>
       <c r="H677" t="n">
-        <v>4440</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="678">
@@ -23434,7 +23434,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="H679" t="n">
-        <v>32495</v>
+        <v>33331</v>
       </c>
     </row>
     <row r="680">
@@ -23536,7 +23536,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -23559,7 +23559,7 @@
         <v>0</v>
       </c>
       <c r="H682" t="n">
-        <v>14315</v>
+        <v>14317</v>
       </c>
     </row>
     <row r="683">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="H686" t="n">
-        <v>10798</v>
+        <v>10936</v>
       </c>
     </row>
     <row r="687">
@@ -23706,7 +23706,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -23729,7 +23729,7 @@
         <v>0</v>
       </c>
       <c r="H687" t="n">
-        <v>17610</v>
+        <v>17810</v>
       </c>
     </row>
     <row r="688">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="H692" t="n">
-        <v>18339</v>
+        <v>18814</v>
       </c>
     </row>
     <row r="693">
@@ -23910,7 +23910,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -23933,7 +23933,7 @@
         <v>0</v>
       </c>
       <c r="H693" t="n">
-        <v>19258</v>
+        <v>19463</v>
       </c>
     </row>
     <row r="694">
@@ -24012,7 +24012,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -24046,7 +24046,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -24069,7 +24069,7 @@
         <v>0</v>
       </c>
       <c r="H697" t="n">
-        <v>7225</v>
+        <v>7307</v>
       </c>
     </row>
     <row r="698">
@@ -24114,7 +24114,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -24137,7 +24137,7 @@
         <v>0</v>
       </c>
       <c r="H699" t="n">
-        <v>37732</v>
+        <v>37996</v>
       </c>
     </row>
     <row r="700">
@@ -24216,7 +24216,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -24239,7 +24239,7 @@
         <v>0</v>
       </c>
       <c r="H702" t="n">
-        <v>28041</v>
+        <v>28383</v>
       </c>
     </row>
     <row r="703">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="H707" t="n">
-        <v>9369</v>
+        <v>9407</v>
       </c>
     </row>
     <row r="708">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="H710" t="n">
-        <v>4696</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="711">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -24647,7 +24647,7 @@
         <v>0</v>
       </c>
       <c r="H714" t="n">
-        <v>10215</v>
+        <v>10856</v>
       </c>
     </row>
     <row r="715">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/23</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -24828,7 +24828,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -24851,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="H720" t="n">
-        <v>54832</v>
+        <v>55445</v>
       </c>
     </row>
     <row r="721">
@@ -24930,7 +24930,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -24953,7 +24953,7 @@
         <v>0</v>
       </c>
       <c r="H723" t="n">
-        <v>27751</v>
+        <v>27851</v>
       </c>
     </row>
     <row r="724">
@@ -24998,7 +24998,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -25021,7 +25021,7 @@
         <v>0</v>
       </c>
       <c r="H725" t="n">
-        <v>12561</v>
+        <v>12670</v>
       </c>
     </row>
     <row r="726">
@@ -25202,7 +25202,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -25304,7 +25304,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H734" t="n">
-        <v>18076</v>
+        <v>18109</v>
       </c>
     </row>
     <row r="735">
@@ -25372,7 +25372,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -25395,7 +25395,7 @@
         <v>0</v>
       </c>
       <c r="H736" t="n">
-        <v>32282</v>
+        <v>32445</v>
       </c>
     </row>
     <row r="737">
@@ -25440,7 +25440,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -25463,7 +25463,7 @@
         <v>0</v>
       </c>
       <c r="H738" t="n">
-        <v>96657</v>
+        <v>97143</v>
       </c>
     </row>
     <row r="739">
@@ -25474,7 +25474,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -25497,7 +25497,7 @@
         <v>0</v>
       </c>
       <c r="H739" t="n">
-        <v>8490</v>
+        <v>8527</v>
       </c>
     </row>
     <row r="740">
@@ -25644,7 +25644,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -25667,7 +25667,7 @@
         <v>0</v>
       </c>
       <c r="H744" t="n">
-        <v>14311</v>
+        <v>14447</v>
       </c>
     </row>
     <row r="745">
@@ -25882,7 +25882,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -25905,7 +25905,7 @@
         <v>0</v>
       </c>
       <c r="H751" t="n">
-        <v>8084</v>
+        <v>8155</v>
       </c>
     </row>
     <row r="752">
@@ -25950,7 +25950,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -25973,7 +25973,7 @@
         <v>0</v>
       </c>
       <c r="H753" t="n">
-        <v>22315</v>
+        <v>22517</v>
       </c>
     </row>
     <row r="754">
@@ -26052,7 +26052,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -26075,7 +26075,7 @@
         <v>0</v>
       </c>
       <c r="H756" t="n">
-        <v>13619</v>
+        <v>13891</v>
       </c>
     </row>
     <row r="757">
@@ -26222,7 +26222,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -26245,7 +26245,7 @@
         <v>0</v>
       </c>
       <c r="H761" t="n">
-        <v>3651</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="762">
@@ -26324,7 +26324,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -26347,7 +26347,7 @@
         <v>0</v>
       </c>
       <c r="H764" t="n">
-        <v>10750</v>
+        <v>10808</v>
       </c>
     </row>
     <row r="765">
@@ -26415,7 +26415,7 @@
         <v>0</v>
       </c>
       <c r="H766" t="n">
-        <v>701</v>
+        <v>785</v>
       </c>
     </row>
     <row r="767">
@@ -26528,7 +26528,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -26551,7 +26551,7 @@
         <v>0</v>
       </c>
       <c r="H770" t="n">
-        <v>4133</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="771">
@@ -26630,7 +26630,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -26653,7 +26653,7 @@
         <v>0</v>
       </c>
       <c r="H773" t="n">
-        <v>15947</v>
+        <v>16129</v>
       </c>
     </row>
     <row r="774">
@@ -26698,7 +26698,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="H775" t="n">
-        <v>79350</v>
+        <v>80194</v>
       </c>
     </row>
     <row r="776">
@@ -26800,7 +26800,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -26823,7 +26823,7 @@
         <v>0</v>
       </c>
       <c r="H778" t="n">
-        <v>11137</v>
+        <v>11187</v>
       </c>
     </row>
     <row r="779">
@@ -27004,7 +27004,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H784" t="n">
-        <v>12196</v>
+        <v>12382</v>
       </c>
     </row>
     <row r="785">
@@ -27072,7 +27072,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -27095,7 +27095,7 @@
         <v>0</v>
       </c>
       <c r="H786" t="n">
-        <v>28366</v>
+        <v>28462</v>
       </c>
     </row>
     <row r="787">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -27231,7 +27231,7 @@
         <v>0</v>
       </c>
       <c r="H790" t="n">
-        <v>3753</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="791">
@@ -27446,7 +27446,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="H797" t="n">
-        <v>1721</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="798">
@@ -27582,7 +27582,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="H801" t="n">
-        <v>20230</v>
+        <v>20529</v>
       </c>
     </row>
     <row r="802">
@@ -27616,7 +27616,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -27639,7 +27639,7 @@
         <v>0</v>
       </c>
       <c r="H802" t="n">
-        <v>9651</v>
+        <v>9726</v>
       </c>
     </row>
     <row r="803">
@@ -27650,7 +27650,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="H803" t="n">
-        <v>18388</v>
+        <v>18381</v>
       </c>
     </row>
     <row r="804">
@@ -27786,7 +27786,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -27854,7 +27854,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -27877,7 +27877,7 @@
         <v>0</v>
       </c>
       <c r="H809" t="n">
-        <v>2684</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="810">
@@ -27888,7 +27888,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -27911,7 +27911,7 @@
         <v>0</v>
       </c>
       <c r="H810" t="n">
-        <v>715</v>
+        <v>814</v>
       </c>
     </row>
     <row r="811">
@@ -28024,7 +28024,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -28047,7 +28047,7 @@
         <v>0</v>
       </c>
       <c r="H814" t="n">
-        <v>30543</v>
+        <v>30931</v>
       </c>
     </row>
     <row r="815">
@@ -28194,7 +28194,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="H819" t="n">
-        <v>10302</v>
+        <v>10369</v>
       </c>
     </row>
     <row r="820">
@@ -28364,7 +28364,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="H824" t="n">
-        <v>9951</v>
+        <v>10063</v>
       </c>
     </row>
     <row r="825">
@@ -28398,7 +28398,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H825" t="n">
-        <v>9141</v>
+        <v>9510</v>
       </c>
     </row>
     <row r="826">
@@ -28534,7 +28534,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -28557,7 +28557,7 @@
         <v>0</v>
       </c>
       <c r="H829" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="830">
@@ -28568,7 +28568,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -28591,7 +28591,7 @@
         <v>0</v>
       </c>
       <c r="H830" t="n">
-        <v>99555</v>
+        <v>99962</v>
       </c>
     </row>
     <row r="831">
@@ -28636,7 +28636,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -28659,7 +28659,7 @@
         <v>0</v>
       </c>
       <c r="H832" t="n">
-        <v>61255</v>
+        <v>61342</v>
       </c>
     </row>
     <row r="833">
@@ -28670,7 +28670,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -28693,7 +28693,7 @@
         <v>0</v>
       </c>
       <c r="H833" t="n">
-        <v>5390</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="834">
@@ -28772,7 +28772,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -28795,7 +28795,7 @@
         <v>0</v>
       </c>
       <c r="H836" t="n">
-        <v>9320</v>
+        <v>9449</v>
       </c>
     </row>
     <row r="837">
@@ -28942,7 +28942,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="H841" t="n">
-        <v>27949</v>
+        <v>28110</v>
       </c>
     </row>
     <row r="842">
@@ -29010,7 +29010,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -29033,7 +29033,7 @@
         <v>0</v>
       </c>
       <c r="H843" t="n">
-        <v>26685</v>
+        <v>26688</v>
       </c>
     </row>
     <row r="844">
@@ -29214,7 +29214,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>2024/11/16</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -29237,7 +29237,7 @@
         <v>0</v>
       </c>
       <c r="H849" t="n">
-        <v>6769</v>
+        <v>6877</v>
       </c>
     </row>
     <row r="850">
@@ -29248,7 +29248,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -29271,7 +29271,7 @@
         <v>0</v>
       </c>
       <c r="H850" t="n">
-        <v>6558</v>
+        <v>6662</v>
       </c>
     </row>
     <row r="851">
@@ -29452,7 +29452,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="H856" t="n">
-        <v>39703</v>
+        <v>39769</v>
       </c>
     </row>
     <row r="857">
@@ -29486,7 +29486,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -29509,7 +29509,7 @@
         <v>0</v>
       </c>
       <c r="H857" t="n">
-        <v>93374</v>
+        <v>94566</v>
       </c>
     </row>
     <row r="858">
@@ -29554,7 +29554,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="H859" t="n">
-        <v>45205</v>
+        <v>45534</v>
       </c>
     </row>
     <row r="860">
@@ -30098,7 +30098,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -30121,7 +30121,7 @@
         <v>0</v>
       </c>
       <c r="H875" t="n">
-        <v>38271</v>
+        <v>38273</v>
       </c>
     </row>
     <row r="876">
@@ -30166,7 +30166,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2024/10/12</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="H877" t="n">
-        <v>4972</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="878">
@@ -30200,7 +30200,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="H878" t="n">
-        <v>24081</v>
+        <v>24222</v>
       </c>
     </row>
     <row r="879">
@@ -30234,7 +30234,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -30257,7 +30257,7 @@
         <v>0</v>
       </c>
       <c r="H879" t="n">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="880">
@@ -30302,7 +30302,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -30325,7 +30325,7 @@
         <v>0</v>
       </c>
       <c r="H881" t="n">
-        <v>6888</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="882">
@@ -30438,7 +30438,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -30540,7 +30540,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -30563,7 +30563,7 @@
         <v>0</v>
       </c>
       <c r="H888" t="n">
-        <v>7324</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="889">
@@ -30676,7 +30676,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -30699,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="H892" t="n">
-        <v>12541</v>
+        <v>12560</v>
       </c>
     </row>
     <row r="893">
@@ -30869,7 +30869,7 @@
         <v>0</v>
       </c>
       <c r="H897" t="n">
-        <v>43511</v>
+        <v>43566</v>
       </c>
     </row>
     <row r="898">
@@ -31016,7 +31016,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>2024/11/16</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="H902" t="n">
-        <v>6987</v>
+        <v>6997</v>
       </c>
     </row>
     <row r="903">
@@ -31220,7 +31220,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -450,7 +450,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>361</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/12/01</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>95319</v>
+        <v>96483</v>
       </c>
     </row>
     <row r="90">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>1875</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="362">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>849</v>
+        <v>907</v>
       </c>
     </row>
     <row r="367">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>3776</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="368">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>10087</v>
+        <v>13537</v>
       </c>
     </row>
     <row r="377">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>11299</v>
+        <v>11461</v>
       </c>
     </row>
     <row r="383">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>7112</v>
+        <v>7228</v>
       </c>
     </row>
     <row r="385">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>20407</v>
+        <v>20850</v>
       </c>
     </row>
     <row r="398">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>37959</v>
+        <v>38486</v>
       </c>
     </row>
     <row r="399">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14141,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="n">
-        <v>6852</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="406">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>5257</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="425">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="482">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>211</v>
+        <v>284</v>
       </c>
     </row>
     <row r="519">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="533">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="n">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="548">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="H621" t="n">
-        <v>13795</v>
+        <v>13830</v>
       </c>
     </row>
     <row r="622">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>23316</v>
+        <v>23767</v>
       </c>
     </row>
     <row r="640">
@@ -22176,7 +22176,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -22199,7 +22199,7 @@
         <v>0</v>
       </c>
       <c r="H642" t="n">
-        <v>21588</v>
+        <v>21595</v>
       </c>
     </row>
     <row r="643">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>6900</v>
+        <v>6978</v>
       </c>
     </row>
     <row r="646">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22675,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="H656" t="n">
-        <v>70015</v>
+        <v>70020</v>
       </c>
     </row>
     <row r="657">
@@ -22720,7 +22720,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -22743,7 +22743,7 @@
         <v>0</v>
       </c>
       <c r="H658" t="n">
-        <v>40919</v>
+        <v>41047</v>
       </c>
     </row>
     <row r="659">
@@ -22992,7 +22992,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -23015,7 +23015,7 @@
         <v>0</v>
       </c>
       <c r="H666" t="n">
-        <v>1904</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="667">
@@ -23026,7 +23026,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -23049,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="H667" t="n">
-        <v>13911</v>
+        <v>14039</v>
       </c>
     </row>
     <row r="668">
@@ -23264,7 +23264,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -23287,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="H674" t="n">
-        <v>21280</v>
+        <v>21469</v>
       </c>
     </row>
     <row r="675">
@@ -23536,7 +23536,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -23559,7 +23559,7 @@
         <v>0</v>
       </c>
       <c r="H682" t="n">
-        <v>14317</v>
+        <v>14319</v>
       </c>
     </row>
     <row r="683">
@@ -23740,7 +23740,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2024/10/27</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -23763,7 +23763,7 @@
         <v>0</v>
       </c>
       <c r="H688" t="n">
-        <v>2779</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="689">
@@ -24250,7 +24250,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -24273,7 +24273,7 @@
         <v>0</v>
       </c>
       <c r="H703" t="n">
-        <v>45748</v>
+        <v>46549</v>
       </c>
     </row>
     <row r="704">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="H707" t="n">
-        <v>9407</v>
+        <v>9459</v>
       </c>
     </row>
     <row r="708">
@@ -24522,7 +24522,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -24545,7 +24545,7 @@
         <v>0</v>
       </c>
       <c r="H711" t="n">
-        <v>16801</v>
+        <v>16796</v>
       </c>
     </row>
     <row r="712">
@@ -25270,7 +25270,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -25293,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="H733" t="n">
-        <v>4052</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="734">
@@ -25474,7 +25474,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -25497,7 +25497,7 @@
         <v>0</v>
       </c>
       <c r="H739" t="n">
-        <v>8527</v>
+        <v>8636</v>
       </c>
     </row>
     <row r="740">
@@ -25542,7 +25542,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -25565,7 +25565,7 @@
         <v>0</v>
       </c>
       <c r="H741" t="n">
-        <v>18187</v>
+        <v>18345</v>
       </c>
     </row>
     <row r="742">
@@ -26188,7 +26188,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -26211,7 +26211,7 @@
         <v>0</v>
       </c>
       <c r="H760" t="n">
-        <v>21235</v>
+        <v>21266</v>
       </c>
     </row>
     <row r="761">
@@ -26358,7 +26358,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H765" t="n">
-        <v>10231</v>
+        <v>10331</v>
       </c>
     </row>
     <row r="766">
@@ -26528,7 +26528,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -26551,7 +26551,7 @@
         <v>0</v>
       </c>
       <c r="H770" t="n">
-        <v>4230</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="771">
@@ -26732,7 +26732,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2024/11/16</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -26755,7 +26755,7 @@
         <v>0</v>
       </c>
       <c r="H776" t="n">
-        <v>22991</v>
+        <v>23018</v>
       </c>
     </row>
     <row r="777">
@@ -26766,7 +26766,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -26834,7 +26834,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -26857,7 +26857,7 @@
         <v>0</v>
       </c>
       <c r="H779" t="n">
-        <v>8377</v>
+        <v>8427</v>
       </c>
     </row>
     <row r="780">
@@ -27038,7 +27038,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -27242,7 +27242,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -27265,7 +27265,7 @@
         <v>0</v>
       </c>
       <c r="H791" t="n">
-        <v>10684</v>
+        <v>10925</v>
       </c>
     </row>
     <row r="792">
@@ -27310,7 +27310,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -27333,7 +27333,7 @@
         <v>0</v>
       </c>
       <c r="H793" t="n">
-        <v>26745</v>
+        <v>26910</v>
       </c>
     </row>
     <row r="794">
@@ -27582,7 +27582,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="H801" t="n">
-        <v>20529</v>
+        <v>20547</v>
       </c>
     </row>
     <row r="802">
@@ -27684,7 +27684,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="H804" t="n">
-        <v>18284</v>
+        <v>18295</v>
       </c>
     </row>
     <row r="805">
@@ -27922,7 +27922,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -27945,7 +27945,7 @@
         <v>0</v>
       </c>
       <c r="H811" t="n">
-        <v>20305</v>
+        <v>20398</v>
       </c>
     </row>
     <row r="812">
@@ -28568,7 +28568,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -28636,7 +28636,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -28659,7 +28659,7 @@
         <v>0</v>
       </c>
       <c r="H832" t="n">
-        <v>61342</v>
+        <v>62618</v>
       </c>
     </row>
     <row r="833">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/11/24</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -28829,7 +28829,7 @@
         <v>0</v>
       </c>
       <c r="H837" t="n">
-        <v>13233</v>
+        <v>13464</v>
       </c>
     </row>
     <row r="838">
@@ -28874,7 +28874,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -28897,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="H839" t="n">
-        <v>12211</v>
+        <v>12304</v>
       </c>
     </row>
     <row r="840">
@@ -29010,7 +29010,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -29146,7 +29146,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -29169,7 +29169,7 @@
         <v>0</v>
       </c>
       <c r="H847" t="n">
-        <v>27760</v>
+        <v>27863</v>
       </c>
     </row>
     <row r="848">
@@ -30268,7 +30268,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="H880" t="n">
-        <v>6749</v>
+        <v>6795</v>
       </c>
     </row>
     <row r="881">
@@ -30676,7 +30676,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -30846,7 +30846,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -30869,7 +30869,7 @@
         <v>0</v>
       </c>
       <c r="H897" t="n">
-        <v>43566</v>
+        <v>43576</v>
       </c>
     </row>
     <row r="898">
@@ -30982,7 +30982,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -31005,7 +31005,7 @@
         <v>0</v>
       </c>
       <c r="H901" t="n">
-        <v>10384</v>
+        <v>10415</v>
       </c>
     </row>
     <row r="902">

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -586,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>319</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9">
@@ -994,7 +994,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>1606</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="119">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>2180</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="139">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>329</v>
+        <v>394</v>
       </c>
     </row>
     <row r="164">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>5419</v>
+        <v>5469</v>
       </c>
     </row>
     <row r="203">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>9218</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="221">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>12972</v>
+        <v>13053</v>
       </c>
     </row>
     <row r="241">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>16597</v>
+        <v>16881</v>
       </c>
     </row>
     <row r="250">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>19246</v>
+        <v>19316</v>
       </c>
     </row>
     <row r="272">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2024/11/23</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>59815</v>
+        <v>60517</v>
       </c>
     </row>
     <row r="280">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="H283" t="n">
-        <v>80708</v>
+        <v>81086</v>
       </c>
     </row>
     <row r="284">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>40510</v>
+        <v>40581</v>
       </c>
     </row>
     <row r="286">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>34187</v>
+        <v>34291</v>
       </c>
     </row>
     <row r="288">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>24452</v>
+        <v>24511</v>
       </c>
     </row>
     <row r="301">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>9043</v>
+        <v>9174</v>
       </c>
     </row>
     <row r="307">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>28106</v>
+        <v>28210</v>
       </c>
     </row>
     <row r="316">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>3836</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="369">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>112984</v>
+        <v>113614</v>
       </c>
     </row>
     <row r="379">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>15510</v>
+        <v>15123</v>
       </c>
     </row>
     <row r="380">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>1715</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="381">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>2105</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="387">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>8162</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="393">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>2490</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="397">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>38486</v>
+        <v>38544</v>
       </c>
     </row>
     <row r="402">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>8154</v>
+        <v>8246</v>
       </c>
     </row>
     <row r="403">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>43015</v>
+        <v>43052</v>
       </c>
     </row>
     <row r="408">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>1223</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="411">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>15480</v>
+        <v>15519</v>
       </c>
     </row>
     <row r="415">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>1911</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="417">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Deportes Rancagua</t>
+          <t>Corporación Municipal de Deportes de Rancagua</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="425">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>451</v>
+        <v>737</v>
       </c>
     </row>
     <row r="430">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>1592</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="452">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="n">
-        <v>2008</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="455">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="464">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>747</v>
+        <v>896</v>
       </c>
     </row>
     <row r="467">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>497</v>
+        <v>532</v>
       </c>
     </row>
     <row r="484">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>3934</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="494">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>961</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="502">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>343</v>
+        <v>395</v>
       </c>
     </row>
     <row r="503">
@@ -17518,7 +17518,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>679</v>
+        <v>748</v>
       </c>
     </row>
     <row r="506">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>1243</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="510">
@@ -18062,7 +18062,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="n">
-        <v>171</v>
+        <v>194</v>
       </c>
     </row>
     <row r="522">
@@ -18130,7 +18130,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="n">
-        <v>2010</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="524">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="526">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2024/11/10</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="569">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/11/17</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="597">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>1207</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="608">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="H608" t="n">
-        <v>13979</v>
+        <v>14176</v>
       </c>
     </row>
     <row r="609">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="H615" t="n">
-        <v>19807</v>
+        <v>19959</v>
       </c>
     </row>
     <row r="616">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/11/23</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>41668</v>
+        <v>42169</v>
       </c>
     </row>
     <row r="617">
@@ -21326,7 +21326,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>14384</v>
+        <v>14262</v>
       </c>
     </row>
     <row r="618">
@@ -21360,7 +21360,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/12/14</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="H618" t="n">
-        <v>13880</v>
+        <v>13927</v>
       </c>
     </row>
     <row r="619">
@@ -21734,7 +21734,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -21757,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>40455</v>
+        <v>41034</v>
       </c>
     </row>
     <row r="630">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>14762</v>
+        <v>15078</v>
       </c>
     </row>
     <row r="631">
@@ -22142,7 +22142,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="H641" t="n">
-        <v>132039</v>
+        <v>133761</v>
       </c>
     </row>
     <row r="642">
@@ -22176,7 +22176,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -22199,7 +22199,7 @@
         <v>0</v>
       </c>
       <c r="H642" t="n">
-        <v>14063</v>
+        <v>14444</v>
       </c>
     </row>
     <row r="643">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>6978</v>
+        <v>7052</v>
       </c>
     </row>
     <row r="650">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>4119</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="651">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>8862</v>
+        <v>8945</v>
       </c>
     </row>
     <row r="655">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22788,7 +22788,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -22811,7 +22811,7 @@
         <v>0</v>
       </c>
       <c r="H660" t="n">
-        <v>70638</v>
+        <v>70642</v>
       </c>
     </row>
     <row r="661">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -22879,7 +22879,7 @@
         <v>0</v>
       </c>
       <c r="H662" t="n">
-        <v>41444</v>
+        <v>41580</v>
       </c>
     </row>
     <row r="663">
@@ -23094,7 +23094,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -23117,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="H669" t="n">
-        <v>1802</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="670">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -23151,7 +23151,7 @@
         <v>0</v>
       </c>
       <c r="H670" t="n">
-        <v>2680</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="671">
@@ -23298,7 +23298,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="H675" t="n">
-        <v>10960</v>
+        <v>10981</v>
       </c>
     </row>
     <row r="676">
@@ -23468,7 +23468,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -23491,7 +23491,7 @@
         <v>0</v>
       </c>
       <c r="H680" t="n">
-        <v>32892</v>
+        <v>32957</v>
       </c>
     </row>
     <row r="681">
@@ -23502,7 +23502,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -23525,7 +23525,7 @@
         <v>0</v>
       </c>
       <c r="H681" t="n">
-        <v>4485</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="682">
@@ -23536,7 +23536,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -23559,7 +23559,7 @@
         <v>0</v>
       </c>
       <c r="H682" t="n">
-        <v>21101</v>
+        <v>21372</v>
       </c>
     </row>
     <row r="683">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="H685" t="n">
-        <v>5797</v>
+        <v>6123</v>
       </c>
     </row>
     <row r="686">
@@ -23774,7 +23774,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="H689" t="n">
-        <v>13395</v>
+        <v>13574</v>
       </c>
     </row>
     <row r="690">
@@ -24250,7 +24250,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -24273,7 +24273,7 @@
         <v>0</v>
       </c>
       <c r="H703" t="n">
-        <v>38008</v>
+        <v>38429</v>
       </c>
     </row>
     <row r="704">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="H708" t="n">
-        <v>3125</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="709">
@@ -24454,7 +24454,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -24477,7 +24477,7 @@
         <v>0</v>
       </c>
       <c r="H709" t="n">
-        <v>27204</v>
+        <v>27728</v>
       </c>
     </row>
     <row r="710">
@@ -24522,7 +24522,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -24545,7 +24545,7 @@
         <v>0</v>
       </c>
       <c r="H711" t="n">
-        <v>9459</v>
+        <v>9503</v>
       </c>
     </row>
     <row r="712">
@@ -24692,7 +24692,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="H716" t="n">
-        <v>93336</v>
+        <v>93996</v>
       </c>
     </row>
     <row r="717">
@@ -24760,7 +24760,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -24783,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="H718" t="n">
-        <v>10856</v>
+        <v>12189</v>
       </c>
     </row>
     <row r="719">
@@ -24862,7 +24862,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="H721" t="n">
-        <v>7979</v>
+        <v>8077</v>
       </c>
     </row>
     <row r="722">
@@ -24964,7 +24964,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -25032,7 +25032,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -25338,7 +25338,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -25372,7 +25372,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -25395,7 +25395,7 @@
         <v>0</v>
       </c>
       <c r="H736" t="n">
-        <v>16864</v>
+        <v>17005</v>
       </c>
     </row>
     <row r="737">
@@ -25406,7 +25406,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -25429,7 +25429,7 @@
         <v>0</v>
       </c>
       <c r="H737" t="n">
-        <v>4080</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="738">
@@ -25440,7 +25440,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -25463,7 +25463,7 @@
         <v>0</v>
       </c>
       <c r="H738" t="n">
-        <v>18242</v>
+        <v>18268</v>
       </c>
     </row>
     <row r="739">
@@ -25474,7 +25474,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -25497,7 +25497,7 @@
         <v>0</v>
       </c>
       <c r="H739" t="n">
-        <v>23426</v>
+        <v>23444</v>
       </c>
     </row>
     <row r="740">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -25531,7 +25531,7 @@
         <v>0</v>
       </c>
       <c r="H740" t="n">
-        <v>32471</v>
+        <v>32579</v>
       </c>
     </row>
     <row r="741">
@@ -25576,7 +25576,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="H742" t="n">
-        <v>97341</v>
+        <v>97864</v>
       </c>
     </row>
     <row r="743">
@@ -25610,7 +25610,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -25678,7 +25678,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -25701,7 +25701,7 @@
         <v>0</v>
       </c>
       <c r="H745" t="n">
-        <v>18345</v>
+        <v>18520</v>
       </c>
     </row>
     <row r="746">
@@ -25780,7 +25780,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H748" t="n">
-        <v>14510</v>
+        <v>14518</v>
       </c>
     </row>
     <row r="749">
@@ -25814,12 +25814,12 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>Municipalidad de Macul</t>
+          <t>I. Municipalidad de Macul</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
@@ -25848,7 +25848,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="H750" t="n">
-        <v>16255</v>
+        <v>16363</v>
       </c>
     </row>
     <row r="751">
@@ -25916,7 +25916,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="H752" t="n">
-        <v>6107</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="753">
@@ -25984,7 +25984,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -26007,7 +26007,7 @@
         <v>0</v>
       </c>
       <c r="H754" t="n">
-        <v>624</v>
+        <v>724</v>
       </c>
     </row>
     <row r="755">
@@ -26018,7 +26018,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="H755" t="n">
-        <v>8155</v>
+        <v>8226</v>
       </c>
     </row>
     <row r="756">
@@ -26086,7 +26086,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -26109,7 +26109,7 @@
         <v>0</v>
       </c>
       <c r="H757" t="n">
-        <v>22621</v>
+        <v>22863</v>
       </c>
     </row>
     <row r="758">
@@ -26188,7 +26188,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -26211,7 +26211,7 @@
         <v>0</v>
       </c>
       <c r="H760" t="n">
-        <v>13891</v>
+        <v>14123</v>
       </c>
     </row>
     <row r="761">
@@ -26256,7 +26256,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -26279,7 +26279,7 @@
         <v>0</v>
       </c>
       <c r="H762" t="n">
-        <v>14456</v>
+        <v>14648</v>
       </c>
     </row>
     <row r="763">
@@ -26324,7 +26324,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -26347,7 +26347,7 @@
         <v>0</v>
       </c>
       <c r="H764" t="n">
-        <v>21266</v>
+        <v>21308</v>
       </c>
     </row>
     <row r="765">
@@ -26460,7 +26460,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -26483,7 +26483,7 @@
         <v>0</v>
       </c>
       <c r="H768" t="n">
-        <v>10808</v>
+        <v>10828</v>
       </c>
     </row>
     <row r="769">
@@ -26494,7 +26494,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -26517,7 +26517,7 @@
         <v>0</v>
       </c>
       <c r="H769" t="n">
-        <v>10331</v>
+        <v>10357</v>
       </c>
     </row>
     <row r="770">
@@ -26528,7 +26528,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -26551,7 +26551,7 @@
         <v>0</v>
       </c>
       <c r="H770" t="n">
-        <v>865</v>
+        <v>920</v>
       </c>
     </row>
     <row r="771">
@@ -26596,7 +26596,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -26619,7 +26619,7 @@
         <v>0</v>
       </c>
       <c r="H772" t="n">
-        <v>11496</v>
+        <v>11558</v>
       </c>
     </row>
     <row r="773">
@@ -26630,7 +26630,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -26653,7 +26653,7 @@
         <v>0</v>
       </c>
       <c r="H773" t="n">
-        <v>6157</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="774">
@@ -26664,7 +26664,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -26687,7 +26687,7 @@
         <v>0</v>
       </c>
       <c r="H774" t="n">
-        <v>4225</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="775">
@@ -26698,7 +26698,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="H775" t="n">
-        <v>4553</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="776">
@@ -26732,7 +26732,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -26755,7 +26755,7 @@
         <v>0</v>
       </c>
       <c r="H776" t="n">
-        <v>2210</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="777">
@@ -26766,7 +26766,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -26789,7 +26789,7 @@
         <v>0</v>
       </c>
       <c r="H777" t="n">
-        <v>16129</v>
+        <v>16318</v>
       </c>
     </row>
     <row r="778">
@@ -26834,7 +26834,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -26857,7 +26857,7 @@
         <v>0</v>
       </c>
       <c r="H779" t="n">
-        <v>81027</v>
+        <v>81245</v>
       </c>
     </row>
     <row r="780">
@@ -26868,7 +26868,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>2024/12/14</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -26891,7 +26891,7 @@
         <v>0</v>
       </c>
       <c r="H780" t="n">
-        <v>23038</v>
+        <v>23493</v>
       </c>
     </row>
     <row r="781">
@@ -27106,7 +27106,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -27310,7 +27310,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -27333,7 +27333,7 @@
         <v>0</v>
       </c>
       <c r="H793" t="n">
-        <v>4445</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="794">
@@ -27378,7 +27378,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -27401,7 +27401,7 @@
         <v>0</v>
       </c>
       <c r="H795" t="n">
-        <v>3766</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="796">
@@ -27446,7 +27446,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="H797" t="n">
-        <v>53895</v>
+        <v>54443</v>
       </c>
     </row>
     <row r="798">
@@ -27480,7 +27480,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="H798" t="n">
-        <v>26910</v>
+        <v>27181</v>
       </c>
     </row>
     <row r="799">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>2024/12/15</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -27571,7 +27571,7 @@
         <v>0</v>
       </c>
       <c r="H800" t="n">
-        <v>5768</v>
+        <v>5894</v>
       </c>
     </row>
     <row r="801">
@@ -27650,7 +27650,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="H803" t="n">
-        <v>15492</v>
+        <v>15506</v>
       </c>
     </row>
     <row r="804">
@@ -27718,7 +27718,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -27752,7 +27752,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -27775,7 +27775,7 @@
         <v>0</v>
       </c>
       <c r="H806" t="n">
-        <v>20565</v>
+        <v>20878</v>
       </c>
     </row>
     <row r="807">
@@ -27854,7 +27854,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -27877,7 +27877,7 @@
         <v>0</v>
       </c>
       <c r="H809" t="n">
-        <v>18664</v>
+        <v>18771</v>
       </c>
     </row>
     <row r="810">
@@ -27922,7 +27922,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -27945,7 +27945,7 @@
         <v>0</v>
       </c>
       <c r="H811" t="n">
-        <v>9600</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="812">
@@ -27990,7 +27990,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="H813" t="n">
-        <v>18823</v>
+        <v>18992</v>
       </c>
     </row>
     <row r="814">
@@ -28058,7 +28058,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -28081,7 +28081,7 @@
         <v>0</v>
       </c>
       <c r="H815" t="n">
-        <v>843</v>
+        <v>979</v>
       </c>
     </row>
     <row r="816">
@@ -28364,7 +28364,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="H824" t="n">
-        <v>10369</v>
+        <v>10533</v>
       </c>
     </row>
     <row r="825">
@@ -28398,7 +28398,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H825" t="n">
-        <v>14766</v>
+        <v>14847</v>
       </c>
     </row>
     <row r="826">
@@ -28602,7 +28602,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -28625,7 +28625,7 @@
         <v>0</v>
       </c>
       <c r="H831" t="n">
-        <v>7005</v>
+        <v>7060</v>
       </c>
     </row>
     <row r="832">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -28829,7 +28829,7 @@
         <v>0</v>
       </c>
       <c r="H837" t="n">
-        <v>62699</v>
+        <v>63616</v>
       </c>
     </row>
     <row r="838">
@@ -28840,7 +28840,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="H838" t="n">
-        <v>5846</v>
+        <v>5953</v>
       </c>
     </row>
     <row r="839">
@@ -28874,7 +28874,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -28897,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="H839" t="n">
-        <v>3599</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="840">
@@ -28942,7 +28942,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="H841" t="n">
-        <v>9449</v>
+        <v>9582</v>
       </c>
     </row>
     <row r="842">
@@ -29010,7 +29010,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -29033,7 +29033,7 @@
         <v>0</v>
       </c>
       <c r="H843" t="n">
-        <v>45599</v>
+        <v>46133</v>
       </c>
     </row>
     <row r="844">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="H845" t="n">
-        <v>3234</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="846">
@@ -29282,7 +29282,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -29305,7 +29305,7 @@
         <v>0</v>
       </c>
       <c r="H851" t="n">
-        <v>5416</v>
+        <v>5422</v>
       </c>
     </row>
     <row r="852">
@@ -29350,7 +29350,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -29373,7 +29373,7 @@
         <v>0</v>
       </c>
       <c r="H853" t="n">
-        <v>20324</v>
+        <v>20431</v>
       </c>
     </row>
     <row r="854">
@@ -29384,7 +29384,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -29407,7 +29407,7 @@
         <v>0</v>
       </c>
       <c r="H854" t="n">
-        <v>6877</v>
+        <v>6983</v>
       </c>
     </row>
     <row r="855">
@@ -29452,7 +29452,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="H856" t="n">
-        <v>8725</v>
+        <v>8936</v>
       </c>
     </row>
     <row r="857">
@@ -29928,7 +29928,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -29951,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="H870" t="n">
-        <v>1192</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="871">
@@ -29962,7 +29962,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -29985,7 +29985,7 @@
         <v>0</v>
       </c>
       <c r="H871" t="n">
-        <v>12548</v>
+        <v>12619</v>
       </c>
     </row>
     <row r="872">
@@ -30166,7 +30166,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="H877" t="n">
-        <v>14439</v>
+        <v>14740</v>
       </c>
     </row>
     <row r="878">
@@ -30336,7 +30336,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/12/21</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="H882" t="n">
-        <v>5077</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="883">
@@ -30506,7 +30506,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -30529,7 +30529,7 @@
         <v>0</v>
       </c>
       <c r="H887" t="n">
-        <v>64319</v>
+        <v>65139</v>
       </c>
     </row>
     <row r="888">
@@ -30540,7 +30540,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -30563,7 +30563,7 @@
         <v>0</v>
       </c>
       <c r="H888" t="n">
-        <v>12753</v>
+        <v>12786</v>
       </c>
     </row>
     <row r="889">
@@ -30710,7 +30710,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -30733,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="H893" t="n">
-        <v>7402</v>
+        <v>7482</v>
       </c>
     </row>
     <row r="894">
@@ -30880,7 +30880,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -30903,7 +30903,7 @@
         <v>0</v>
       </c>
       <c r="H898" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="899">
@@ -31016,7 +31016,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="H902" t="n">
-        <v>43760</v>
+        <v>43964</v>
       </c>
     </row>
     <row r="903">
@@ -31152,7 +31152,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -31175,7 +31175,7 @@
         <v>0</v>
       </c>
       <c r="H906" t="n">
-        <v>10446</v>
+        <v>10487</v>
       </c>
     </row>
     <row r="907">
@@ -31186,7 +31186,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -31209,7 +31209,7 @@
         <v>0</v>
       </c>
       <c r="H907" t="n">
-        <v>7134</v>
+        <v>7144</v>
       </c>
     </row>
     <row r="908">
@@ -31356,7 +31356,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -31379,7 +31379,7 @@
         <v>0</v>
       </c>
       <c r="H912" t="n">
-        <v>16842</v>
+        <v>17211</v>
       </c>
     </row>
     <row r="913">
@@ -31594,7 +31594,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -31617,7 +31617,7 @@
         <v>0</v>
       </c>
       <c r="H919" t="n">
-        <v>12777</v>
+        <v>12951</v>
       </c>
     </row>
     <row r="920">

--- a/consolidado_historico6.xlsx
+++ b/consolidado_historico6.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1486</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="71">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>736</v>
+        <v>752</v>
       </c>
     </row>
     <row r="86">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2025/01/01</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>96483</v>
+        <v>97646</v>
       </c>
     </row>
     <row r="90">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>12034</v>
+        <v>12151</v>
       </c>
     </row>
     <row r="248">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>25986</v>
+        <v>26610</v>
       </c>
     </row>
     <row r="383">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="n">
-        <v>7228</v>
+        <v>7333</v>
       </c>
     </row>
     <row r="389">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="n">
-        <v>24794</v>
+        <v>25164</v>
       </c>
     </row>
     <row r="397">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="422">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>503</v>
+        <v>518</v>
       </c>
     </row>
     <row r="440">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="444">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>5366</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="471">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="479">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="480">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>580</v>
+        <v>636</v>
       </c>
     </row>
     <row r="485">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2024/12/14</t>
+          <t>2025/01/05</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>960</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="488">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="489">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>1001</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="503">
@@ -17620,7 +17620,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="528">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="n">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="544">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>2346</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="559">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -21360,7 +21360,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>3300</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="621">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>7499</v>
+        <v>7608</v>
       </c>
     </row>
     <row r="633">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -23094,7 +23094,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -23196,7 +23196,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -23253,7 +23253,7 @@
         <v>0</v>
       </c>
       <c r="H673" t="n">
-        <v>18599</v>
+        <v>18644</v>
       </c>
     </row>
     <row r="674">
@@ -23434,7 +23434,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="H679" t="n">
-        <v>21469</v>
+        <v>21660</v>
       </c>
     </row>
     <row r="680">
@@ -23842,7 +23842,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -23865,7 +23865,7 @@
         <v>0</v>
       </c>
       <c r="H691" t="n">
-        <v>11204</v>
+        <v>11222</v>
       </c>
     </row>
     <row r="692">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -24103,7 +24103,7 @@
         <v>0</v>
       </c>
       <c r="H698" t="n">
-        <v>19514</v>
+        <v>19634</v>
       </c>
     </row>
     <row r="699">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="H706" t="n">
-        <v>5684</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="707">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2024/12/15</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -24681,7 +24681,7 @@
         <v>0</v>
       </c>
       <c r="H715" t="n">
-        <v>4812</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="716">
@@ -24726,7 +24726,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -24749,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="H717" t="n">
-        <v>93996</v>
+        <v>94276</v>
       </c>
     </row>
     <row r="718">
@@ -24828,7 +24828,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2024/11/23</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -24851,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="H720" t="n">
-        <v>4831</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="721">
@@ -24862,7 +24862,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -25032,7 +25032,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="H726" t="n">
-        <v>6496</v>
+        <v>6519</v>
       </c>
     </row>
     <row r="727">
@@ -25542,7 +25542,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -25644,7 +25644,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -25814,7 +25814,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="H749" t="n">
-        <v>14544</v>
+        <v>14604</v>
       </c>
     </row>
     <row r="750">
@@ -26392,7 +26392,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -26415,7 +26415,7 @@
         <v>0</v>
       </c>
       <c r="H766" t="n">
-        <v>3678</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="767">
@@ -26936,7 +26936,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -27276,7 +27276,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -27299,7 +27299,7 @@
         <v>0</v>
       </c>
       <c r="H792" t="n">
-        <v>28562</v>
+        <v>28664</v>
       </c>
     </row>
     <row r="793">
@@ -27650,7 +27650,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="H803" t="n">
-        <v>1898</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="804">
@@ -27820,7 +27820,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>2024/12/22</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -27843,7 +27843,7 @@
         <v>0</v>
       </c>
       <c r="H808" t="n">
-        <v>9753</v>
+        <v>9836</v>
       </c>
     </row>
     <row r="809">
@@ -28874,7 +28874,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -28897,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="H839" t="n">
-        <v>5953</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="840">
@@ -29350,7 +29350,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -29373,7 +29373,7 @@
         <v>0</v>
       </c>
       <c r="H853" t="n">
-        <v>28118</v>
+        <v>28293</v>
       </c>
     </row>
     <row r="854">
@@ -29384,7 +29384,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -29407,7 +29407,7 @@
         <v>0</v>
       </c>
       <c r="H854" t="n">
-        <v>20431</v>
+        <v>20671</v>
       </c>
     </row>
     <row r="855">
@@ -29622,7 +29622,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="H861" t="n">
-        <v>9724</v>
+        <v>9775</v>
       </c>
     </row>
     <row r="862">
@@ -29758,7 +29758,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -29781,7 +29781,7 @@
         <v>0</v>
       </c>
       <c r="H865" t="n">
-        <v>45946</v>
+        <v>46273</v>
       </c>
     </row>
     <row r="866">
@@ -30166,7 +30166,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="H877" t="n">
-        <v>27309</v>
+        <v>27585</v>
       </c>
     </row>
     <row r="878">
@@ -30234,7 +30234,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -30506,7 +30506,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -30529,7 +30529,7 @@
         <v>0</v>
       </c>
       <c r="H887" t="n">
-        <v>7710</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="888">
@@ -30608,7 +30608,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2025/01/04</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -30880,7 +30880,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -31322,7 +31322,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2025/01/04</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -31345,7 +31345,7 @@
         <v>0</v>
       </c>
       <c r="H911" t="n">
-        <v>62212</v>
+        <v>61854</v>
       </c>
     </row>
     <row r="912">
@@ -31764,7 +31764,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -31787,7 +31787,7 @@
         <v>0</v>
       </c>
       <c r="H924" t="n">
-        <v>15231</v>
+        <v>17368</v>
       </c>
     </row>
     <row r="925">
